--- a/python_intro/Assignments/stockMarket.xlsx
+++ b/python_intro/Assignments/stockMarket.xlsx
@@ -5,12 +5,12 @@
   <workbookPr dateCompatibility="0" defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/macbookpro/Documents/codingDojo/python_intro/firstAssignment/bank_stock_datasets/monthly/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/macbookpro/Downloads/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:9_{1CC581C2-73ED-8840-92F7-011BA120283E}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:9_{4A9DD50A-A0A2-A34E-BC13-B2AF4CFCED41}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="60" yWindow="1560" windowWidth="32680" windowHeight="17440" activeTab="7" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="60" yWindow="1560" windowWidth="32680" windowHeight="17440" activeTab="8" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="VTI" sheetId="2" r:id="rId1"/>
@@ -21,75 +21,21 @@
     <sheet name="AlJazira" sheetId="7" r:id="rId6"/>
     <sheet name="pivot table" sheetId="10" r:id="rId7"/>
     <sheet name="Assigment 2" sheetId="9" r:id="rId8"/>
+    <sheet name="Ass 2" sheetId="11" r:id="rId9"/>
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">'Arab National'!$A$1:$B$122</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="4" hidden="1">Rajhi!$A$1:$B$1</definedName>
-    <definedName name="_xlchart.v1.0" hidden="1">'pivot table'!$A$14</definedName>
-    <definedName name="_xlchart.v1.1" hidden="1">'pivot table'!$A$15</definedName>
-    <definedName name="_xlchart.v1.10" hidden="1">'pivot table'!$B$18:$J$18</definedName>
-    <definedName name="_xlchart.v1.11" hidden="1">'pivot table'!$A$14</definedName>
-    <definedName name="_xlchart.v1.12" hidden="1">'pivot table'!$A$15</definedName>
-    <definedName name="_xlchart.v1.13" hidden="1">'pivot table'!$A$16</definedName>
-    <definedName name="_xlchart.v1.14" hidden="1">'pivot table'!$A$17</definedName>
-    <definedName name="_xlchart.v1.15" hidden="1">'pivot table'!$A$18</definedName>
-    <definedName name="_xlchart.v1.16" hidden="1">'pivot table'!$B$13:$J$13</definedName>
-    <definedName name="_xlchart.v1.17" hidden="1">'pivot table'!$B$14:$J$14</definedName>
-    <definedName name="_xlchart.v1.18" hidden="1">'pivot table'!$B$15:$J$15</definedName>
-    <definedName name="_xlchart.v1.19" hidden="1">'pivot table'!$B$16:$J$16</definedName>
-    <definedName name="_xlchart.v1.2" hidden="1">'pivot table'!$A$16</definedName>
-    <definedName name="_xlchart.v1.20" hidden="1">'pivot table'!$B$17:$J$17</definedName>
-    <definedName name="_xlchart.v1.21" hidden="1">'pivot table'!$B$18:$J$18</definedName>
-    <definedName name="_xlchart.v1.22" hidden="1">'pivot table'!$A$14</definedName>
-    <definedName name="_xlchart.v1.23" hidden="1">'pivot table'!$A$15</definedName>
-    <definedName name="_xlchart.v1.24" hidden="1">'pivot table'!$A$16</definedName>
-    <definedName name="_xlchart.v1.25" hidden="1">'pivot table'!$A$17</definedName>
-    <definedName name="_xlchart.v1.26" hidden="1">'pivot table'!$A$18</definedName>
-    <definedName name="_xlchart.v1.27" hidden="1">'pivot table'!$B$13:$J$13</definedName>
-    <definedName name="_xlchart.v1.28" hidden="1">'pivot table'!$B$14:$J$14</definedName>
-    <definedName name="_xlchart.v1.29" hidden="1">'pivot table'!$B$15:$J$15</definedName>
-    <definedName name="_xlchart.v1.3" hidden="1">'pivot table'!$A$17</definedName>
-    <definedName name="_xlchart.v1.30" hidden="1">'pivot table'!$B$16:$J$16</definedName>
-    <definedName name="_xlchart.v1.31" hidden="1">'pivot table'!$B$17:$J$17</definedName>
-    <definedName name="_xlchart.v1.32" hidden="1">'pivot table'!$B$18:$J$18</definedName>
-    <definedName name="_xlchart.v1.33" hidden="1">'pivot table'!$A$14</definedName>
-    <definedName name="_xlchart.v1.34" hidden="1">'pivot table'!$A$15</definedName>
-    <definedName name="_xlchart.v1.35" hidden="1">'pivot table'!$A$16</definedName>
-    <definedName name="_xlchart.v1.36" hidden="1">'pivot table'!$A$17</definedName>
-    <definedName name="_xlchart.v1.37" hidden="1">'pivot table'!$A$18</definedName>
-    <definedName name="_xlchart.v1.38" hidden="1">'pivot table'!$B$13:$J$13</definedName>
-    <definedName name="_xlchart.v1.39" hidden="1">'pivot table'!$B$14:$J$14</definedName>
-    <definedName name="_xlchart.v1.4" hidden="1">'pivot table'!$A$18</definedName>
-    <definedName name="_xlchart.v1.40" hidden="1">'pivot table'!$B$15:$J$15</definedName>
-    <definedName name="_xlchart.v1.41" hidden="1">'pivot table'!$B$16:$J$16</definedName>
-    <definedName name="_xlchart.v1.42" hidden="1">'pivot table'!$B$17:$J$17</definedName>
-    <definedName name="_xlchart.v1.43" hidden="1">'pivot table'!$B$18:$J$18</definedName>
-    <definedName name="_xlchart.v1.44" hidden="1">'pivot table'!$A$14</definedName>
-    <definedName name="_xlchart.v1.45" hidden="1">'pivot table'!$A$15</definedName>
-    <definedName name="_xlchart.v1.46" hidden="1">'pivot table'!$A$16</definedName>
-    <definedName name="_xlchart.v1.47" hidden="1">'pivot table'!$A$17</definedName>
-    <definedName name="_xlchart.v1.48" hidden="1">'pivot table'!$A$18</definedName>
-    <definedName name="_xlchart.v1.49" hidden="1">'pivot table'!$B$13:$J$13</definedName>
-    <definedName name="_xlchart.v1.5" hidden="1">'pivot table'!$B$13:$J$13</definedName>
-    <definedName name="_xlchart.v1.50" hidden="1">'pivot table'!$B$14:$J$14</definedName>
-    <definedName name="_xlchart.v1.51" hidden="1">'pivot table'!$B$15:$J$15</definedName>
-    <definedName name="_xlchart.v1.52" hidden="1">'pivot table'!$B$16:$J$16</definedName>
-    <definedName name="_xlchart.v1.53" hidden="1">'pivot table'!$B$17:$J$17</definedName>
-    <definedName name="_xlchart.v1.54" hidden="1">'pivot table'!$B$18:$J$18</definedName>
-    <definedName name="_xlchart.v1.6" hidden="1">'pivot table'!$B$14:$J$14</definedName>
-    <definedName name="_xlchart.v1.7" hidden="1">'pivot table'!$B$15:$J$15</definedName>
-    <definedName name="_xlchart.v1.8" hidden="1">'pivot table'!$B$16:$J$16</definedName>
-    <definedName name="_xlchart.v1.9" hidden="1">'pivot table'!$B$17:$J$17</definedName>
     <definedName name="Slicer_Bank___Date">#N/A</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <pivotCaches>
-    <pivotCache cacheId="47" r:id="rId9"/>
+    <pivotCache cacheId="0" r:id="rId10"/>
   </pivotCaches>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{BBE1A952-AA13-448e-AADC-164F8A28A991}">
       <x14:slicerCaches>
-        <x14:slicerCache r:id="rId10"/>
+        <x14:slicerCache r:id="rId11"/>
       </x14:slicerCaches>
     </ext>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{79F54976-1DA5-4618-B147-4CDE4B953A38}">
@@ -107,8 +53,115 @@
 </workbook>
 </file>
 
+<file path=xl/metadata.xml><?xml version="1.0" encoding="utf-8"?>
+<metadata xmlns="http://purl.oclc.org/ooxml/spreadsheetml/main" xmlns:xlrd="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata" xmlns:xda="http://schemas.microsoft.com/office/spreadsheetml/2017/dynamicarray">
+  <metadataTypes count="2">
+    <metadataType name="XLDAPR" minSupportedVersion="120000" copy="1" pasteAll="1" pasteValues="1" merge="1" splitFirst="1" rowColShift="1" clearFormats="1" clearComments="1" assign="1" coerce="1" cellMeta="1"/>
+    <metadataType name="XLRICHVALUE" minSupportedVersion="120000" copy="1" pasteAll="1" pasteValues="1" merge="1" splitFirst="1" rowColShift="1" clearFormats="1" clearComments="1" assign="1" coerce="1"/>
+  </metadataTypes>
+  <futureMetadata name="XLDAPR" count="1">
+    <bk>
+      <extLst>
+        <ext uri="{bdbb8cdc-fa1e-496e-a857-3c3f30c029c3}">
+          <xda:dynamicArrayProperties fDynamic="1" fCollapsed="0"/>
+        </ext>
+      </extLst>
+    </bk>
+  </futureMetadata>
+  <futureMetadata name="XLRICHVALUE" count="8">
+    <bk>
+      <extLst>
+        <ext uri="{3e2802c4-a4d2-4d8b-9148-e3be6c30e623}">
+          <xlrd:rvb i="6"/>
+        </ext>
+      </extLst>
+    </bk>
+    <bk>
+      <extLst>
+        <ext uri="{3e2802c4-a4d2-4d8b-9148-e3be6c30e623}">
+          <xlrd:rvb i="12"/>
+        </ext>
+      </extLst>
+    </bk>
+    <bk>
+      <extLst>
+        <ext uri="{3e2802c4-a4d2-4d8b-9148-e3be6c30e623}">
+          <xlrd:rvb i="18"/>
+        </ext>
+      </extLst>
+    </bk>
+    <bk>
+      <extLst>
+        <ext uri="{3e2802c4-a4d2-4d8b-9148-e3be6c30e623}">
+          <xlrd:rvb i="21"/>
+        </ext>
+      </extLst>
+    </bk>
+    <bk>
+      <extLst>
+        <ext uri="{3e2802c4-a4d2-4d8b-9148-e3be6c30e623}">
+          <xlrd:rvb i="24"/>
+        </ext>
+      </extLst>
+    </bk>
+    <bk>
+      <extLst>
+        <ext uri="{3e2802c4-a4d2-4d8b-9148-e3be6c30e623}">
+          <xlrd:rvb i="30"/>
+        </ext>
+      </extLst>
+    </bk>
+    <bk>
+      <extLst>
+        <ext uri="{3e2802c4-a4d2-4d8b-9148-e3be6c30e623}">
+          <xlrd:rvb i="36"/>
+        </ext>
+      </extLst>
+    </bk>
+    <bk>
+      <extLst>
+        <ext uri="{3e2802c4-a4d2-4d8b-9148-e3be6c30e623}">
+          <xlrd:rvb i="39"/>
+        </ext>
+      </extLst>
+    </bk>
+  </futureMetadata>
+  <cellMetadata count="1">
+    <bk>
+      <rc t="1" v="0"/>
+    </bk>
+  </cellMetadata>
+  <valueMetadata count="8">
+    <bk>
+      <rc t="2" v="0"/>
+    </bk>
+    <bk>
+      <rc t="2" v="1"/>
+    </bk>
+    <bk>
+      <rc t="2" v="2"/>
+    </bk>
+    <bk>
+      <rc t="2" v="3"/>
+    </bk>
+    <bk>
+      <rc t="2" v="4"/>
+    </bk>
+    <bk>
+      <rc t="2" v="5"/>
+    </bk>
+    <bk>
+      <rc t="2" v="6"/>
+    </bk>
+    <bk>
+      <rc t="2" v="7"/>
+    </bk>
+  </valueMetadata>
+</metadata>
+</file>
+
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://purl.oclc.org/ooxml/spreadsheetml/main" count="170" uniqueCount="152">
+<sst xmlns="http://purl.oclc.org/ooxml/spreadsheetml/main" count="205" uniqueCount="181">
   <si>
     <t>Date</t>
   </si>
@@ -565,17 +618,107 @@
   <si>
     <t>Sum of Dec-2011</t>
   </si>
+  <si>
+    <t>Barrick Gold Corporation</t>
+  </si>
+  <si>
+    <t>Stock</t>
+  </si>
+  <si>
+    <t>#</t>
+  </si>
+  <si>
+    <t>Symbol</t>
+  </si>
+  <si>
+    <t>Date acquired</t>
+  </si>
+  <si>
+    <t>Shares</t>
+  </si>
+  <si>
+    <t>Intial Price Per Share</t>
+  </si>
+  <si>
+    <t>Initail Cost</t>
+  </si>
+  <si>
+    <t>Current price Per Share</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Current Value </t>
+  </si>
+  <si>
+    <t>Gain/Loss</t>
+  </si>
+  <si>
+    <t>Percent Gain/Loss</t>
+  </si>
+  <si>
+    <t>AAPL</t>
+  </si>
+  <si>
+    <t>APPLE INC.</t>
+  </si>
+  <si>
+    <t>Gold</t>
+  </si>
+  <si>
+    <t>Vanguard TSM Idx</t>
+  </si>
+  <si>
+    <t>General Electric Company </t>
+  </si>
+  <si>
+    <t>GE</t>
+  </si>
+  <si>
+    <t>Microsoft Corporation</t>
+  </si>
+  <si>
+    <t>MSFT</t>
+  </si>
+  <si>
+    <t>Total</t>
+  </si>
+  <si>
+    <t>American Airlines Group Inc.</t>
+  </si>
+  <si>
+    <t>AAL</t>
+  </si>
+  <si>
+    <t>Live Stock Protoflio Price</t>
+  </si>
+  <si>
+    <t>Current Price</t>
+  </si>
+  <si>
+    <t>Compare investing in VTI and with selected stock portfolio over the same period</t>
+  </si>
+  <si>
+    <t>Amount of Gain/Loss of investing in two these market from jun 2009 until now</t>
+  </si>
+  <si>
+    <t>Stock portfolio</t>
+  </si>
+  <si>
+    <t>As shown below investing in select Stock portfolio is much better than investing in VTI, but you have to be careful in selecting market</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://purl.oclc.org/ooxml/spreadsheetml/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="3">
-    <numFmt numFmtId="168" formatCode="mmm\-yyyy"/>
-    <numFmt numFmtId="170" formatCode="0.000"/>
-    <numFmt numFmtId="171" formatCode="d\-mmm\-yy"/>
+  <numFmts count="6">
+    <numFmt numFmtId="44" formatCode="_(&quot;SAR&quot;* #,##0.00_);_(&quot;SAR&quot;* \(#,##0.00\);_(&quot;SAR&quot;* &quot;-&quot;??_);_(@_)"/>
+    <numFmt numFmtId="165" formatCode="_([$$-409]* #,##0.00_);_([$$-409]* \(#,##0.00\);_([$$-409]* &quot;-&quot;??_);_(@_)"/>
+    <numFmt numFmtId="166" formatCode="mmm\-yyyy"/>
+    <numFmt numFmtId="167" formatCode="0.000"/>
+    <numFmt numFmtId="168" formatCode="d\-mmm\-yy"/>
+    <numFmt numFmtId="181" formatCode="0.0000"/>
   </numFmts>
-  <fonts count="20" x14ac:knownFonts="1">
+  <fonts count="24" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -718,8 +861,37 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="13"/>
+      <color rgb="FF000000"/>
+      <name val="Helvetica Neue"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="14"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="29">
+  <fills count="32">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -871,8 +1043,26 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="-0.249977111117893"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0" tint="-0.14999847407452621"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="3" tint="-0.249977111117893"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="16">
+  <borders count="19">
     <border>
       <start/>
       <end/>
@@ -1065,8 +1255,45 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <start style="thin">
+        <color indexed="64"/>
+      </start>
+      <end/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <start/>
+      <end/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <start/>
+      <end style="thin">
+        <color indexed="64"/>
+      </end>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="42">
+  <cellStyleXfs count="43">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="7" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="7" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -1109,32 +1336,33 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="44" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="29">
+  <cellXfs count="58">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="14" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="14" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="168" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="27" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="170" fontId="0" fillId="28" borderId="10" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="167" fontId="0" fillId="28" borderId="10" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="170" fontId="2" fillId="28" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="167" fontId="2" fillId="28" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="170" fontId="0" fillId="28" borderId="12" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="167" fontId="0" fillId="28" borderId="12" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="27" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="170" fontId="0" fillId="28" borderId="14" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="167" fontId="0" fillId="28" borderId="14" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" pivotButton="1"/>
@@ -1155,25 +1383,104 @@
     <xf numFmtId="0" fontId="0" fillId="27" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="171" fontId="0" fillId="27" borderId="13" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="168" fontId="0" fillId="27" borderId="13" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="27" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="167" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="27" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="27" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="18" fillId="27" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="27" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="29" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="27" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="22" fillId="29" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="27" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="20" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="170" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="30" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="30" borderId="10" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="20" fillId="30" borderId="10" xfId="42" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="30" borderId="10" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="181" fontId="0" fillId="30" borderId="10" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="20" fillId="30" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="30" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="20" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="21" fillId="29" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="29" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="29" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="31" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="31" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="30" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="30" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="31" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="42">
+  <cellStyles count="43">
     <cellStyle name="20% - Accent1" xfId="1" builtinId="30" customBuiltin="1"/>
     <cellStyle name="20% - Accent2" xfId="2" builtinId="34" customBuiltin="1"/>
     <cellStyle name="20% - Accent3" xfId="3" builtinId="38" customBuiltin="1"/>
@@ -1201,6 +1508,7 @@
     <cellStyle name="Bad" xfId="25" builtinId="27" customBuiltin="1"/>
     <cellStyle name="Calculation" xfId="26" builtinId="22" customBuiltin="1"/>
     <cellStyle name="Check Cell" xfId="27" builtinId="23" customBuiltin="1"/>
+    <cellStyle name="Currency" xfId="42" builtinId="4"/>
     <cellStyle name="Explanatory Text" xfId="28" builtinId="53" customBuiltin="1"/>
     <cellStyle name="Good" xfId="29" builtinId="26" customBuiltin="1"/>
     <cellStyle name="Heading 1" xfId="30" builtinId="16" customBuiltin="1"/>
@@ -1217,7 +1525,7 @@
     <cellStyle name="Total" xfId="40" builtinId="25" customBuiltin="1"/>
     <cellStyle name="Warning Text" xfId="41" builtinId="11" customBuiltin="1"/>
   </cellStyles>
-  <dxfs count="126">
+  <dxfs count="130">
     <dxf>
       <font>
         <color rgb="FF9C0006"/>
@@ -1229,6 +1537,2926 @@
       </fill>
     </dxf>
     <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="167" formatCode="0.000"/>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor rgb="FFFEF7ED"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <start style="thin">
+          <color indexed="64"/>
+        </start>
+        <end style="thin">
+          <color indexed="64"/>
+        </end>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom/>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="167" formatCode="0.000"/>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor rgb="FFFEF7ED"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <start style="thin">
+          <color indexed="64"/>
+        </start>
+        <end style="thin">
+          <color indexed="64"/>
+        </end>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom/>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="167" formatCode="0.000"/>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor rgb="FFFEF7ED"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <start style="thin">
+          <color indexed="64"/>
+        </start>
+        <end style="thin">
+          <color indexed="64"/>
+        </end>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom/>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="167" formatCode="0.000"/>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor rgb="FFFEF7ED"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <start style="thin">
+          <color indexed="64"/>
+        </start>
+        <end style="thin">
+          <color indexed="64"/>
+        </end>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom/>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="167" formatCode="0.000"/>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor rgb="FFFEF7ED"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <start style="thin">
+          <color indexed="64"/>
+        </start>
+        <end style="thin">
+          <color indexed="64"/>
+        </end>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom/>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="167" formatCode="0.000"/>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor rgb="FFFEF7ED"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <start style="thin">
+          <color indexed="64"/>
+        </start>
+        <end style="thin">
+          <color indexed="64"/>
+        </end>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom/>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="167" formatCode="0.000"/>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor rgb="FFFEF7ED"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <start style="thin">
+          <color indexed="64"/>
+        </start>
+        <end style="thin">
+          <color indexed="64"/>
+        </end>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom/>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="167" formatCode="0.000"/>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor rgb="FFFEF7ED"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <start style="thin">
+          <color indexed="64"/>
+        </start>
+        <end style="thin">
+          <color indexed="64"/>
+        </end>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom/>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="167" formatCode="0.000"/>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor rgb="FFFEF7ED"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <start style="thin">
+          <color indexed="64"/>
+        </start>
+        <end style="thin">
+          <color indexed="64"/>
+        </end>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom/>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="167" formatCode="0.000"/>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor rgb="FFFEF7ED"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <start style="thin">
+          <color indexed="64"/>
+        </start>
+        <end style="thin">
+          <color indexed="64"/>
+        </end>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom/>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="167" formatCode="0.000"/>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor rgb="FFFEF7ED"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <start style="thin">
+          <color indexed="64"/>
+        </start>
+        <end style="thin">
+          <color indexed="64"/>
+        </end>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom/>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="167" formatCode="0.000"/>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor rgb="FFFEF7ED"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <start style="thin">
+          <color indexed="64"/>
+        </start>
+        <end style="thin">
+          <color indexed="64"/>
+        </end>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom/>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="167" formatCode="0.000"/>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor rgb="FFFEF7ED"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <start style="thin">
+          <color indexed="64"/>
+        </start>
+        <end style="thin">
+          <color indexed="64"/>
+        </end>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom/>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="167" formatCode="0.000"/>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor rgb="FFFEF7ED"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <start style="thin">
+          <color indexed="64"/>
+        </start>
+        <end style="thin">
+          <color indexed="64"/>
+        </end>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom/>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="167" formatCode="0.000"/>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor rgb="FFFEF7ED"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <start style="thin">
+          <color indexed="64"/>
+        </start>
+        <end style="thin">
+          <color indexed="64"/>
+        </end>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom/>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="167" formatCode="0.000"/>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor rgb="FFFEF7ED"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <start style="thin">
+          <color indexed="64"/>
+        </start>
+        <end style="thin">
+          <color indexed="64"/>
+        </end>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom/>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="167" formatCode="0.000"/>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor rgb="FFFEF7ED"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <start style="thin">
+          <color indexed="64"/>
+        </start>
+        <end style="thin">
+          <color indexed="64"/>
+        </end>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom/>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="167" formatCode="0.000"/>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor rgb="FFFEF7ED"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <start style="thin">
+          <color indexed="64"/>
+        </start>
+        <end style="thin">
+          <color indexed="64"/>
+        </end>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom/>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="167" formatCode="0.000"/>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor rgb="FFFEF7ED"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <start style="thin">
+          <color indexed="64"/>
+        </start>
+        <end style="thin">
+          <color indexed="64"/>
+        </end>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom/>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="167" formatCode="0.000"/>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor rgb="FFFEF7ED"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <start style="thin">
+          <color indexed="64"/>
+        </start>
+        <end style="thin">
+          <color indexed="64"/>
+        </end>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom/>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="167" formatCode="0.000"/>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor rgb="FFFEF7ED"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <start style="thin">
+          <color indexed="64"/>
+        </start>
+        <end style="thin">
+          <color indexed="64"/>
+        </end>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom/>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="167" formatCode="0.000"/>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor rgb="FFFEF7ED"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <start style="thin">
+          <color indexed="64"/>
+        </start>
+        <end style="thin">
+          <color indexed="64"/>
+        </end>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom/>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="167" formatCode="0.000"/>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor rgb="FFFEF7ED"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <start style="thin">
+          <color indexed="64"/>
+        </start>
+        <end style="thin">
+          <color indexed="64"/>
+        </end>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom/>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="167" formatCode="0.000"/>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor rgb="FFFEF7ED"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <start style="thin">
+          <color indexed="64"/>
+        </start>
+        <end style="thin">
+          <color indexed="64"/>
+        </end>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom/>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="167" formatCode="0.000"/>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor rgb="FFFEF7ED"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <start style="thin">
+          <color indexed="64"/>
+        </start>
+        <end style="thin">
+          <color indexed="64"/>
+        </end>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom/>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="167" formatCode="0.000"/>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor rgb="FFFEF7ED"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <start style="thin">
+          <color indexed="64"/>
+        </start>
+        <end style="thin">
+          <color indexed="64"/>
+        </end>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom/>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="167" formatCode="0.000"/>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor rgb="FFFEF7ED"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <start style="thin">
+          <color indexed="64"/>
+        </start>
+        <end style="thin">
+          <color indexed="64"/>
+        </end>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom/>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="167" formatCode="0.000"/>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor rgb="FFFEF7ED"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <start style="thin">
+          <color indexed="64"/>
+        </start>
+        <end style="thin">
+          <color indexed="64"/>
+        </end>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom/>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="167" formatCode="0.000"/>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor rgb="FFFEF7ED"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <start style="thin">
+          <color indexed="64"/>
+        </start>
+        <end style="thin">
+          <color indexed="64"/>
+        </end>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom/>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="167" formatCode="0.000"/>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor rgb="FFFEF7ED"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <start style="thin">
+          <color indexed="64"/>
+        </start>
+        <end style="thin">
+          <color indexed="64"/>
+        </end>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom/>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="167" formatCode="0.000"/>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor rgb="FFFEF7ED"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <start style="thin">
+          <color indexed="64"/>
+        </start>
+        <end style="thin">
+          <color indexed="64"/>
+        </end>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom/>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="167" formatCode="0.000"/>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor rgb="FFFEF7ED"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <start style="thin">
+          <color indexed="64"/>
+        </start>
+        <end style="thin">
+          <color indexed="64"/>
+        </end>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom/>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="167" formatCode="0.000"/>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor rgb="FFFEF7ED"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <start style="thin">
+          <color indexed="64"/>
+        </start>
+        <end style="thin">
+          <color indexed="64"/>
+        </end>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom/>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="167" formatCode="0.000"/>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor rgb="FFFEF7ED"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <start style="thin">
+          <color indexed="64"/>
+        </start>
+        <end style="thin">
+          <color indexed="64"/>
+        </end>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom/>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="167" formatCode="0.000"/>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor rgb="FFFEF7ED"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <start style="thin">
+          <color indexed="64"/>
+        </start>
+        <end style="thin">
+          <color indexed="64"/>
+        </end>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom/>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="167" formatCode="0.000"/>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor rgb="FFFEF7ED"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <start style="thin">
+          <color indexed="64"/>
+        </start>
+        <end style="thin">
+          <color indexed="64"/>
+        </end>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom/>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="167" formatCode="0.000"/>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor rgb="FFFEF7ED"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <start style="thin">
+          <color indexed="64"/>
+        </start>
+        <end style="thin">
+          <color indexed="64"/>
+        </end>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom/>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="167" formatCode="0.000"/>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor rgb="FFFEF7ED"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <start style="thin">
+          <color indexed="64"/>
+        </start>
+        <end style="thin">
+          <color indexed="64"/>
+        </end>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom/>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="167" formatCode="0.000"/>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor rgb="FFFEF7ED"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <start style="thin">
+          <color indexed="64"/>
+        </start>
+        <end style="thin">
+          <color indexed="64"/>
+        </end>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom/>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="167" formatCode="0.000"/>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor rgb="FFFEF7ED"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <start style="thin">
+          <color indexed="64"/>
+        </start>
+        <end style="thin">
+          <color indexed="64"/>
+        </end>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom/>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="167" formatCode="0.000"/>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor rgb="FFFEF7ED"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <start style="thin">
+          <color indexed="64"/>
+        </start>
+        <end style="thin">
+          <color indexed="64"/>
+        </end>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom/>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="167" formatCode="0.000"/>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor rgb="FFFEF7ED"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <start style="thin">
+          <color indexed="64"/>
+        </start>
+        <end style="thin">
+          <color indexed="64"/>
+        </end>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom/>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="167" formatCode="0.000"/>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor rgb="FFFEF7ED"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <start style="thin">
+          <color indexed="64"/>
+        </start>
+        <end style="thin">
+          <color indexed="64"/>
+        </end>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom/>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="167" formatCode="0.000"/>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor rgb="FFFEF7ED"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <start style="thin">
+          <color indexed="64"/>
+        </start>
+        <end style="thin">
+          <color indexed="64"/>
+        </end>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom/>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="167" formatCode="0.000"/>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor rgb="FFFEF7ED"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <start style="thin">
+          <color indexed="64"/>
+        </start>
+        <end style="thin">
+          <color indexed="64"/>
+        </end>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom/>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="167" formatCode="0.000"/>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor rgb="FFFEF7ED"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <start style="thin">
+          <color indexed="64"/>
+        </start>
+        <end style="thin">
+          <color indexed="64"/>
+        </end>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom/>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="167" formatCode="0.000"/>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor rgb="FFFEF7ED"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <start style="thin">
+          <color indexed="64"/>
+        </start>
+        <end style="thin">
+          <color indexed="64"/>
+        </end>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom/>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="167" formatCode="0.000"/>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor rgb="FFFEF7ED"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <start style="thin">
+          <color indexed="64"/>
+        </start>
+        <end style="thin">
+          <color indexed="64"/>
+        </end>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom/>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="167" formatCode="0.000"/>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor rgb="FFFEF7ED"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <start style="thin">
+          <color indexed="64"/>
+        </start>
+        <end style="thin">
+          <color indexed="64"/>
+        </end>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom/>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="167" formatCode="0.000"/>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor rgb="FFFEF7ED"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <start style="thin">
+          <color indexed="64"/>
+        </start>
+        <end style="thin">
+          <color indexed="64"/>
+        </end>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom/>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="167" formatCode="0.000"/>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor rgb="FFFEF7ED"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <start style="thin">
+          <color indexed="64"/>
+        </start>
+        <end style="thin">
+          <color indexed="64"/>
+        </end>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom/>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="167" formatCode="0.000"/>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor rgb="FFFEF7ED"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <start style="thin">
+          <color indexed="64"/>
+        </start>
+        <end style="thin">
+          <color indexed="64"/>
+        </end>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom/>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="167" formatCode="0.000"/>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor rgb="FFFEF7ED"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <start style="thin">
+          <color indexed="64"/>
+        </start>
+        <end style="thin">
+          <color indexed="64"/>
+        </end>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom/>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="167" formatCode="0.000"/>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor rgb="FFFEF7ED"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <start style="thin">
+          <color indexed="64"/>
+        </start>
+        <end style="thin">
+          <color indexed="64"/>
+        </end>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom/>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="167" formatCode="0.000"/>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor rgb="FFFEF7ED"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <start style="thin">
+          <color indexed="64"/>
+        </start>
+        <end style="thin">
+          <color indexed="64"/>
+        </end>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom/>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="167" formatCode="0.000"/>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor rgb="FFFEF7ED"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <start style="thin">
+          <color indexed="64"/>
+        </start>
+        <end style="thin">
+          <color indexed="64"/>
+        </end>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom/>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="167" formatCode="0.000"/>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor rgb="FFFEF7ED"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <start style="thin">
+          <color indexed="64"/>
+        </start>
+        <end style="thin">
+          <color indexed="64"/>
+        </end>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom/>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="167" formatCode="0.000"/>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor rgb="FFFEF7ED"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <start style="thin">
+          <color indexed="64"/>
+        </start>
+        <end style="thin">
+          <color indexed="64"/>
+        </end>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom/>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="167" formatCode="0.000"/>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor rgb="FFFEF7ED"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <start style="thin">
+          <color indexed="64"/>
+        </start>
+        <end style="thin">
+          <color indexed="64"/>
+        </end>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom/>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="167" formatCode="0.000"/>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor rgb="FFFEF7ED"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <start style="thin">
+          <color indexed="64"/>
+        </start>
+        <end style="thin">
+          <color indexed="64"/>
+        </end>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom/>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="167" formatCode="0.000"/>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor rgb="FFFEF7ED"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <start style="thin">
+          <color indexed="64"/>
+        </start>
+        <end style="thin">
+          <color indexed="64"/>
+        </end>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom/>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="167" formatCode="0.000"/>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor rgb="FFFEF7ED"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <start style="thin">
+          <color indexed="64"/>
+        </start>
+        <end style="thin">
+          <color indexed="64"/>
+        </end>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom/>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="167" formatCode="0.000"/>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor rgb="FFFEF7ED"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <start style="thin">
+          <color indexed="64"/>
+        </start>
+        <end style="thin">
+          <color indexed="64"/>
+        </end>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom/>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="167" formatCode="0.000"/>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor rgb="FFFEF7ED"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <start style="thin">
+          <color indexed="64"/>
+        </start>
+        <end style="thin">
+          <color indexed="64"/>
+        </end>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom/>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="167" formatCode="0.000"/>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor rgb="FFFEF7ED"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <start style="thin">
+          <color indexed="64"/>
+        </start>
+        <end style="thin">
+          <color indexed="64"/>
+        </end>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom/>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="167" formatCode="0.000"/>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor rgb="FFFEF7ED"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <start style="thin">
+          <color indexed="64"/>
+        </start>
+        <end style="thin">
+          <color indexed="64"/>
+        </end>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom/>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="167" formatCode="0.000"/>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor rgb="FFFEF7ED"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <start style="thin">
+          <color indexed="64"/>
+        </start>
+        <end style="thin">
+          <color indexed="64"/>
+        </end>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom/>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="167" formatCode="0.000"/>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor rgb="FFFEF7ED"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <start style="thin">
+          <color indexed="64"/>
+        </start>
+        <end style="thin">
+          <color indexed="64"/>
+        </end>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom/>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="167" formatCode="0.000"/>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor rgb="FFFEF7ED"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <start style="thin">
+          <color indexed="64"/>
+        </start>
+        <end style="thin">
+          <color indexed="64"/>
+        </end>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom/>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="167" formatCode="0.000"/>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor rgb="FFFEF7ED"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <start style="thin">
+          <color indexed="64"/>
+        </start>
+        <end style="thin">
+          <color indexed="64"/>
+        </end>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom/>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="167" formatCode="0.000"/>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor rgb="FFFEF7ED"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <start style="thin">
+          <color indexed="64"/>
+        </start>
+        <end style="thin">
+          <color indexed="64"/>
+        </end>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom/>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="167" formatCode="0.000"/>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor rgb="FFFEF7ED"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <start style="thin">
+          <color indexed="64"/>
+        </start>
+        <end style="thin">
+          <color indexed="64"/>
+        </end>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom/>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="167" formatCode="0.000"/>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor rgb="FFFEF7ED"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <start style="thin">
+          <color indexed="64"/>
+        </start>
+        <end style="thin">
+          <color indexed="64"/>
+        </end>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom/>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="167" formatCode="0.000"/>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor rgb="FFFEF7ED"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <start style="thin">
+          <color indexed="64"/>
+        </start>
+        <end style="thin">
+          <color indexed="64"/>
+        </end>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom/>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="167" formatCode="0.000"/>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor rgb="FFFEF7ED"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <start style="thin">
+          <color indexed="64"/>
+        </start>
+        <end style="thin">
+          <color indexed="64"/>
+        </end>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom/>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="167" formatCode="0.000"/>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor rgb="FFFEF7ED"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <start style="thin">
+          <color indexed="64"/>
+        </start>
+        <end style="thin">
+          <color indexed="64"/>
+        </end>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom/>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="167" formatCode="0.000"/>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor rgb="FFFEF7ED"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <start style="thin">
+          <color indexed="64"/>
+        </start>
+        <end style="thin">
+          <color indexed="64"/>
+        </end>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom/>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="167" formatCode="0.000"/>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor rgb="FFFEF7ED"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <start style="thin">
+          <color indexed="64"/>
+        </start>
+        <end style="thin">
+          <color indexed="64"/>
+        </end>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom/>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="167" formatCode="0.000"/>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor rgb="FFFEF7ED"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <start style="thin">
+          <color indexed="64"/>
+        </start>
+        <end style="thin">
+          <color indexed="64"/>
+        </end>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom/>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="167" formatCode="0.000"/>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor rgb="FFFEF7ED"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <start style="thin">
+          <color indexed="64"/>
+        </start>
+        <end style="thin">
+          <color indexed="64"/>
+        </end>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom/>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="167" formatCode="0.000"/>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor rgb="FFFEF7ED"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <start style="thin">
+          <color indexed="64"/>
+        </start>
+        <end style="thin">
+          <color indexed="64"/>
+        </end>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom/>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="167" formatCode="0.000"/>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor rgb="FFFEF7ED"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <start style="thin">
+          <color indexed="64"/>
+        </start>
+        <end style="thin">
+          <color indexed="64"/>
+        </end>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom/>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="167" formatCode="0.000"/>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor rgb="FFFEF7ED"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <start style="thin">
+          <color indexed="64"/>
+        </start>
+        <end style="thin">
+          <color indexed="64"/>
+        </end>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom/>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="167" formatCode="0.000"/>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor rgb="FFFEF7ED"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <start style="thin">
+          <color indexed="64"/>
+        </start>
+        <end style="thin">
+          <color indexed="64"/>
+        </end>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom/>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="167" formatCode="0.000"/>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor rgb="FFFEF7ED"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <start style="thin">
+          <color indexed="64"/>
+        </start>
+        <end style="thin">
+          <color indexed="64"/>
+        </end>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom/>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="167" formatCode="0.000"/>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor rgb="FFFEF7ED"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <start style="thin">
+          <color indexed="64"/>
+        </start>
+        <end style="thin">
+          <color indexed="64"/>
+        </end>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom/>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="167" formatCode="0.000"/>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor rgb="FFFEF7ED"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <start style="thin">
+          <color indexed="64"/>
+        </start>
+        <end style="thin">
+          <color indexed="64"/>
+        </end>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom/>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="167" formatCode="0.000"/>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor rgb="FFFEF7ED"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <start style="thin">
+          <color indexed="64"/>
+        </start>
+        <end style="thin">
+          <color indexed="64"/>
+        </end>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom/>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="167" formatCode="0.000"/>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor rgb="FFFEF7ED"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <start style="thin">
+          <color indexed="64"/>
+        </start>
+        <end style="thin">
+          <color indexed="64"/>
+        </end>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom/>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="167" formatCode="0.000"/>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor rgb="FFFEF7ED"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <start style="thin">
+          <color indexed="64"/>
+        </start>
+        <end style="thin">
+          <color indexed="64"/>
+        </end>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom/>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="167" formatCode="0.000"/>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor rgb="FFFEF7ED"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <start style="thin">
+          <color indexed="64"/>
+        </start>
+        <end style="thin">
+          <color indexed="64"/>
+        </end>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom/>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="167" formatCode="0.000"/>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor rgb="FFFEF7ED"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <start style="thin">
+          <color indexed="64"/>
+        </start>
+        <end style="thin">
+          <color indexed="64"/>
+        </end>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom/>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="167" formatCode="0.000"/>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor rgb="FFFEF7ED"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <start style="thin">
+          <color indexed="64"/>
+        </start>
+        <end style="thin">
+          <color indexed="64"/>
+        </end>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom/>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="167" formatCode="0.000"/>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor rgb="FFFEF7ED"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <start style="thin">
+          <color indexed="64"/>
+        </start>
+        <end style="thin">
+          <color indexed="64"/>
+        </end>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom/>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="167" formatCode="0.000"/>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor rgb="FFFEF7ED"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <start style="thin">
+          <color indexed="64"/>
+        </start>
+        <end style="thin">
+          <color indexed="64"/>
+        </end>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom/>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="167" formatCode="0.000"/>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor rgb="FFFEF7ED"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <start style="thin">
+          <color indexed="64"/>
+        </start>
+        <end style="thin">
+          <color indexed="64"/>
+        </end>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom/>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="167" formatCode="0.000"/>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor rgb="FFFEF7ED"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <start style="thin">
+          <color indexed="64"/>
+        </start>
+        <end style="thin">
+          <color indexed="64"/>
+        </end>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom/>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="167" formatCode="0.000"/>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor rgb="FFFEF7ED"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <start style="thin">
+          <color indexed="64"/>
+        </start>
+        <end style="thin">
+          <color indexed="64"/>
+        </end>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom/>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="167" formatCode="0.000"/>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor rgb="FFFEF7ED"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <start style="thin">
+          <color indexed="64"/>
+        </start>
+        <end style="thin">
+          <color indexed="64"/>
+        </end>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom/>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="167" formatCode="0.000"/>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor rgb="FFFEF7ED"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <start style="thin">
+          <color indexed="64"/>
+        </start>
+        <end style="thin">
+          <color indexed="64"/>
+        </end>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom/>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="167" formatCode="0.000"/>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor rgb="FFFEF7ED"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <start style="thin">
+          <color indexed="64"/>
+        </start>
+        <end style="thin">
+          <color indexed="64"/>
+        </end>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom/>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="167" formatCode="0.000"/>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor rgb="FFFEF7ED"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <start style="thin">
+          <color indexed="64"/>
+        </start>
+        <end style="thin">
+          <color indexed="64"/>
+        </end>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom/>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="167" formatCode="0.000"/>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor rgb="FFFEF7ED"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <start style="thin">
+          <color indexed="64"/>
+        </start>
+        <end style="thin">
+          <color indexed="64"/>
+        </end>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom/>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="167" formatCode="0.000"/>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor rgb="FFFEF7ED"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <start style="thin">
+          <color indexed="64"/>
+        </start>
+        <end style="thin">
+          <color indexed="64"/>
+        </end>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom/>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="167" formatCode="0.000"/>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor rgb="FFFEF7ED"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <start style="thin">
+          <color indexed="64"/>
+        </start>
+        <end style="thin">
+          <color indexed="64"/>
+        </end>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom/>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="167" formatCode="0.000"/>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor rgb="FFFEF7ED"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <start style="thin">
+          <color indexed="64"/>
+        </start>
+        <end style="thin">
+          <color indexed="64"/>
+        </end>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom/>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="167" formatCode="0.000"/>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor rgb="FFFEF7ED"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <start style="thin">
+          <color indexed="64"/>
+        </start>
+        <end style="thin">
+          <color indexed="64"/>
+        </end>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom/>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="167" formatCode="0.000"/>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor rgb="FFFEF7ED"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <start style="thin">
+          <color indexed="64"/>
+        </start>
+        <end style="thin">
+          <color indexed="64"/>
+        </end>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom/>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="167" formatCode="0.000"/>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor rgb="FFFEF7ED"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <start style="thin">
+          <color indexed="64"/>
+        </start>
+        <end style="thin">
+          <color indexed="64"/>
+        </end>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom/>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="167" formatCode="0.000"/>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor rgb="FFFEF7ED"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <start style="thin">
+          <color indexed="64"/>
+        </start>
+        <end style="thin">
+          <color indexed="64"/>
+        </end>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom/>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="167" formatCode="0.000"/>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor rgb="FFFEF7ED"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <start style="thin">
+          <color indexed="64"/>
+        </start>
+        <end style="thin">
+          <color indexed="64"/>
+        </end>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom/>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="167" formatCode="0.000"/>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor rgb="FFFEF7ED"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <start style="thin">
+          <color indexed="64"/>
+        </start>
+        <end style="thin">
+          <color indexed="64"/>
+        </end>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom/>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="167" formatCode="0.000"/>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor rgb="FFFEF7ED"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <start style="thin">
+          <color indexed="64"/>
+        </start>
+        <end style="thin">
+          <color indexed="64"/>
+        </end>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom/>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="167" formatCode="0.000"/>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor rgb="FFFEF7ED"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <start style="thin">
+          <color indexed="64"/>
+        </start>
+        <end style="thin">
+          <color indexed="64"/>
+        </end>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom/>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="167" formatCode="0.000"/>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor rgb="FFFEF7ED"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <start style="thin">
+          <color indexed="64"/>
+        </start>
+        <end style="thin">
+          <color indexed="64"/>
+        </end>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom/>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="167" formatCode="0.000"/>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor rgb="FFFEF7ED"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <start style="thin">
+          <color indexed="64"/>
+        </start>
+        <end style="thin">
+          <color indexed="64"/>
+        </end>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom/>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="167" formatCode="0.000"/>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor rgb="FFFEF7ED"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <start style="thin">
+          <color indexed="64"/>
+        </start>
+        <end style="thin">
+          <color indexed="64"/>
+        </end>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom/>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="167" formatCode="0.000"/>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor rgb="FFFEF7ED"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <start style="thin">
+          <color indexed="64"/>
+        </start>
+        <end style="thin">
+          <color indexed="64"/>
+        </end>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom/>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="167" formatCode="0.000"/>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor rgb="FFFEF7ED"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <start style="thin">
+          <color indexed="64"/>
+        </start>
+        <end style="thin">
+          <color indexed="64"/>
+        </end>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom/>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="167" formatCode="0.000"/>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor rgb="FFFEF7ED"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <start style="thin">
+          <color indexed="64"/>
+        </start>
+        <end style="thin">
+          <color indexed="64"/>
+        </end>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom/>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
       <fill>
         <patternFill patternType="solid">
           <fgColor indexed="64"/>
@@ -1252,23 +4480,13 @@
       </border>
     </dxf>
     <dxf>
-      <numFmt numFmtId="168" formatCode="mmm\-yyyy"/>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor indexed="64"/>
-          <bgColor theme="9" tint="0.39997558519241921"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <start style="thin">
-          <color indexed="64"/>
-        </start>
-        <end style="thin">
-          <color indexed="64"/>
-        </end>
-        <top/>
-        <bottom/>
+      <border outline="0">
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="medium">
+          <color indexed="64"/>
+        </bottom>
       </border>
     </dxf>
     <dxf>
@@ -1281,2886 +4499,6 @@
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
-      <numFmt numFmtId="170" formatCode="0.000"/>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor indexed="64"/>
-          <bgColor rgb="FFFEF7ED"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0">
-        <start style="thin">
-          <color indexed="64"/>
-        </start>
-        <end style="thin">
-          <color indexed="64"/>
-        </end>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom/>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="170" formatCode="0.000"/>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor indexed="64"/>
-          <bgColor rgb="FFFEF7ED"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0">
-        <start style="thin">
-          <color indexed="64"/>
-        </start>
-        <end style="thin">
-          <color indexed="64"/>
-        </end>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom/>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="170" formatCode="0.000"/>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor indexed="64"/>
-          <bgColor rgb="FFFEF7ED"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0">
-        <start style="thin">
-          <color indexed="64"/>
-        </start>
-        <end style="thin">
-          <color indexed="64"/>
-        </end>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom/>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="170" formatCode="0.000"/>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor indexed="64"/>
-          <bgColor rgb="FFFEF7ED"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0">
-        <start style="thin">
-          <color indexed="64"/>
-        </start>
-        <end style="thin">
-          <color indexed="64"/>
-        </end>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom/>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="170" formatCode="0.000"/>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor indexed="64"/>
-          <bgColor rgb="FFFEF7ED"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0">
-        <start style="thin">
-          <color indexed="64"/>
-        </start>
-        <end style="thin">
-          <color indexed="64"/>
-        </end>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom/>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="170" formatCode="0.000"/>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor indexed="64"/>
-          <bgColor rgb="FFFEF7ED"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0">
-        <start style="thin">
-          <color indexed="64"/>
-        </start>
-        <end style="thin">
-          <color indexed="64"/>
-        </end>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom/>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="170" formatCode="0.000"/>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor indexed="64"/>
-          <bgColor rgb="FFFEF7ED"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0">
-        <start style="thin">
-          <color indexed="64"/>
-        </start>
-        <end style="thin">
-          <color indexed="64"/>
-        </end>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom/>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="170" formatCode="0.000"/>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor indexed="64"/>
-          <bgColor rgb="FFFEF7ED"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0">
-        <start style="thin">
-          <color indexed="64"/>
-        </start>
-        <end style="thin">
-          <color indexed="64"/>
-        </end>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom/>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="170" formatCode="0.000"/>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor indexed="64"/>
-          <bgColor rgb="FFFEF7ED"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0">
-        <start style="thin">
-          <color indexed="64"/>
-        </start>
-        <end style="thin">
-          <color indexed="64"/>
-        </end>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom/>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="170" formatCode="0.000"/>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor indexed="64"/>
-          <bgColor rgb="FFFEF7ED"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0">
-        <start style="thin">
-          <color indexed="64"/>
-        </start>
-        <end style="thin">
-          <color indexed="64"/>
-        </end>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom/>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="170" formatCode="0.000"/>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor indexed="64"/>
-          <bgColor rgb="FFFEF7ED"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0">
-        <start style="thin">
-          <color indexed="64"/>
-        </start>
-        <end style="thin">
-          <color indexed="64"/>
-        </end>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom/>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="170" formatCode="0.000"/>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor indexed="64"/>
-          <bgColor rgb="FFFEF7ED"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0">
-        <start style="thin">
-          <color indexed="64"/>
-        </start>
-        <end style="thin">
-          <color indexed="64"/>
-        </end>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom/>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="170" formatCode="0.000"/>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor indexed="64"/>
-          <bgColor rgb="FFFEF7ED"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0">
-        <start style="thin">
-          <color indexed="64"/>
-        </start>
-        <end style="thin">
-          <color indexed="64"/>
-        </end>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom/>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="170" formatCode="0.000"/>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor indexed="64"/>
-          <bgColor rgb="FFFEF7ED"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0">
-        <start style="thin">
-          <color indexed="64"/>
-        </start>
-        <end style="thin">
-          <color indexed="64"/>
-        </end>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom/>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="170" formatCode="0.000"/>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor indexed="64"/>
-          <bgColor rgb="FFFEF7ED"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0">
-        <start style="thin">
-          <color indexed="64"/>
-        </start>
-        <end style="thin">
-          <color indexed="64"/>
-        </end>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom/>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="170" formatCode="0.000"/>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor indexed="64"/>
-          <bgColor rgb="FFFEF7ED"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0">
-        <start style="thin">
-          <color indexed="64"/>
-        </start>
-        <end style="thin">
-          <color indexed="64"/>
-        </end>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom/>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="170" formatCode="0.000"/>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor indexed="64"/>
-          <bgColor rgb="FFFEF7ED"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0">
-        <start style="thin">
-          <color indexed="64"/>
-        </start>
-        <end style="thin">
-          <color indexed="64"/>
-        </end>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom/>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="170" formatCode="0.000"/>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor indexed="64"/>
-          <bgColor rgb="FFFEF7ED"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0">
-        <start style="thin">
-          <color indexed="64"/>
-        </start>
-        <end style="thin">
-          <color indexed="64"/>
-        </end>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom/>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="170" formatCode="0.000"/>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor indexed="64"/>
-          <bgColor rgb="FFFEF7ED"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0">
-        <start style="thin">
-          <color indexed="64"/>
-        </start>
-        <end style="thin">
-          <color indexed="64"/>
-        </end>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom/>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="170" formatCode="0.000"/>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor indexed="64"/>
-          <bgColor rgb="FFFEF7ED"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0">
-        <start style="thin">
-          <color indexed="64"/>
-        </start>
-        <end style="thin">
-          <color indexed="64"/>
-        </end>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom/>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="170" formatCode="0.000"/>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor indexed="64"/>
-          <bgColor rgb="FFFEF7ED"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0">
-        <start style="thin">
-          <color indexed="64"/>
-        </start>
-        <end style="thin">
-          <color indexed="64"/>
-        </end>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom/>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="170" formatCode="0.000"/>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor indexed="64"/>
-          <bgColor rgb="FFFEF7ED"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0">
-        <start style="thin">
-          <color indexed="64"/>
-        </start>
-        <end style="thin">
-          <color indexed="64"/>
-        </end>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom/>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="170" formatCode="0.000"/>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor indexed="64"/>
-          <bgColor rgb="FFFEF7ED"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0">
-        <start style="thin">
-          <color indexed="64"/>
-        </start>
-        <end style="thin">
-          <color indexed="64"/>
-        </end>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom/>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="170" formatCode="0.000"/>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor indexed="64"/>
-          <bgColor rgb="FFFEF7ED"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0">
-        <start style="thin">
-          <color indexed="64"/>
-        </start>
-        <end style="thin">
-          <color indexed="64"/>
-        </end>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom/>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="170" formatCode="0.000"/>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor indexed="64"/>
-          <bgColor rgb="FFFEF7ED"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0">
-        <start style="thin">
-          <color indexed="64"/>
-        </start>
-        <end style="thin">
-          <color indexed="64"/>
-        </end>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom/>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="170" formatCode="0.000"/>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor indexed="64"/>
-          <bgColor rgb="FFFEF7ED"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0">
-        <start style="thin">
-          <color indexed="64"/>
-        </start>
-        <end style="thin">
-          <color indexed="64"/>
-        </end>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom/>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="170" formatCode="0.000"/>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor indexed="64"/>
-          <bgColor rgb="FFFEF7ED"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0">
-        <start style="thin">
-          <color indexed="64"/>
-        </start>
-        <end style="thin">
-          <color indexed="64"/>
-        </end>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom/>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="170" formatCode="0.000"/>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor indexed="64"/>
-          <bgColor rgb="FFFEF7ED"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0">
-        <start style="thin">
-          <color indexed="64"/>
-        </start>
-        <end style="thin">
-          <color indexed="64"/>
-        </end>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom/>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="170" formatCode="0.000"/>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor indexed="64"/>
-          <bgColor rgb="FFFEF7ED"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0">
-        <start style="thin">
-          <color indexed="64"/>
-        </start>
-        <end style="thin">
-          <color indexed="64"/>
-        </end>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom/>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="170" formatCode="0.000"/>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor indexed="64"/>
-          <bgColor rgb="FFFEF7ED"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0">
-        <start style="thin">
-          <color indexed="64"/>
-        </start>
-        <end style="thin">
-          <color indexed="64"/>
-        </end>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom/>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="170" formatCode="0.000"/>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor indexed="64"/>
-          <bgColor rgb="FFFEF7ED"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0">
-        <start style="thin">
-          <color indexed="64"/>
-        </start>
-        <end style="thin">
-          <color indexed="64"/>
-        </end>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom/>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="170" formatCode="0.000"/>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor indexed="64"/>
-          <bgColor rgb="FFFEF7ED"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0">
-        <start style="thin">
-          <color indexed="64"/>
-        </start>
-        <end style="thin">
-          <color indexed="64"/>
-        </end>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom/>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="170" formatCode="0.000"/>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor indexed="64"/>
-          <bgColor rgb="FFFEF7ED"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0">
-        <start style="thin">
-          <color indexed="64"/>
-        </start>
-        <end style="thin">
-          <color indexed="64"/>
-        </end>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom/>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="170" formatCode="0.000"/>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor indexed="64"/>
-          <bgColor rgb="FFFEF7ED"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0">
-        <start style="thin">
-          <color indexed="64"/>
-        </start>
-        <end style="thin">
-          <color indexed="64"/>
-        </end>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom/>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="170" formatCode="0.000"/>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor indexed="64"/>
-          <bgColor rgb="FFFEF7ED"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0">
-        <start style="thin">
-          <color indexed="64"/>
-        </start>
-        <end style="thin">
-          <color indexed="64"/>
-        </end>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom/>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="170" formatCode="0.000"/>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor indexed="64"/>
-          <bgColor rgb="FFFEF7ED"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0">
-        <start style="thin">
-          <color indexed="64"/>
-        </start>
-        <end style="thin">
-          <color indexed="64"/>
-        </end>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom/>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="170" formatCode="0.000"/>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor indexed="64"/>
-          <bgColor rgb="FFFEF7ED"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0">
-        <start style="thin">
-          <color indexed="64"/>
-        </start>
-        <end style="thin">
-          <color indexed="64"/>
-        </end>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom/>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="170" formatCode="0.000"/>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor indexed="64"/>
-          <bgColor rgb="FFFEF7ED"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0">
-        <start style="thin">
-          <color indexed="64"/>
-        </start>
-        <end style="thin">
-          <color indexed="64"/>
-        </end>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom/>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="170" formatCode="0.000"/>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor indexed="64"/>
-          <bgColor rgb="FFFEF7ED"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0">
-        <start style="thin">
-          <color indexed="64"/>
-        </start>
-        <end style="thin">
-          <color indexed="64"/>
-        </end>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom/>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="170" formatCode="0.000"/>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor indexed="64"/>
-          <bgColor rgb="FFFEF7ED"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0">
-        <start style="thin">
-          <color indexed="64"/>
-        </start>
-        <end style="thin">
-          <color indexed="64"/>
-        </end>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom/>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="170" formatCode="0.000"/>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor indexed="64"/>
-          <bgColor rgb="FFFEF7ED"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0">
-        <start style="thin">
-          <color indexed="64"/>
-        </start>
-        <end style="thin">
-          <color indexed="64"/>
-        </end>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom/>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="170" formatCode="0.000"/>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor indexed="64"/>
-          <bgColor rgb="FFFEF7ED"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0">
-        <start style="thin">
-          <color indexed="64"/>
-        </start>
-        <end style="thin">
-          <color indexed="64"/>
-        </end>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom/>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="170" formatCode="0.000"/>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor indexed="64"/>
-          <bgColor rgb="FFFEF7ED"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0">
-        <start style="thin">
-          <color indexed="64"/>
-        </start>
-        <end style="thin">
-          <color indexed="64"/>
-        </end>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom/>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="170" formatCode="0.000"/>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor indexed="64"/>
-          <bgColor rgb="FFFEF7ED"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0">
-        <start style="thin">
-          <color indexed="64"/>
-        </start>
-        <end style="thin">
-          <color indexed="64"/>
-        </end>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom/>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="170" formatCode="0.000"/>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor indexed="64"/>
-          <bgColor rgb="FFFEF7ED"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0">
-        <start style="thin">
-          <color indexed="64"/>
-        </start>
-        <end style="thin">
-          <color indexed="64"/>
-        </end>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom/>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="170" formatCode="0.000"/>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor indexed="64"/>
-          <bgColor rgb="FFFEF7ED"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0">
-        <start style="thin">
-          <color indexed="64"/>
-        </start>
-        <end style="thin">
-          <color indexed="64"/>
-        </end>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom/>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="170" formatCode="0.000"/>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor indexed="64"/>
-          <bgColor rgb="FFFEF7ED"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0">
-        <start style="thin">
-          <color indexed="64"/>
-        </start>
-        <end style="thin">
-          <color indexed="64"/>
-        </end>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom/>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="170" formatCode="0.000"/>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor indexed="64"/>
-          <bgColor rgb="FFFEF7ED"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0">
-        <start style="thin">
-          <color indexed="64"/>
-        </start>
-        <end style="thin">
-          <color indexed="64"/>
-        </end>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom/>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="170" formatCode="0.000"/>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor indexed="64"/>
-          <bgColor rgb="FFFEF7ED"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0">
-        <start style="thin">
-          <color indexed="64"/>
-        </start>
-        <end style="thin">
-          <color indexed="64"/>
-        </end>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom/>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="170" formatCode="0.000"/>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor indexed="64"/>
-          <bgColor rgb="FFFEF7ED"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0">
-        <start style="thin">
-          <color indexed="64"/>
-        </start>
-        <end style="thin">
-          <color indexed="64"/>
-        </end>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom/>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="170" formatCode="0.000"/>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor indexed="64"/>
-          <bgColor rgb="FFFEF7ED"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0">
-        <start style="thin">
-          <color indexed="64"/>
-        </start>
-        <end style="thin">
-          <color indexed="64"/>
-        </end>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom/>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="170" formatCode="0.000"/>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor indexed="64"/>
-          <bgColor rgb="FFFEF7ED"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0">
-        <start style="thin">
-          <color indexed="64"/>
-        </start>
-        <end style="thin">
-          <color indexed="64"/>
-        </end>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom/>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="170" formatCode="0.000"/>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor indexed="64"/>
-          <bgColor rgb="FFFEF7ED"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0">
-        <start style="thin">
-          <color indexed="64"/>
-        </start>
-        <end style="thin">
-          <color indexed="64"/>
-        </end>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom/>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="170" formatCode="0.000"/>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor indexed="64"/>
-          <bgColor rgb="FFFEF7ED"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0">
-        <start style="thin">
-          <color indexed="64"/>
-        </start>
-        <end style="thin">
-          <color indexed="64"/>
-        </end>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom/>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="170" formatCode="0.000"/>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor indexed="64"/>
-          <bgColor rgb="FFFEF7ED"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0">
-        <start style="thin">
-          <color indexed="64"/>
-        </start>
-        <end style="thin">
-          <color indexed="64"/>
-        </end>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom/>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="170" formatCode="0.000"/>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor indexed="64"/>
-          <bgColor rgb="FFFEF7ED"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0">
-        <start style="thin">
-          <color indexed="64"/>
-        </start>
-        <end style="thin">
-          <color indexed="64"/>
-        </end>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom/>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="170" formatCode="0.000"/>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor indexed="64"/>
-          <bgColor rgb="FFFEF7ED"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0">
-        <start style="thin">
-          <color indexed="64"/>
-        </start>
-        <end style="thin">
-          <color indexed="64"/>
-        </end>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom/>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="170" formatCode="0.000"/>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor indexed="64"/>
-          <bgColor rgb="FFFEF7ED"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0">
-        <start style="thin">
-          <color indexed="64"/>
-        </start>
-        <end style="thin">
-          <color indexed="64"/>
-        </end>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom/>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="170" formatCode="0.000"/>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor indexed="64"/>
-          <bgColor rgb="FFFEF7ED"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0">
-        <start style="thin">
-          <color indexed="64"/>
-        </start>
-        <end style="thin">
-          <color indexed="64"/>
-        </end>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom/>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="170" formatCode="0.000"/>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor indexed="64"/>
-          <bgColor rgb="FFFEF7ED"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0">
-        <start style="thin">
-          <color indexed="64"/>
-        </start>
-        <end style="thin">
-          <color indexed="64"/>
-        </end>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom/>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="170" formatCode="0.000"/>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor indexed="64"/>
-          <bgColor rgb="FFFEF7ED"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0">
-        <start style="thin">
-          <color indexed="64"/>
-        </start>
-        <end style="thin">
-          <color indexed="64"/>
-        </end>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom/>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="170" formatCode="0.000"/>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor indexed="64"/>
-          <bgColor rgb="FFFEF7ED"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0">
-        <start style="thin">
-          <color indexed="64"/>
-        </start>
-        <end style="thin">
-          <color indexed="64"/>
-        </end>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom/>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="170" formatCode="0.000"/>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor indexed="64"/>
-          <bgColor rgb="FFFEF7ED"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0">
-        <start style="thin">
-          <color indexed="64"/>
-        </start>
-        <end style="thin">
-          <color indexed="64"/>
-        </end>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom/>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="170" formatCode="0.000"/>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor indexed="64"/>
-          <bgColor rgb="FFFEF7ED"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0">
-        <start style="thin">
-          <color indexed="64"/>
-        </start>
-        <end style="thin">
-          <color indexed="64"/>
-        </end>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom/>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="170" formatCode="0.000"/>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor indexed="64"/>
-          <bgColor rgb="FFFEF7ED"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0">
-        <start style="thin">
-          <color indexed="64"/>
-        </start>
-        <end style="thin">
-          <color indexed="64"/>
-        </end>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom/>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="170" formatCode="0.000"/>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor indexed="64"/>
-          <bgColor rgb="FFFEF7ED"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0">
-        <start style="thin">
-          <color indexed="64"/>
-        </start>
-        <end style="thin">
-          <color indexed="64"/>
-        </end>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom/>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="170" formatCode="0.000"/>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor indexed="64"/>
-          <bgColor rgb="FFFEF7ED"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0">
-        <start style="thin">
-          <color indexed="64"/>
-        </start>
-        <end style="thin">
-          <color indexed="64"/>
-        </end>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom/>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="170" formatCode="0.000"/>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor indexed="64"/>
-          <bgColor rgb="FFFEF7ED"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0">
-        <start style="thin">
-          <color indexed="64"/>
-        </start>
-        <end style="thin">
-          <color indexed="64"/>
-        </end>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom/>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="170" formatCode="0.000"/>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor indexed="64"/>
-          <bgColor rgb="FFFEF7ED"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0">
-        <start style="thin">
-          <color indexed="64"/>
-        </start>
-        <end style="thin">
-          <color indexed="64"/>
-        </end>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom/>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="170" formatCode="0.000"/>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor indexed="64"/>
-          <bgColor rgb="FFFEF7ED"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0">
-        <start style="thin">
-          <color indexed="64"/>
-        </start>
-        <end style="thin">
-          <color indexed="64"/>
-        </end>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom/>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="170" formatCode="0.000"/>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor indexed="64"/>
-          <bgColor rgb="FFFEF7ED"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0">
-        <start style="thin">
-          <color indexed="64"/>
-        </start>
-        <end style="thin">
-          <color indexed="64"/>
-        </end>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom/>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="170" formatCode="0.000"/>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor indexed="64"/>
-          <bgColor rgb="FFFEF7ED"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0">
-        <start style="thin">
-          <color indexed="64"/>
-        </start>
-        <end style="thin">
-          <color indexed="64"/>
-        </end>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom/>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="170" formatCode="0.000"/>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor indexed="64"/>
-          <bgColor rgb="FFFEF7ED"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0">
-        <start style="thin">
-          <color indexed="64"/>
-        </start>
-        <end style="thin">
-          <color indexed="64"/>
-        </end>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom/>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="170" formatCode="0.000"/>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor indexed="64"/>
-          <bgColor rgb="FFFEF7ED"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0">
-        <start style="thin">
-          <color indexed="64"/>
-        </start>
-        <end style="thin">
-          <color indexed="64"/>
-        </end>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom/>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="170" formatCode="0.000"/>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor indexed="64"/>
-          <bgColor rgb="FFFEF7ED"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0">
-        <start style="thin">
-          <color indexed="64"/>
-        </start>
-        <end style="thin">
-          <color indexed="64"/>
-        </end>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom/>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="170" formatCode="0.000"/>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor indexed="64"/>
-          <bgColor rgb="FFFEF7ED"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0">
-        <start style="thin">
-          <color indexed="64"/>
-        </start>
-        <end style="thin">
-          <color indexed="64"/>
-        </end>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom/>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="170" formatCode="0.000"/>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor indexed="64"/>
-          <bgColor rgb="FFFEF7ED"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0">
-        <start style="thin">
-          <color indexed="64"/>
-        </start>
-        <end style="thin">
-          <color indexed="64"/>
-        </end>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom/>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="170" formatCode="0.000"/>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor indexed="64"/>
-          <bgColor rgb="FFFEF7ED"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0">
-        <start style="thin">
-          <color indexed="64"/>
-        </start>
-        <end style="thin">
-          <color indexed="64"/>
-        </end>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom/>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="170" formatCode="0.000"/>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor indexed="64"/>
-          <bgColor rgb="FFFEF7ED"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0">
-        <start style="thin">
-          <color indexed="64"/>
-        </start>
-        <end style="thin">
-          <color indexed="64"/>
-        </end>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom/>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="170" formatCode="0.000"/>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor indexed="64"/>
-          <bgColor rgb="FFFEF7ED"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0">
-        <start style="thin">
-          <color indexed="64"/>
-        </start>
-        <end style="thin">
-          <color indexed="64"/>
-        </end>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom/>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="170" formatCode="0.000"/>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor indexed="64"/>
-          <bgColor rgb="FFFEF7ED"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0">
-        <start style="thin">
-          <color indexed="64"/>
-        </start>
-        <end style="thin">
-          <color indexed="64"/>
-        </end>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom/>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="170" formatCode="0.000"/>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor indexed="64"/>
-          <bgColor rgb="FFFEF7ED"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0">
-        <start style="thin">
-          <color indexed="64"/>
-        </start>
-        <end style="thin">
-          <color indexed="64"/>
-        </end>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom/>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="170" formatCode="0.000"/>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor indexed="64"/>
-          <bgColor rgb="FFFEF7ED"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0">
-        <start style="thin">
-          <color indexed="64"/>
-        </start>
-        <end style="thin">
-          <color indexed="64"/>
-        </end>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom/>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="170" formatCode="0.000"/>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor indexed="64"/>
-          <bgColor rgb="FFFEF7ED"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0">
-        <start style="thin">
-          <color indexed="64"/>
-        </start>
-        <end style="thin">
-          <color indexed="64"/>
-        </end>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom/>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="170" formatCode="0.000"/>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor indexed="64"/>
-          <bgColor rgb="FFFEF7ED"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0">
-        <start style="thin">
-          <color indexed="64"/>
-        </start>
-        <end style="thin">
-          <color indexed="64"/>
-        </end>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom/>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="170" formatCode="0.000"/>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor indexed="64"/>
-          <bgColor rgb="FFFEF7ED"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0">
-        <start style="thin">
-          <color indexed="64"/>
-        </start>
-        <end style="thin">
-          <color indexed="64"/>
-        </end>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom/>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="170" formatCode="0.000"/>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor indexed="64"/>
-          <bgColor rgb="FFFEF7ED"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0">
-        <start style="thin">
-          <color indexed="64"/>
-        </start>
-        <end style="thin">
-          <color indexed="64"/>
-        </end>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom/>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="170" formatCode="0.000"/>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor indexed="64"/>
-          <bgColor rgb="FFFEF7ED"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0">
-        <start style="thin">
-          <color indexed="64"/>
-        </start>
-        <end style="thin">
-          <color indexed="64"/>
-        </end>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom/>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="170" formatCode="0.000"/>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor indexed="64"/>
-          <bgColor rgb="FFFEF7ED"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0">
-        <start style="thin">
-          <color indexed="64"/>
-        </start>
-        <end style="thin">
-          <color indexed="64"/>
-        </end>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom/>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="170" formatCode="0.000"/>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor indexed="64"/>
-          <bgColor rgb="FFFEF7ED"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0">
-        <start style="thin">
-          <color indexed="64"/>
-        </start>
-        <end style="thin">
-          <color indexed="64"/>
-        </end>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom/>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="170" formatCode="0.000"/>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor indexed="64"/>
-          <bgColor rgb="FFFEF7ED"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0">
-        <start style="thin">
-          <color indexed="64"/>
-        </start>
-        <end style="thin">
-          <color indexed="64"/>
-        </end>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom/>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="170" formatCode="0.000"/>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor indexed="64"/>
-          <bgColor rgb="FFFEF7ED"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0">
-        <start style="thin">
-          <color indexed="64"/>
-        </start>
-        <end style="thin">
-          <color indexed="64"/>
-        </end>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom/>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="170" formatCode="0.000"/>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor indexed="64"/>
-          <bgColor rgb="FFFEF7ED"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0">
-        <start style="thin">
-          <color indexed="64"/>
-        </start>
-        <end style="thin">
-          <color indexed="64"/>
-        </end>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom/>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="170" formatCode="0.000"/>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor indexed="64"/>
-          <bgColor rgb="FFFEF7ED"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0">
-        <start style="thin">
-          <color indexed="64"/>
-        </start>
-        <end style="thin">
-          <color indexed="64"/>
-        </end>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom/>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="170" formatCode="0.000"/>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor indexed="64"/>
-          <bgColor rgb="FFFEF7ED"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0">
-        <start style="thin">
-          <color indexed="64"/>
-        </start>
-        <end style="thin">
-          <color indexed="64"/>
-        </end>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom/>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="170" formatCode="0.000"/>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor indexed="64"/>
-          <bgColor rgb="FFFEF7ED"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0">
-        <start style="thin">
-          <color indexed="64"/>
-        </start>
-        <end style="thin">
-          <color indexed="64"/>
-        </end>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom/>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="170" formatCode="0.000"/>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor indexed="64"/>
-          <bgColor rgb="FFFEF7ED"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0">
-        <start style="thin">
-          <color indexed="64"/>
-        </start>
-        <end style="thin">
-          <color indexed="64"/>
-        </end>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom/>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="170" formatCode="0.000"/>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor indexed="64"/>
-          <bgColor rgb="FFFEF7ED"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0">
-        <start style="thin">
-          <color indexed="64"/>
-        </start>
-        <end style="thin">
-          <color indexed="64"/>
-        </end>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom/>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="170" formatCode="0.000"/>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor indexed="64"/>
-          <bgColor rgb="FFFEF7ED"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0">
-        <start style="thin">
-          <color indexed="64"/>
-        </start>
-        <end style="thin">
-          <color indexed="64"/>
-        </end>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom/>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="170" formatCode="0.000"/>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor indexed="64"/>
-          <bgColor rgb="FFFEF7ED"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0">
-        <start style="thin">
-          <color indexed="64"/>
-        </start>
-        <end style="thin">
-          <color indexed="64"/>
-        </end>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom/>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="170" formatCode="0.000"/>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor indexed="64"/>
-          <bgColor rgb="FFFEF7ED"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0">
-        <start style="thin">
-          <color indexed="64"/>
-        </start>
-        <end style="thin">
-          <color indexed="64"/>
-        </end>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom/>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="170" formatCode="0.000"/>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor indexed="64"/>
-          <bgColor rgb="FFFEF7ED"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0">
-        <start style="thin">
-          <color indexed="64"/>
-        </start>
-        <end style="thin">
-          <color indexed="64"/>
-        </end>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom/>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="170" formatCode="0.000"/>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor indexed="64"/>
-          <bgColor rgb="FFFEF7ED"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0">
-        <start style="thin">
-          <color indexed="64"/>
-        </start>
-        <end style="thin">
-          <color indexed="64"/>
-        </end>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom/>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="170" formatCode="0.000"/>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor indexed="64"/>
-          <bgColor rgb="FFFEF7ED"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0">
-        <start style="thin">
-          <color indexed="64"/>
-        </start>
-        <end style="thin">
-          <color indexed="64"/>
-        </end>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom/>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="170" formatCode="0.000"/>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor indexed="64"/>
-          <bgColor rgb="FFFEF7ED"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0">
-        <start style="thin">
-          <color indexed="64"/>
-        </start>
-        <end style="thin">
-          <color indexed="64"/>
-        </end>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom/>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="170" formatCode="0.000"/>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor indexed="64"/>
-          <bgColor rgb="FFFEF7ED"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0">
-        <start style="thin">
-          <color indexed="64"/>
-        </start>
-        <end style="thin">
-          <color indexed="64"/>
-        </end>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom/>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="170" formatCode="0.000"/>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor indexed="64"/>
-          <bgColor rgb="FFFEF7ED"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0">
-        <start style="thin">
-          <color indexed="64"/>
-        </start>
-        <end style="thin">
-          <color indexed="64"/>
-        </end>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom/>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="170" formatCode="0.000"/>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor indexed="64"/>
-          <bgColor rgb="FFFEF7ED"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0">
-        <start style="thin">
-          <color indexed="64"/>
-        </start>
-        <end style="thin">
-          <color indexed="64"/>
-        </end>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom/>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="170" formatCode="0.000"/>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor indexed="64"/>
-          <bgColor rgb="FFFEF7ED"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0">
-        <start style="thin">
-          <color indexed="64"/>
-        </start>
-        <end style="thin">
-          <color indexed="64"/>
-        </end>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom/>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="170" formatCode="0.000"/>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor indexed="64"/>
-          <bgColor rgb="FFFEF7ED"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0">
-        <start style="thin">
-          <color indexed="64"/>
-        </start>
-        <end style="thin">
-          <color indexed="64"/>
-        </end>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom/>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="170" formatCode="0.000"/>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor indexed="64"/>
-          <bgColor rgb="FFFEF7ED"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0">
-        <start style="thin">
-          <color indexed="64"/>
-        </start>
-        <end style="thin">
-          <color indexed="64"/>
-        </end>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom/>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="170" formatCode="0.000"/>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor indexed="64"/>
-          <bgColor rgb="FFFEF7ED"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0">
-        <start style="thin">
-          <color indexed="64"/>
-        </start>
-        <end style="thin">
-          <color indexed="64"/>
-        </end>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom/>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="170" formatCode="0.000"/>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor indexed="64"/>
-          <bgColor rgb="FFFEF7ED"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0">
-        <start style="thin">
-          <color indexed="64"/>
-        </start>
-        <end style="thin">
-          <color indexed="64"/>
-        </end>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom/>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="170" formatCode="0.000"/>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor indexed="64"/>
-          <bgColor rgb="FFFEF7ED"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0">
-        <start style="thin">
-          <color indexed="64"/>
-        </start>
-        <end style="thin">
-          <color indexed="64"/>
-        </end>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom/>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="170" formatCode="0.000"/>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor indexed="64"/>
-          <bgColor rgb="FFFEF7ED"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0">
-        <start style="thin">
-          <color indexed="64"/>
-        </start>
-        <end style="thin">
-          <color indexed="64"/>
-        </end>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom/>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="170" formatCode="0.000"/>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor indexed="64"/>
-          <bgColor rgb="FFFEF7ED"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0">
-        <start style="thin">
-          <color indexed="64"/>
-        </start>
-        <end style="thin">
-          <color indexed="64"/>
-        </end>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom/>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="170" formatCode="0.000"/>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor indexed="64"/>
-          <bgColor rgb="FFFEF7ED"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0">
-        <start style="thin">
-          <color indexed="64"/>
-        </start>
-        <end style="thin">
-          <color indexed="64"/>
-        </end>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom/>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="170" formatCode="0.000"/>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor indexed="64"/>
-          <bgColor rgb="FFFEF7ED"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0">
-        <start style="thin">
-          <color indexed="64"/>
-        </start>
-        <end style="thin">
-          <color indexed="64"/>
-        </end>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom/>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="170" formatCode="0.000"/>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor indexed="64"/>
-          <bgColor rgb="FFFEF7ED"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0">
-        <start style="thin">
-          <color indexed="64"/>
-        </start>
-        <end style="thin">
-          <color indexed="64"/>
-        </end>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom/>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="170" formatCode="0.000"/>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor indexed="64"/>
-          <bgColor rgb="FFFEF7ED"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0">
-        <start style="thin">
-          <color indexed="64"/>
-        </start>
-        <end style="thin">
-          <color indexed="64"/>
-        </end>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom/>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
       <border outline="0">
         <bottom style="thin">
           <color indexed="64"/>
@@ -4168,13 +4506,23 @@
       </border>
     </dxf>
     <dxf>
-      <border outline="0">
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="medium">
-          <color indexed="64"/>
-        </bottom>
+      <numFmt numFmtId="166" formatCode="mmm\-yyyy"/>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor theme="9" tint="0.39997558519241921"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <start style="thin">
+          <color indexed="64"/>
+        </start>
+        <end style="thin">
+          <color indexed="64"/>
+        </end>
+        <top/>
+        <bottom/>
       </border>
     </dxf>
   </dxfs>
@@ -20978,8 +21326,8 @@
       <xdr:row>16</xdr:row>
       <xdr:rowOff>117472</xdr:rowOff>
     </xdr:to>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+      <mc:Choice Requires="a14">
         <xdr:graphicFrame macro="">
           <xdr:nvGraphicFramePr>
             <xdr:cNvPr id="3" name="Bank / Date">
@@ -21002,7 +21350,7 @@
           </a:graphic>
         </xdr:graphicFrame>
       </mc:Choice>
-      <mc:Fallback>
+      <mc:Fallback xmlns="" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="0" name=""/>
@@ -21253,7 +21601,7 @@
         <s v="VTI"/>
       </sharedItems>
     </cacheField>
-    <cacheField name="Sep-2010" numFmtId="170">
+    <cacheField name="Sep-2010" numFmtId="167">
       <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" minValue="4.0819999999999999" maxValue="47.251399999999997" count="6">
         <n v="6.4915599999999998"/>
         <n v="47.251399999999997"/>
@@ -21263,7 +21611,7 @@
         <n v="4.0819999999999999"/>
       </sharedItems>
     </cacheField>
-    <cacheField name="Oct-2010" numFmtId="170">
+    <cacheField name="Oct-2010" numFmtId="167">
       <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" minValue="4.3680000000000003" maxValue="71.309898000000004" count="6">
         <n v="6.0225200000000001"/>
         <n v="71.309898000000004"/>
@@ -21273,7 +21621,7 @@
         <n v="4.3680000000000003"/>
       </sharedItems>
     </cacheField>
-    <cacheField name="Nov-2010" numFmtId="170">
+    <cacheField name="Nov-2010" numFmtId="167">
       <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" minValue="6.0225200000000001" maxValue="46.651401999999997" count="6">
         <n v="6.0225200000000001"/>
         <n v="46.651401999999997"/>
@@ -21283,7 +21631,7 @@
         <n v="7.0659999999999998"/>
       </sharedItems>
     </cacheField>
-    <cacheField name="Dec-2010" numFmtId="170">
+    <cacheField name="Dec-2010" numFmtId="167">
       <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" minValue="5.3259999999999996" maxValue="49.801498000000002" count="6">
         <n v="6.1726099999999997"/>
         <n v="49.801498000000002"/>
@@ -21293,7 +21641,7 @@
         <n v="5.3259999999999996"/>
       </sharedItems>
     </cacheField>
-    <cacheField name="Jan-2011" numFmtId="170">
+    <cacheField name="Jan-2011" numFmtId="167">
       <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" minValue="4.82" maxValue="48.001499000000003" count="6">
         <n v="6.6604200000000002"/>
         <n v="48.001499000000003"/>
@@ -21303,7 +21651,7 @@
         <n v="4.82"/>
       </sharedItems>
     </cacheField>
-    <cacheField name="Feb-2011" numFmtId="170">
+    <cacheField name="Feb-2011" numFmtId="167">
       <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" minValue="4.7779999999999996" maxValue="75.463898" count="6">
         <n v="6.0600399999999999"/>
         <n v="75.463898"/>
@@ -21313,7 +21661,7 @@
         <n v="4.7779999999999996"/>
       </sharedItems>
     </cacheField>
-    <cacheField name="Mar-2011" numFmtId="170">
+    <cacheField name="Mar-2011" numFmtId="167">
       <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" minValue="5.55" maxValue="46.651401999999997" count="6">
         <n v="6.9793700000000003"/>
         <n v="46.651401999999997"/>
@@ -21323,7 +21671,7 @@
         <n v="5.55"/>
       </sharedItems>
     </cacheField>
-    <cacheField name="Apr-2011" numFmtId="170">
+    <cacheField name="Apr-2011" numFmtId="167">
       <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" minValue="5.52" maxValue="46.051399000000004" count="6">
         <n v="7.2607999999999997"/>
         <n v="46.051399000000004"/>
@@ -21333,7 +21681,7 @@
         <n v="5.52"/>
       </sharedItems>
     </cacheField>
-    <cacheField name="May-2011" numFmtId="170">
+    <cacheField name="May-2011" numFmtId="167">
       <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" minValue="6.0279999999999996" maxValue="70.617598999999998" count="6">
         <n v="7.1106999999999996"/>
         <n v="70.617598999999998"/>
@@ -21343,7 +21691,7 @@
         <n v="6.0279999999999996"/>
       </sharedItems>
     </cacheField>
-    <cacheField name="Jun-2011" numFmtId="170">
+    <cacheField name="Jun-2011" numFmtId="167">
       <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" minValue="5.8259999999999996" maxValue="43.801299999999998" count="6">
         <n v="6.8855599999999999"/>
         <n v="43.801299999999998"/>
@@ -21353,7 +21701,7 @@
         <n v="5.8259999999999996"/>
       </sharedItems>
     </cacheField>
-    <cacheField name="Jul-2011" numFmtId="170">
+    <cacheField name="Jul-2011" numFmtId="167">
       <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" minValue="5.6340000000000003" maxValue="68.771300999999994" count="6">
         <n v="6.3602299999999996"/>
         <n v="68.771300999999994"/>
@@ -21363,7 +21711,7 @@
         <n v="5.6340000000000003"/>
       </sharedItems>
     </cacheField>
-    <cacheField name="Aug-2011" numFmtId="170">
+    <cacheField name="Aug-2011" numFmtId="167">
       <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" minValue="4.9480000000000004" maxValue="41.851298999999997" count="6">
         <n v="6.1350899999999999"/>
         <n v="41.851298999999997"/>
@@ -21373,7 +21721,7 @@
         <n v="4.9480000000000004"/>
       </sharedItems>
     </cacheField>
-    <cacheField name="Sep-2011" numFmtId="170">
+    <cacheField name="Sep-2011" numFmtId="167">
       <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" minValue="4.8780000000000001" maxValue="41.551299999999998" count="6">
         <n v="6.3039500000000004"/>
         <n v="41.551299999999998"/>
@@ -21383,7 +21731,7 @@
         <n v="4.8780000000000001"/>
       </sharedItems>
     </cacheField>
-    <cacheField name="Oct-2011" numFmtId="170">
+    <cacheField name="Oct-2011" numFmtId="167">
       <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" minValue="5.8739999999999997" maxValue="63.463501000000001" count="6">
         <n v="6.21014"/>
         <n v="63.463501000000001"/>
@@ -21393,7 +21741,7 @@
         <n v="5.8739999999999997"/>
       </sharedItems>
     </cacheField>
-    <cacheField name="Nov-2011" numFmtId="170">
+    <cacheField name="Nov-2011" numFmtId="167">
       <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" minValue="6.1163299999999996" maxValue="62.078800000000001" count="6">
         <n v="6.1163299999999996"/>
         <n v="62.078800000000001"/>
@@ -21403,7 +21751,7 @@
         <n v="6.548"/>
       </sharedItems>
     </cacheField>
-    <cacheField name="Dec-2011" numFmtId="170">
+    <cacheField name="Dec-2011" numFmtId="167">
       <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" minValue="5.7119999999999997" maxValue="63.232700000000001" count="6">
         <n v="6.3602299999999996"/>
         <n v="63.232700000000001"/>
@@ -21413,7 +21761,7 @@
         <n v="5.7119999999999997"/>
       </sharedItems>
     </cacheField>
-    <cacheField name="Jan-2012" numFmtId="170">
+    <cacheField name="Jan-2012" numFmtId="167">
       <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" minValue="5.8140000000000001" maxValue="66.232803000000004" count="6">
         <n v="6.7917500000000004"/>
         <n v="66.232803000000004"/>
@@ -21423,7 +21771,7 @@
         <n v="5.8140000000000001"/>
       </sharedItems>
     </cacheField>
-    <cacheField name="Feb-2012" numFmtId="170">
+    <cacheField name="Feb-2012" numFmtId="167">
       <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" minValue="6.6820000000000004" maxValue="72.463798999999995" count="6">
         <n v="9.1557300000000001"/>
         <n v="72.463798999999995"/>
@@ -21433,7 +21781,7 @@
         <n v="6.6820000000000004"/>
       </sharedItems>
     </cacheField>
-    <cacheField name="Mar-2012" numFmtId="170">
+    <cacheField name="Mar-2012" numFmtId="167">
       <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" minValue="7.4480000000000004" maxValue="49.651501000000003" count="6">
         <n v="11.0694"/>
         <n v="49.651501000000003"/>
@@ -21443,7 +21791,7 @@
         <n v="7.4480000000000004"/>
       </sharedItems>
     </cacheField>
-    <cacheField name="Apr-2012" numFmtId="170">
+    <cacheField name="Apr-2012" numFmtId="167">
       <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" minValue="6.6260000000000003" maxValue="46.801399000000004" count="6">
         <n v="10.7317"/>
         <n v="46.801399000000004"/>
@@ -21453,7 +21801,7 @@
         <n v="6.6260000000000003"/>
       </sharedItems>
     </cacheField>
-    <cacheField name="May-2012" numFmtId="170">
+    <cacheField name="May-2012" numFmtId="167">
       <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" minValue="5.9" maxValue="67.155899000000005" count="6">
         <n v="8.9118300000000001"/>
         <n v="67.155899000000005"/>
@@ -21463,7 +21811,7 @@
         <n v="5.9"/>
       </sharedItems>
     </cacheField>
-    <cacheField name="Jun-2012" numFmtId="170">
+    <cacheField name="Jun-2012" numFmtId="167">
       <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" minValue="6.258" maxValue="68.079002000000003" count="6">
         <n v="8.7054500000000008"/>
         <n v="68.079002000000003"/>
@@ -21473,7 +21821,7 @@
         <n v="6.258"/>
       </sharedItems>
     </cacheField>
-    <cacheField name="Jul-2012" numFmtId="170">
+    <cacheField name="Jul-2012" numFmtId="167">
       <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" minValue="5.484" maxValue="43.651299000000002" count="6">
         <n v="9.3621099999999995"/>
         <n v="43.651299000000002"/>
@@ -21483,7 +21831,7 @@
         <n v="5.484"/>
       </sharedItems>
     </cacheField>
-    <cacheField name="Aug-2012" numFmtId="170">
+    <cacheField name="Aug-2012" numFmtId="167">
       <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" minValue="5.7039999999999997" maxValue="44.251300999999998" count="6">
         <n v="10.656700000000001"/>
         <n v="44.251300999999998"/>
@@ -21493,7 +21841,7 @@
         <n v="5.7039999999999997"/>
       </sharedItems>
     </cacheField>
-    <cacheField name="Sep-2012" numFmtId="170">
+    <cacheField name="Sep-2012" numFmtId="167">
       <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" minValue="5.8559999999999999" maxValue="68.540604000000002" count="6">
         <n v="9.7936300000000003"/>
         <n v="68.540604000000002"/>
@@ -21503,7 +21851,7 @@
         <n v="5.8559999999999999"/>
       </sharedItems>
     </cacheField>
-    <cacheField name="Oct-2012" numFmtId="170">
+    <cacheField name="Oct-2012" numFmtId="167">
       <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" minValue="5.6260000000000003" maxValue="64.848197999999996" count="6">
         <n v="9.4184000000000001"/>
         <n v="64.848197999999996"/>
@@ -21513,7 +21861,7 @@
         <n v="5.6260000000000003"/>
       </sharedItems>
     </cacheField>
-    <cacheField name="Nov-2012" numFmtId="170">
+    <cacheField name="Nov-2012" numFmtId="167">
       <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" minValue="6.7640000000000002" maxValue="38.401198999999998" count="6">
         <n v="9.2495399999999997"/>
         <n v="38.401198999999998"/>
@@ -21523,7 +21871,7 @@
         <n v="6.7640000000000002"/>
       </sharedItems>
     </cacheField>
-    <cacheField name="Dec-2012" numFmtId="170">
+    <cacheField name="Dec-2012" numFmtId="167">
       <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" minValue="6.774" maxValue="39.001201999999999" count="6">
         <n v="9.7936300000000003"/>
         <n v="39.001201999999999"/>
@@ -21533,7 +21881,7 @@
         <n v="6.774"/>
       </sharedItems>
     </cacheField>
-    <cacheField name="Jan-2013" numFmtId="170">
+    <cacheField name="Jan-2013" numFmtId="167">
       <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" minValue="7.5019999999999998" maxValue="64.155799999999999" count="6">
         <n v="9.8311499999999992"/>
         <n v="64.155799999999999"/>
@@ -21543,7 +21891,7 @@
         <n v="7.5019999999999998"/>
       </sharedItems>
     </cacheField>
-    <cacheField name="Feb-2013" numFmtId="170">
+    <cacheField name="Feb-2013" numFmtId="167">
       <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" minValue="6.9660000000000002" maxValue="62.771197999999998" count="6">
         <n v="10.4315"/>
         <n v="62.771197999999998"/>
@@ -21553,7 +21901,7 @@
         <n v="6.9660000000000002"/>
       </sharedItems>
     </cacheField>
-    <cacheField name="Mar-2013" numFmtId="170">
+    <cacheField name="Mar-2013" numFmtId="167">
       <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" minValue="7.5780000000000003" maxValue="59.540298" count="6">
         <n v="10.0563"/>
         <n v="59.540298"/>
@@ -21563,7 +21911,7 @@
         <n v="7.5780000000000003"/>
       </sharedItems>
     </cacheField>
-    <cacheField name="Apr-2013" numFmtId="170">
+    <cacheField name="Apr-2013" numFmtId="167">
       <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" minValue="9.7936300000000003" maxValue="39.601199999999999" count="6">
         <n v="9.7936300000000003"/>
         <n v="39.601199999999999"/>
@@ -21573,7 +21921,7 @@
         <n v="10.798"/>
       </sharedItems>
     </cacheField>
-    <cacheField name="May-2013" numFmtId="170">
+    <cacheField name="May-2013" numFmtId="167">
       <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" minValue="10.0938" maxValue="40.951199000000003" count="6">
         <n v="10.0938"/>
         <n v="40.951199000000003"/>
@@ -21583,7 +21931,7 @@
         <n v="19.552"/>
       </sharedItems>
     </cacheField>
-    <cacheField name="Jun-2013" numFmtId="170">
+    <cacheField name="Jun-2013" numFmtId="167">
       <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" minValue="9.7936300000000003" maxValue="43.201301999999998" count="6">
         <n v="9.7936300000000003"/>
         <n v="43.201301999999998"/>
@@ -21593,7 +21941,7 @@
         <n v="21.472000000000001"/>
       </sharedItems>
     </cacheField>
-    <cacheField name="Jul-2013" numFmtId="170">
+    <cacheField name="Jul-2013" numFmtId="167">
       <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" minValue="11.6698" maxValue="69.232902999999993" count="6">
         <n v="11.6698"/>
         <n v="69.232902999999993"/>
@@ -21603,7 +21951,7 @@
         <n v="26.856000999999999"/>
       </sharedItems>
     </cacheField>
-    <cacheField name="Aug-2013" numFmtId="170">
+    <cacheField name="Aug-2013" numFmtId="167">
       <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" minValue="11.632300000000001" maxValue="74.540801999999999" count="6">
         <n v="11.632300000000001"/>
         <n v="74.540801999999999"/>
@@ -21613,7 +21961,7 @@
         <n v="33.799999"/>
       </sharedItems>
     </cacheField>
-    <cacheField name="Sep-2013" numFmtId="170">
+    <cacheField name="Sep-2013" numFmtId="167">
       <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" minValue="11.482200000000001" maxValue="72.233001999999999" count="6">
         <n v="11.482200000000001"/>
         <n v="72.233001999999999"/>
@@ -21623,7 +21971,7 @@
         <n v="38.673999999999999"/>
       </sharedItems>
     </cacheField>
-    <cacheField name="Oct-2013" numFmtId="170">
+    <cacheField name="Oct-2013" numFmtId="167">
       <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" minValue="12.3452" maxValue="43.801299999999998" count="6">
         <n v="12.3452"/>
         <n v="43.801299999999998"/>
@@ -21633,7 +21981,7 @@
         <n v="31.988001000000001"/>
       </sharedItems>
     </cacheField>
-    <cacheField name="Nov-2013" numFmtId="170">
+    <cacheField name="Nov-2013" numFmtId="167">
       <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" minValue="13.771100000000001" maxValue="44.851398000000003" count="6">
         <n v="13.771100000000001"/>
         <n v="44.851398000000003"/>
@@ -21643,7 +21991,7 @@
         <n v="25.455998999999998"/>
       </sharedItems>
     </cacheField>
-    <cacheField name="Dec-2013" numFmtId="170">
+    <cacheField name="Dec-2013" numFmtId="167">
       <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" minValue="14.1088" maxValue="43.801299999999998" count="6">
         <n v="14.1088"/>
         <n v="43.801299999999998"/>
@@ -21653,7 +22001,7 @@
         <n v="30.085999999999999"/>
       </sharedItems>
     </cacheField>
-    <cacheField name="Jan-2014" numFmtId="170">
+    <cacheField name="Jan-2014" numFmtId="167">
       <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" minValue="14.746700000000001" maxValue="66.4636" count="6">
         <n v="14.746700000000001"/>
         <n v="66.4636"/>
@@ -21663,7 +22011,7 @@
         <n v="36.282001000000001"/>
       </sharedItems>
     </cacheField>
-    <cacheField name="Feb-2014" numFmtId="170">
+    <cacheField name="Feb-2014" numFmtId="167">
       <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" minValue="14.709199999999999" maxValue="48.962001999999998" count="6">
         <n v="14.709199999999999"/>
         <n v="42.901299000000002"/>
@@ -21673,7 +22021,7 @@
         <n v="48.962001999999998"/>
       </sharedItems>
     </cacheField>
-    <cacheField name="Mar-2014" numFmtId="170">
+    <cacheField name="Mar-2014" numFmtId="167">
       <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" minValue="15.684799999999999" maxValue="68.540604000000002" count="6">
         <n v="15.684799999999999"/>
         <n v="68.540604000000002"/>
@@ -21683,7 +22031,7 @@
         <n v="41.689999"/>
       </sharedItems>
     </cacheField>
-    <cacheField name="Apr-2014" numFmtId="170">
+    <cacheField name="Apr-2014" numFmtId="167">
       <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" minValue="15.009399999999999" maxValue="41.924999" count="6">
         <n v="15.009399999999999"/>
         <n v="41.924999"/>
@@ -21693,232 +22041,232 @@
         <n v="41.577998999999998"/>
       </sharedItems>
     </cacheField>
-    <cacheField name="May-2014" numFmtId="170">
+    <cacheField name="May-2014" numFmtId="167">
       <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" minValue="16.059699999999999" maxValue="43.387501"/>
     </cacheField>
-    <cacheField name="Jun-2014" numFmtId="170">
+    <cacheField name="Jun-2014" numFmtId="167">
       <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" minValue="15.309200000000001" maxValue="67.5"/>
     </cacheField>
-    <cacheField name="Jul-2014" numFmtId="170">
+    <cacheField name="Jul-2014" numFmtId="167">
       <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" minValue="16.760099" maxValue="44.66"/>
     </cacheField>
-    <cacheField name="Aug-2014" numFmtId="170">
+    <cacheField name="Aug-2014" numFmtId="167">
       <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" minValue="18.6112" maxValue="53.939999"/>
     </cacheField>
-    <cacheField name="Sep-2014" numFmtId="170">
+    <cacheField name="Sep-2014" numFmtId="167">
       <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" minValue="17.960799999999999" maxValue="71.75"/>
     </cacheField>
-    <cacheField name="Oct-2014" numFmtId="170">
+    <cacheField name="Oct-2014" numFmtId="167">
       <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" minValue="15.6594" maxValue="65.5"/>
     </cacheField>
-    <cacheField name="Nov-2014" numFmtId="170">
+    <cacheField name="Nov-2014" numFmtId="167">
       <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" minValue="13.8583" maxValue="48.903998999999999"/>
     </cacheField>
-    <cacheField name="Dec-2014" numFmtId="170">
+    <cacheField name="Dec-2014" numFmtId="167">
       <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" minValue="13.808299999999999" maxValue="55"/>
     </cacheField>
-    <cacheField name="Jan-2015" numFmtId="170">
+    <cacheField name="Jan-2015" numFmtId="167">
       <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" minValue="13.8583" maxValue="40.720001000000003"/>
     </cacheField>
-    <cacheField name="Feb-2015" numFmtId="170">
+    <cacheField name="Feb-2015" numFmtId="167">
       <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" minValue="11.0123" maxValue="40.761501000000003"/>
     </cacheField>
-    <cacheField name="Mar-2015" numFmtId="170">
+    <cacheField name="Mar-2015" numFmtId="167">
       <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" minValue="14.058400000000001" maxValue="37.754002"/>
     </cacheField>
-    <cacheField name="Apr-2015" numFmtId="170">
+    <cacheField name="Apr-2015" numFmtId="167">
       <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" minValue="16.159700000000001" maxValue="45.209999000000003"/>
     </cacheField>
-    <cacheField name="May-2015" numFmtId="170">
+    <cacheField name="May-2015" numFmtId="167">
       <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" minValue="15.494300000000001" maxValue="66.620002999999997"/>
     </cacheField>
-    <cacheField name="Jun-2015" numFmtId="170">
+    <cacheField name="Jun-2015" numFmtId="167">
       <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" minValue="14.2135" maxValue="60.98"/>
     </cacheField>
-    <cacheField name="Jul-2015" numFmtId="170">
+    <cacheField name="Jul-2015" numFmtId="167">
       <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" minValue="13.4581" maxValue="64.559997999999993"/>
     </cacheField>
-    <cacheField name="Aug-2015" numFmtId="170">
+    <cacheField name="Aug-2015" numFmtId="167">
       <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" minValue="10.8315" maxValue="53.639999000000003"/>
     </cacheField>
-    <cacheField name="Sep-2015" numFmtId="170">
+    <cacheField name="Sep-2015" numFmtId="167">
       <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" minValue="10.146100000000001" maxValue="49.68"/>
     </cacheField>
-    <cacheField name="Oct-2015" numFmtId="170">
+    <cacheField name="Oct-2015" numFmtId="167">
       <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" minValue="8.8703299999999992" maxValue="41.386001999999998"/>
     </cacheField>
-    <cacheField name="Nov-2015" numFmtId="170">
+    <cacheField name="Nov-2015" numFmtId="167">
       <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" minValue="8.5751500000000007" maxValue="46.051997999999998"/>
     </cacheField>
-    <cacheField name="Dec-2015" numFmtId="170">
+    <cacheField name="Dec-2015" numFmtId="167">
       <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" minValue="8.1098700000000008" maxValue="52.09"/>
     </cacheField>
-    <cacheField name="Jan-2016" numFmtId="170">
+    <cacheField name="Jan-2016" numFmtId="167">
       <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" minValue="6.4238600000000003" maxValue="38.240001999999997"/>
     </cacheField>
-    <cacheField name="Feb-2016" numFmtId="170">
+    <cacheField name="Feb-2016" numFmtId="167">
       <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" minValue="6.4188599999999996" maxValue="53.959999000000003"/>
     </cacheField>
-    <cacheField name="Mar-2016" numFmtId="170">
+    <cacheField name="Mar-2016" numFmtId="167">
       <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" minValue="6.6539999999999999" maxValue="45.953999000000003"/>
     </cacheField>
-    <cacheField name="Apr-2016" numFmtId="170">
+    <cacheField name="Apr-2016" numFmtId="167">
       <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" minValue="7.1292799999999996" maxValue="60.349997999999999"/>
     </cacheField>
-    <cacheField name="May-2016" numFmtId="170">
+    <cacheField name="May-2016" numFmtId="167">
       <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" minValue="6.3538199999999998" maxValue="44.646000000000001"/>
     </cacheField>
-    <cacheField name="Jun-2016" numFmtId="170">
+    <cacheField name="Jun-2016" numFmtId="167">
       <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" minValue="6.4288600000000002" maxValue="42.456001000000001"/>
     </cacheField>
-    <cacheField name="Jul-2016" numFmtId="170">
+    <cacheField name="Jul-2016" numFmtId="167">
       <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" minValue="5.8535199999999996" maxValue="59.5"/>
     </cacheField>
-    <cacheField name="Aug-2016" numFmtId="170">
+    <cacheField name="Aug-2016" numFmtId="167">
       <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" minValue="5.6784100000000004" maxValue="42.402000000000001"/>
     </cacheField>
-    <cacheField name="Sep-2016" numFmtId="170">
+    <cacheField name="Sep-2016" numFmtId="167">
       <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" minValue="4.9779900000000001" maxValue="40.805999999999997"/>
     </cacheField>
-    <cacheField name="Oct-2016" numFmtId="170">
+    <cacheField name="Oct-2016" numFmtId="167">
       <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" minValue="6.0036100000000001" maxValue="55.5"/>
     </cacheField>
-    <cacheField name="Nov-2016" numFmtId="170">
+    <cacheField name="Nov-2016" numFmtId="167">
       <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" minValue="6.7040300000000004" maxValue="63.5"/>
     </cacheField>
-    <cacheField name="Dec-2016" numFmtId="170">
+    <cacheField name="Dec-2016" numFmtId="167">
       <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" minValue="7.1042699999999996" maxValue="63"/>
     </cacheField>
-    <cacheField name="Jan-2017" numFmtId="170">
+    <cacheField name="Jan-2017" numFmtId="167">
       <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" minValue="6.87913" maxValue="50.386001999999998"/>
     </cacheField>
-    <cacheField name="Feb-2017" numFmtId="170">
+    <cacheField name="Feb-2017" numFmtId="167">
       <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" minValue="6.7290400000000004" maxValue="64.25"/>
     </cacheField>
-    <cacheField name="Mar-2017" numFmtId="170">
+    <cacheField name="Mar-2017" numFmtId="167">
       <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" minValue="15" maxValue="63.75"/>
     </cacheField>
-    <cacheField name="Apr-2017" numFmtId="170">
+    <cacheField name="Apr-2017" numFmtId="167">
       <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" minValue="7.7396500000000001" maxValue="62.813999000000003"/>
     </cacheField>
-    <cacheField name="May-2017" numFmtId="170">
+    <cacheField name="May-2017" numFmtId="167">
       <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" minValue="7.3819400000000002" maxValue="68.202003000000005"/>
     </cacheField>
-    <cacheField name="Jun-2017" numFmtId="170">
+    <cacheField name="Jun-2017" numFmtId="167">
       <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" minValue="7.6355899999999997" maxValue="72.321999000000005"/>
     </cacheField>
-    <cacheField name="Jul-2017" numFmtId="170">
+    <cacheField name="Jul-2017" numFmtId="167">
       <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" minValue="8.1949199999999998" maxValue="64.694000000000003"/>
     </cacheField>
-    <cacheField name="Aug-2017" numFmtId="170">
+    <cacheField name="Aug-2017" numFmtId="167">
       <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" minValue="8.1428899999999995" maxValue="71.180000000000007"/>
     </cacheField>
-    <cacheField name="Sep-2017" numFmtId="170">
+    <cacheField name="Sep-2017" numFmtId="167">
       <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" minValue="9.0144199999999994" maxValue="68.220000999999996"/>
     </cacheField>
-    <cacheField name="Oct-2017" numFmtId="170">
+    <cacheField name="Oct-2017" numFmtId="167">
       <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" minValue="7.6355899999999997" maxValue="66.305999999999997"/>
     </cacheField>
-    <cacheField name="Nov-2017" numFmtId="170">
+    <cacheField name="Nov-2017" numFmtId="167">
       <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" minValue="7.8437099999999997" maxValue="61.77"/>
     </cacheField>
-    <cacheField name="Dec-2017" numFmtId="170">
+    <cacheField name="Dec-2017" numFmtId="167">
       <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" minValue="8.2599599999999995" maxValue="62.27"/>
     </cacheField>
-    <cacheField name="Jan-2018" numFmtId="170">
+    <cacheField name="Jan-2018" numFmtId="167">
       <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" minValue="13.08" maxValue="70.861999999999995"/>
     </cacheField>
-    <cacheField name="Feb-2018" numFmtId="170">
+    <cacheField name="Feb-2018" numFmtId="167">
       <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" minValue="13.7" maxValue="70.800003000000004"/>
     </cacheField>
-    <cacheField name="Mar-2018" numFmtId="170">
+    <cacheField name="Mar-2018" numFmtId="167">
       <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" minValue="13" maxValue="75.400002000000001"/>
     </cacheField>
-    <cacheField name="Apr-2018" numFmtId="170">
+    <cacheField name="Apr-2018" numFmtId="167">
       <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" minValue="13.76" maxValue="58.779998999999997"/>
     </cacheField>
-    <cacheField name="May-2018" numFmtId="170">
+    <cacheField name="May-2018" numFmtId="167">
       <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" minValue="14.72" maxValue="56.945999"/>
     </cacheField>
-    <cacheField name="Jun-2018" numFmtId="170">
+    <cacheField name="Jun-2018" numFmtId="167">
       <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" minValue="14.76" maxValue="68.589995999999999"/>
     </cacheField>
-    <cacheField name="Jul-2018" numFmtId="170">
+    <cacheField name="Jul-2018" numFmtId="167">
       <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" minValue="15.38" maxValue="59.627997999999998"/>
     </cacheField>
-    <cacheField name="Aug-2018" numFmtId="170">
+    <cacheField name="Aug-2018" numFmtId="167">
       <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" minValue="14.64" maxValue="60.332000999999998"/>
     </cacheField>
-    <cacheField name="Sep-2018" numFmtId="170">
+    <cacheField name="Sep-2018" numFmtId="167">
       <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" minValue="14.44" maxValue="57.134998000000003"/>
     </cacheField>
-    <cacheField name="Oct-2018" numFmtId="170">
+    <cacheField name="Oct-2018" numFmtId="167">
       <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" minValue="14.4" maxValue="67.463997000000006"/>
     </cacheField>
-    <cacheField name="Nov-2018" numFmtId="170">
+    <cacheField name="Nov-2018" numFmtId="167">
       <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" minValue="14.04" maxValue="70.096001000000001"/>
     </cacheField>
-    <cacheField name="Dec-2018" numFmtId="170">
+    <cacheField name="Dec-2018" numFmtId="167">
       <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" minValue="14.28" maxValue="66.559997999999993"/>
     </cacheField>
-    <cacheField name="Jan-2019" numFmtId="170">
+    <cacheField name="Jan-2019" numFmtId="167">
       <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" minValue="16.760000000000002" maxValue="65.779999000000004"/>
     </cacheField>
-    <cacheField name="Feb-2019" numFmtId="170">
+    <cacheField name="Feb-2019" numFmtId="167">
       <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" minValue="16.079999999999998" maxValue="65.260002"/>
     </cacheField>
-    <cacheField name="Mar-2019" numFmtId="170">
+    <cacheField name="Mar-2019" numFmtId="167">
       <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" minValue="16.700001" maxValue="69.290001000000004"/>
     </cacheField>
-    <cacheField name="Apr-2019" numFmtId="170">
+    <cacheField name="Apr-2019" numFmtId="167">
       <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" minValue="16.120000999999998" maxValue="75"/>
     </cacheField>
-    <cacheField name="May-2019" numFmtId="170">
+    <cacheField name="May-2019" numFmtId="167">
       <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" minValue="14.58" maxValue="68.800003000000004"/>
     </cacheField>
-    <cacheField name="Jun-2019" numFmtId="170">
+    <cacheField name="Jun-2019" numFmtId="167">
       <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" minValue="15.28" maxValue="69.699996999999996"/>
     </cacheField>
-    <cacheField name="Jul-2019" numFmtId="170">
+    <cacheField name="Jul-2019" numFmtId="167">
       <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" minValue="15.14" maxValue="68.800003000000004"/>
     </cacheField>
-    <cacheField name="Aug-2019" numFmtId="170">
+    <cacheField name="Aug-2019" numFmtId="167">
       <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" minValue="13.5" maxValue="60.5"/>
     </cacheField>
-    <cacheField name="Sep-2019" numFmtId="170">
+    <cacheField name="Sep-2019" numFmtId="167">
       <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" minValue="13.52" maxValue="63.299999"/>
     </cacheField>
-    <cacheField name="Oct-2019" numFmtId="170">
+    <cacheField name="Oct-2019" numFmtId="167">
       <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" minValue="13.04" maxValue="62.984000999999999"/>
     </cacheField>
-    <cacheField name="Nov-2019" numFmtId="170">
+    <cacheField name="Nov-2019" numFmtId="167">
       <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" minValue="13.62" maxValue="65.987999000000002"/>
     </cacheField>
-    <cacheField name="Dec-2019" numFmtId="170">
+    <cacheField name="Dec-2019" numFmtId="167">
       <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" minValue="15.04" maxValue="83.665999999999997"/>
     </cacheField>
-    <cacheField name="Jan-2020" numFmtId="170">
+    <cacheField name="Jan-2020" numFmtId="167">
       <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" minValue="15.04" maxValue="130.11399800000001"/>
     </cacheField>
-    <cacheField name="Feb-2020" numFmtId="170">
+    <cacheField name="Feb-2020" numFmtId="167">
       <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" minValue="13.92" maxValue="133.598007"/>
     </cacheField>
-    <cacheField name="Mar-2020" numFmtId="170">
+    <cacheField name="Mar-2020" numFmtId="167">
       <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" minValue="11.34" maxValue="104.800003"/>
     </cacheField>
-    <cacheField name="Apr-2020" numFmtId="170">
+    <cacheField name="Apr-2020" numFmtId="167">
       <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" minValue="11.98" maxValue="156.37600699999999"/>
     </cacheField>
-    <cacheField name="May-2020" numFmtId="170">
+    <cacheField name="May-2020" numFmtId="167">
       <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" minValue="11.5" maxValue="167"/>
     </cacheField>
-    <cacheField name="Jun-2020" numFmtId="170">
+    <cacheField name="Jun-2020" numFmtId="167">
       <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" minValue="11.3" maxValue="215.962006"/>
     </cacheField>
-    <cacheField name="Jul-2020" numFmtId="170">
+    <cacheField name="Jul-2020" numFmtId="167">
       <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" minValue="11.98" maxValue="286.15200800000002"/>
     </cacheField>
-    <cacheField name="Aug-2020" numFmtId="170">
+    <cacheField name="Aug-2020" numFmtId="167">
       <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" minValue="12.96" maxValue="442.67999300000002" count="6">
         <n v="12.96"/>
         <n v="65.900002000000001"/>
@@ -22681,7 +23029,7 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://purl.oclc.org/ooxml/spreadsheetml/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{9EA03276-22D1-5042-8994-EE55555B442C}" name="PivotTable1" cacheId="47" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="4">
+<pivotTableDefinition xmlns="http://purl.oclc.org/ooxml/spreadsheetml/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{9EA03276-22D1-5042-8994-EE55555B442C}" name="PivotTable1" cacheId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="4">
   <location ref="A3:M10" firstHeaderRow="0" firstDataRow="1" firstDataCol="1"/>
   <pivotFields count="121">
     <pivotField axis="axisRow" showAll="0">
@@ -22695,7 +23043,7 @@
         <item t="default"/>
       </items>
     </pivotField>
-    <pivotField numFmtId="170" showAll="0">
+    <pivotField numFmtId="167" showAll="0">
       <items count="7">
         <item x="5"/>
         <item x="0"/>
@@ -22706,125 +23054,125 @@
         <item t="default"/>
       </items>
     </pivotField>
-    <pivotField numFmtId="170" showAll="0"/>
-    <pivotField numFmtId="170" showAll="0"/>
-    <pivotField numFmtId="170" showAll="0"/>
-    <pivotField dataField="1" numFmtId="170" showAll="0"/>
-    <pivotField dataField="1" numFmtId="170" showAll="0"/>
-    <pivotField dataField="1" numFmtId="170" showAll="0"/>
-    <pivotField dataField="1" numFmtId="170" showAll="0"/>
-    <pivotField dataField="1" numFmtId="170" showAll="0"/>
-    <pivotField dataField="1" numFmtId="170" showAll="0"/>
-    <pivotField dataField="1" numFmtId="170" showAll="0"/>
-    <pivotField dataField="1" numFmtId="170" showAll="0"/>
-    <pivotField dataField="1" numFmtId="170" showAll="0"/>
-    <pivotField dataField="1" numFmtId="170" showAll="0"/>
-    <pivotField dataField="1" numFmtId="170" showAll="0"/>
-    <pivotField dataField="1" numFmtId="170" showAll="0"/>
-    <pivotField numFmtId="170" showAll="0"/>
-    <pivotField numFmtId="170" showAll="0"/>
-    <pivotField numFmtId="170" showAll="0"/>
-    <pivotField numFmtId="170" showAll="0"/>
-    <pivotField numFmtId="170" showAll="0"/>
-    <pivotField numFmtId="170" showAll="0"/>
-    <pivotField numFmtId="170" showAll="0"/>
-    <pivotField numFmtId="170" showAll="0"/>
-    <pivotField numFmtId="170" showAll="0"/>
-    <pivotField numFmtId="170" showAll="0"/>
-    <pivotField numFmtId="170" showAll="0"/>
-    <pivotField numFmtId="170" showAll="0"/>
-    <pivotField numFmtId="170" showAll="0"/>
-    <pivotField numFmtId="170" showAll="0"/>
-    <pivotField numFmtId="170" showAll="0"/>
-    <pivotField numFmtId="170" showAll="0"/>
-    <pivotField numFmtId="170" showAll="0"/>
-    <pivotField numFmtId="170" showAll="0"/>
-    <pivotField numFmtId="170" showAll="0"/>
-    <pivotField numFmtId="170" showAll="0"/>
-    <pivotField numFmtId="170" showAll="0"/>
-    <pivotField numFmtId="170" showAll="0"/>
-    <pivotField numFmtId="170" showAll="0"/>
-    <pivotField numFmtId="170" showAll="0"/>
-    <pivotField numFmtId="170" showAll="0"/>
-    <pivotField numFmtId="170" showAll="0"/>
-    <pivotField numFmtId="170" showAll="0"/>
-    <pivotField numFmtId="170" showAll="0"/>
-    <pivotField numFmtId="170" showAll="0"/>
-    <pivotField numFmtId="170" showAll="0"/>
-    <pivotField numFmtId="170" showAll="0"/>
-    <pivotField numFmtId="170" showAll="0"/>
-    <pivotField numFmtId="170" showAll="0"/>
-    <pivotField numFmtId="170" showAll="0"/>
-    <pivotField numFmtId="170" showAll="0"/>
-    <pivotField numFmtId="170" showAll="0"/>
-    <pivotField numFmtId="170" showAll="0"/>
-    <pivotField numFmtId="170" showAll="0"/>
-    <pivotField numFmtId="170" showAll="0"/>
-    <pivotField numFmtId="170" showAll="0"/>
-    <pivotField numFmtId="170" showAll="0"/>
-    <pivotField numFmtId="170" showAll="0"/>
-    <pivotField numFmtId="170" showAll="0"/>
-    <pivotField numFmtId="170" showAll="0"/>
-    <pivotField numFmtId="170" showAll="0"/>
-    <pivotField numFmtId="170" showAll="0"/>
-    <pivotField numFmtId="170" showAll="0"/>
-    <pivotField numFmtId="170" showAll="0"/>
-    <pivotField numFmtId="170" showAll="0"/>
-    <pivotField numFmtId="170" showAll="0"/>
-    <pivotField numFmtId="170" showAll="0"/>
-    <pivotField numFmtId="170" showAll="0"/>
-    <pivotField numFmtId="170" showAll="0"/>
-    <pivotField numFmtId="170" showAll="0"/>
-    <pivotField numFmtId="170" showAll="0"/>
-    <pivotField numFmtId="170" showAll="0"/>
-    <pivotField numFmtId="170" showAll="0"/>
-    <pivotField numFmtId="170" showAll="0"/>
-    <pivotField numFmtId="170" showAll="0"/>
-    <pivotField numFmtId="170" showAll="0"/>
-    <pivotField numFmtId="170" showAll="0"/>
-    <pivotField numFmtId="170" showAll="0"/>
-    <pivotField numFmtId="170" showAll="0"/>
-    <pivotField numFmtId="170" showAll="0"/>
-    <pivotField numFmtId="170" showAll="0"/>
-    <pivotField numFmtId="170" showAll="0"/>
-    <pivotField numFmtId="170" showAll="0"/>
-    <pivotField numFmtId="170" showAll="0"/>
-    <pivotField numFmtId="170" showAll="0"/>
-    <pivotField numFmtId="170" showAll="0"/>
-    <pivotField numFmtId="170" showAll="0"/>
-    <pivotField numFmtId="170" showAll="0"/>
-    <pivotField numFmtId="170" showAll="0"/>
-    <pivotField numFmtId="170" showAll="0"/>
-    <pivotField numFmtId="170" showAll="0"/>
-    <pivotField numFmtId="170" showAll="0"/>
-    <pivotField numFmtId="170" showAll="0"/>
-    <pivotField numFmtId="170" showAll="0"/>
-    <pivotField numFmtId="170" showAll="0"/>
-    <pivotField numFmtId="170" showAll="0"/>
-    <pivotField numFmtId="170" showAll="0"/>
-    <pivotField numFmtId="170" showAll="0"/>
-    <pivotField numFmtId="170" showAll="0"/>
-    <pivotField numFmtId="170" showAll="0"/>
-    <pivotField numFmtId="170" showAll="0"/>
-    <pivotField numFmtId="170" showAll="0"/>
-    <pivotField numFmtId="170" showAll="0"/>
-    <pivotField numFmtId="170" showAll="0"/>
-    <pivotField numFmtId="170" showAll="0"/>
-    <pivotField numFmtId="170" showAll="0"/>
-    <pivotField numFmtId="170" showAll="0"/>
-    <pivotField numFmtId="170" showAll="0"/>
-    <pivotField numFmtId="170" showAll="0"/>
-    <pivotField numFmtId="170" showAll="0"/>
-    <pivotField numFmtId="170" showAll="0"/>
-    <pivotField numFmtId="170" showAll="0"/>
-    <pivotField numFmtId="170" showAll="0"/>
-    <pivotField numFmtId="170" showAll="0"/>
-    <pivotField numFmtId="170" showAll="0"/>
-    <pivotField numFmtId="170" showAll="0"/>
-    <pivotField numFmtId="170" showAll="0"/>
-    <pivotField numFmtId="170" showAll="0"/>
-    <pivotField numFmtId="170" showAll="0"/>
-    <pivotField numFmtId="170" showAll="0">
+    <pivotField numFmtId="167" showAll="0"/>
+    <pivotField numFmtId="167" showAll="0"/>
+    <pivotField numFmtId="167" showAll="0"/>
+    <pivotField dataField="1" numFmtId="167" showAll="0"/>
+    <pivotField dataField="1" numFmtId="167" showAll="0"/>
+    <pivotField dataField="1" numFmtId="167" showAll="0"/>
+    <pivotField dataField="1" numFmtId="167" showAll="0"/>
+    <pivotField dataField="1" numFmtId="167" showAll="0"/>
+    <pivotField dataField="1" numFmtId="167" showAll="0"/>
+    <pivotField dataField="1" numFmtId="167" showAll="0"/>
+    <pivotField dataField="1" numFmtId="167" showAll="0"/>
+    <pivotField dataField="1" numFmtId="167" showAll="0"/>
+    <pivotField dataField="1" numFmtId="167" showAll="0"/>
+    <pivotField dataField="1" numFmtId="167" showAll="0"/>
+    <pivotField dataField="1" numFmtId="167" showAll="0"/>
+    <pivotField numFmtId="167" showAll="0"/>
+    <pivotField numFmtId="167" showAll="0"/>
+    <pivotField numFmtId="167" showAll="0"/>
+    <pivotField numFmtId="167" showAll="0"/>
+    <pivotField numFmtId="167" showAll="0"/>
+    <pivotField numFmtId="167" showAll="0"/>
+    <pivotField numFmtId="167" showAll="0"/>
+    <pivotField numFmtId="167" showAll="0"/>
+    <pivotField numFmtId="167" showAll="0"/>
+    <pivotField numFmtId="167" showAll="0"/>
+    <pivotField numFmtId="167" showAll="0"/>
+    <pivotField numFmtId="167" showAll="0"/>
+    <pivotField numFmtId="167" showAll="0"/>
+    <pivotField numFmtId="167" showAll="0"/>
+    <pivotField numFmtId="167" showAll="0"/>
+    <pivotField numFmtId="167" showAll="0"/>
+    <pivotField numFmtId="167" showAll="0"/>
+    <pivotField numFmtId="167" showAll="0"/>
+    <pivotField numFmtId="167" showAll="0"/>
+    <pivotField numFmtId="167" showAll="0"/>
+    <pivotField numFmtId="167" showAll="0"/>
+    <pivotField numFmtId="167" showAll="0"/>
+    <pivotField numFmtId="167" showAll="0"/>
+    <pivotField numFmtId="167" showAll="0"/>
+    <pivotField numFmtId="167" showAll="0"/>
+    <pivotField numFmtId="167" showAll="0"/>
+    <pivotField numFmtId="167" showAll="0"/>
+    <pivotField numFmtId="167" showAll="0"/>
+    <pivotField numFmtId="167" showAll="0"/>
+    <pivotField numFmtId="167" showAll="0"/>
+    <pivotField numFmtId="167" showAll="0"/>
+    <pivotField numFmtId="167" showAll="0"/>
+    <pivotField numFmtId="167" showAll="0"/>
+    <pivotField numFmtId="167" showAll="0"/>
+    <pivotField numFmtId="167" showAll="0"/>
+    <pivotField numFmtId="167" showAll="0"/>
+    <pivotField numFmtId="167" showAll="0"/>
+    <pivotField numFmtId="167" showAll="0"/>
+    <pivotField numFmtId="167" showAll="0"/>
+    <pivotField numFmtId="167" showAll="0"/>
+    <pivotField numFmtId="167" showAll="0"/>
+    <pivotField numFmtId="167" showAll="0"/>
+    <pivotField numFmtId="167" showAll="0"/>
+    <pivotField numFmtId="167" showAll="0"/>
+    <pivotField numFmtId="167" showAll="0"/>
+    <pivotField numFmtId="167" showAll="0"/>
+    <pivotField numFmtId="167" showAll="0"/>
+    <pivotField numFmtId="167" showAll="0"/>
+    <pivotField numFmtId="167" showAll="0"/>
+    <pivotField numFmtId="167" showAll="0"/>
+    <pivotField numFmtId="167" showAll="0"/>
+    <pivotField numFmtId="167" showAll="0"/>
+    <pivotField numFmtId="167" showAll="0"/>
+    <pivotField numFmtId="167" showAll="0"/>
+    <pivotField numFmtId="167" showAll="0"/>
+    <pivotField numFmtId="167" showAll="0"/>
+    <pivotField numFmtId="167" showAll="0"/>
+    <pivotField numFmtId="167" showAll="0"/>
+    <pivotField numFmtId="167" showAll="0"/>
+    <pivotField numFmtId="167" showAll="0"/>
+    <pivotField numFmtId="167" showAll="0"/>
+    <pivotField numFmtId="167" showAll="0"/>
+    <pivotField numFmtId="167" showAll="0"/>
+    <pivotField numFmtId="167" showAll="0"/>
+    <pivotField numFmtId="167" showAll="0"/>
+    <pivotField numFmtId="167" showAll="0"/>
+    <pivotField numFmtId="167" showAll="0"/>
+    <pivotField numFmtId="167" showAll="0"/>
+    <pivotField numFmtId="167" showAll="0"/>
+    <pivotField numFmtId="167" showAll="0"/>
+    <pivotField numFmtId="167" showAll="0"/>
+    <pivotField numFmtId="167" showAll="0"/>
+    <pivotField numFmtId="167" showAll="0"/>
+    <pivotField numFmtId="167" showAll="0"/>
+    <pivotField numFmtId="167" showAll="0"/>
+    <pivotField numFmtId="167" showAll="0"/>
+    <pivotField numFmtId="167" showAll="0"/>
+    <pivotField numFmtId="167" showAll="0"/>
+    <pivotField numFmtId="167" showAll="0"/>
+    <pivotField numFmtId="167" showAll="0"/>
+    <pivotField numFmtId="167" showAll="0"/>
+    <pivotField numFmtId="167" showAll="0"/>
+    <pivotField numFmtId="167" showAll="0"/>
+    <pivotField numFmtId="167" showAll="0"/>
+    <pivotField numFmtId="167" showAll="0"/>
+    <pivotField numFmtId="167" showAll="0"/>
+    <pivotField numFmtId="167" showAll="0"/>
+    <pivotField numFmtId="167" showAll="0"/>
+    <pivotField numFmtId="167" showAll="0"/>
+    <pivotField numFmtId="167" showAll="0"/>
+    <pivotField numFmtId="167" showAll="0"/>
+    <pivotField numFmtId="167" showAll="0"/>
+    <pivotField numFmtId="167" showAll="0"/>
+    <pivotField numFmtId="167" showAll="0"/>
+    <pivotField numFmtId="167" showAll="0"/>
+    <pivotField numFmtId="167" showAll="0"/>
+    <pivotField numFmtId="167" showAll="0"/>
+    <pivotField numFmtId="167" showAll="0"/>
+    <pivotField numFmtId="167" showAll="0"/>
+    <pivotField numFmtId="167" showAll="0"/>
+    <pivotField numFmtId="167" showAll="0"/>
+    <pivotField numFmtId="167" showAll="0"/>
+    <pivotField numFmtId="167" showAll="0"/>
+    <pivotField numFmtId="167" showAll="0">
       <items count="7">
         <item x="0"/>
         <item x="4"/>
@@ -23039,6 +23387,1331 @@
 </pivotTableDefinition>
 </file>
 
+<file path=xl/richData/rdRichValueTypes.xml><?xml version="1.0" encoding="utf-8"?>
+<rvTypesInfo xmlns="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2">
+  <global>
+    <keyFlags>
+      <key name="_Self">
+        <flag name="ExcludeFromFile" value="1"/>
+        <flag name="ExcludeFromCalcComparison" value="1"/>
+      </key>
+      <key name="_DisplayString">
+        <flag name="ExcludeFromCalcComparison" value="1"/>
+      </key>
+      <key name="_Flags">
+        <flag name="ExcludeFromCalcComparison" value="1"/>
+      </key>
+      <key name="_Format">
+        <flag name="ExcludeFromCalcComparison" value="1"/>
+      </key>
+      <key name="_SubLabel">
+        <flag name="ExcludeFromCalcComparison" value="1"/>
+      </key>
+      <key name="_Attribution">
+        <flag name="ExcludeFromCalcComparison" value="1"/>
+      </key>
+      <key name="_Icon">
+        <flag name="ExcludeFromCalcComparison" value="1"/>
+      </key>
+      <key name="_Display">
+        <flag name="ExcludeFromCalcComparison" value="1"/>
+      </key>
+      <key name="_CanonicalPropertyNames">
+        <flag name="ExcludeFromCalcComparison" value="1"/>
+      </key>
+    </keyFlags>
+  </global>
+  <types>
+    <type name="_imageurl">
+      <keyFlags>
+        <key name="Blip Identifier">
+          <flag name="ShowInCardView" value="0"/>
+        </key>
+      </keyFlags>
+    </type>
+    <type name="_linkedentity">
+      <keyFlags>
+        <key name="%cvi">
+          <flag name="ShowInCardView" value="0"/>
+          <flag name="ShowInDotNotation" value="0"/>
+          <flag name="ShowInAutoComplete" value="0"/>
+          <flag name="ExcludeFromCalcComparison" value="1"/>
+        </key>
+      </keyFlags>
+    </type>
+    <type name="_linkedentitycore">
+      <keyFlags>
+        <key name="%EntityServiceId">
+          <flag name="ShowInCardView" value="0"/>
+          <flag name="ShowInDotNotation" value="0"/>
+          <flag name="ShowInAutoComplete" value="0"/>
+        </key>
+        <key name="%EntitySubDomainId">
+          <flag name="ShowInCardView" value="0"/>
+          <flag name="ShowInDotNotation" value="0"/>
+          <flag name="ShowInAutoComplete" value="0"/>
+        </key>
+        <key name="%EntityCulture">
+          <flag name="ShowInCardView" value="0"/>
+          <flag name="ShowInDotNotation" value="0"/>
+          <flag name="ShowInAutoComplete" value="0"/>
+        </key>
+        <key name="%EntityId">
+          <flag name="ShowInCardView" value="0"/>
+          <flag name="ShowInDotNotation" value="0"/>
+          <flag name="ShowInAutoComplete" value="0"/>
+        </key>
+        <key name="%IsRefreshable">
+          <flag name="ShowInCardView" value="0"/>
+          <flag name="ShowInAutoComplete" value="0"/>
+          <flag name="ExcludeFromCalcComparison" value="1"/>
+        </key>
+        <key name="%ProviderInfo">
+          <flag name="ShowInCardView" value="0"/>
+          <flag name="ShowInDotNotation" value="0"/>
+          <flag name="ShowInAutoComplete" value="0"/>
+        </key>
+        <key name="%DataProviderExternalLinkLogo">
+          <flag name="ShowInCardView" value="0"/>
+          <flag name="ShowInDotNotation" value="0"/>
+          <flag name="ShowInAutoComplete" value="0"/>
+        </key>
+        <key name="%DataProviderExternalLink">
+          <flag name="ShowInCardView" value="0"/>
+          <flag name="ShowInDotNotation" value="0"/>
+          <flag name="ShowInAutoComplete" value="0"/>
+        </key>
+      </keyFlags>
+    </type>
+  </types>
+</rvTypesInfo>
+</file>
+
+<file path=xl/richData/rdrichvalue.xml><?xml version="1.0" encoding="utf-8"?>
+<rvData xmlns="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata" count="40">
+  <rv s="0">
+    <v>http://en.wikipedia.org/wiki/Public_domain</v>
+    <v>Public domain</v>
+  </rv>
+  <rv s="0">
+    <v>http://en.wikipedia.org/wiki/Tesla,_Inc.</v>
+    <v>Wikipedia</v>
+  </rv>
+  <rv s="1">
+    <v>0</v>
+    <v>1</v>
+  </rv>
+  <rv s="2">
+    <v>6</v>
+    <v>https://www.bing.com/th?id=AMMS_8e31d52bb9ea27bdda26200517d4b1d1&amp;qlt=95</v>
+    <v>2</v>
+    <v>https://www.bing.com/images/search?form=xlimg&amp;q=tesla+motors</v>
+    <v>Image of TESLA, INC.</v>
+    <v/>
+  </rv>
+  <rv s="0">
+    <v>https://www.bing.com/financeapi/forcetrigger?t=a24kar&amp;q=XNAS%3aTSLA&amp;form=skydnc</v>
+    <v>Learn more on Bing</v>
+  </rv>
+  <rv s="3">
+    <v>0</v>
+    <v>TESLA, INC. (XNAS:TSLA)</v>
+    <v>3</v>
+    <v>4</v>
+    <v>Finance</v>
+    <v>5</v>
+    <v>en-US</v>
+    <v>a24kar</v>
+    <v>268435456</v>
+    <v>268435457</v>
+    <v>1</v>
+    <v>Powered by Refinitiv</v>
+    <v>500.14</v>
+    <v>43.671999999999997</v>
+    <v>1.6476999999999999</v>
+    <v>-20.89</v>
+    <v>-4.1921E-2</v>
+    <v>USD</v>
+    <v>Tesla, Inc., formerly Tesla Motors, Inc., designs, develops, manufactures and sells fully electric vehicles, and energy storage systems, as well as installs, operates and maintains solar and energy storage products. The Company operates through two segments: Automotive, and Energy generation and storage. The Automotive segment includes the design, development, manufacturing, and sales of electric vehicles. The Energy generation and storage segment includes the design, manufacture, installation, and sale or lease of stationary energy storage products and solar energy systems to residential and commercial customers, or sale of electricity generated by its solar energy systems to customers. The Company produces and distributes two fully electric vehicles, the Model S sedan and the Model X sport utility vehicle (SUV). It also offers Model 3, a sedan designed for the mass market. It develops energy storage products for use in homes, commercial facilities and utility sites.</v>
+    <v>48016</v>
+    <v>Nasdaq Stock Market</v>
+    <v>XNAS</v>
+    <v>XNAS</v>
+    <v>3500 Deer Creek Rd, PALO ALTO, CA, 94304-1317 US</v>
+    <v>502.49</v>
+    <v>3</v>
+    <v>Automobiles &amp; Auto Parts</v>
+    <v>Stock</v>
+    <v>44075.822575265622</v>
+    <v>4</v>
+    <v>470.51</v>
+    <v>412493000000</v>
+    <v>TESLA, INC.</v>
+    <v>TESLA, INC.</v>
+    <v>502.29</v>
+    <v>1282.135</v>
+    <v>498.32</v>
+    <v>477.43</v>
+    <v>931808700</v>
+    <v>TSLA</v>
+    <v>TESLA, INC. (XNAS:TSLA)</v>
+    <v>84831710</v>
+    <v>71335805</v>
+    <v>2003</v>
+  </rv>
+  <rv s="4">
+    <v>5</v>
+  </rv>
+  <rv s="0">
+    <v>http://en.wikipedia.org/wiki/Zoom_Video_Communications</v>
+    <v>Wikipedia</v>
+  </rv>
+  <rv s="1">
+    <v>0</v>
+    <v>7</v>
+  </rv>
+  <rv s="2">
+    <v>6</v>
+    <v>https://www.bing.com/th?id=AMMS_166de0c9400c7b6e4dde6f49a3ff8527&amp;qlt=95</v>
+    <v>8</v>
+    <v>https://www.bing.com/images/search?form=xlimg&amp;q=zoom+video+communications</v>
+    <v>Image of ZOOM VIDEO COMMUNICATIONS, INC.</v>
+    <v/>
+  </rv>
+  <rv s="0">
+    <v>https://www.bing.com/financeapi/forcetrigger?t=bpoxyc&amp;q=XNAS%3aZM&amp;form=skydnc</v>
+    <v>Learn more on Bing</v>
+  </rv>
+  <rv s="5">
+    <v>7</v>
+    <v>ZOOM VIDEO COMMUNICATIONS, INC. (XNAS:ZM)</v>
+    <v>3</v>
+    <v>8</v>
+    <v>Finance</v>
+    <v>5</v>
+    <v>en-US</v>
+    <v>bpoxyc</v>
+    <v>268435456</v>
+    <v>268435457</v>
+    <v>1</v>
+    <v>Powered by Refinitiv</v>
+    <v>457.32990000000001</v>
+    <v>60.967500000000001</v>
+    <v>132.22989999999999</v>
+    <v>0.40673599999999999</v>
+    <v>USD</v>
+    <v>Zoom Video Communications, Inc. is a provider of video-first communication platform and Web conferencing services. It offers cloud-native platform, which unifies cloud video conferencing, online meetings, group messaging and a software-based conference room system, which enables users to easily experience Zoom Meetings in their physical meeting spaces. Its solution offers video, audio and screen-sharing experience across Windows, Mac, Linux, Android, BlackBerry, Zoom Rooms and H.323/Session Initiation Protocol room systems, such as Polycom and Cisco Tandberg. Its solutions include Meetings, Premium Audio, Business Instant Messaging (IM), Video Webinar, Zoom Rooms, H.323/SIP Connector and Developer Platform. Its cloud video conferencing solutions include full screen and gallery view, and dual stream for dual screen. Its security solutions include secure socket layer (SSL) encryption and role-based access control. It offers its solutions to education, finance and government sectors.</v>
+    <v>2854</v>
+    <v>Nasdaq Stock Market</v>
+    <v>XNAS</v>
+    <v>XNAS</v>
+    <v>55 Almaden Blvd Fl 6, San Jose, CA, 95113-1608 US</v>
+    <v>478</v>
+    <v>9</v>
+    <v>Software &amp; IT Services</v>
+    <v>Stock</v>
+    <v>44075.825063622658</v>
+    <v>10</v>
+    <v>410.68</v>
+    <v>84424960000</v>
+    <v>ZOOM VIDEO COMMUNICATIONS, INC.</v>
+    <v>ZOOM VIDEO COMMUNICATIONS, INC.</v>
+    <v>439.54</v>
+    <v>1912.3520000000001</v>
+    <v>325.10000000000002</v>
+    <v>457.32990000000001</v>
+    <v>282103000</v>
+    <v>ZM</v>
+    <v>ZOOM VIDEO COMMUNICATIONS, INC. (XNAS:ZM)</v>
+    <v>51194979</v>
+    <v>6187046</v>
+    <v>2011</v>
+  </rv>
+  <rv s="4">
+    <v>11</v>
+  </rv>
+  <rv s="0">
+    <v>http://ja.wikipedia.org/wiki/アップル_(企業)</v>
+    <v>Wikipedia</v>
+  </rv>
+  <rv s="1">
+    <v>0</v>
+    <v>13</v>
+  </rv>
+  <rv s="2">
+    <v>6</v>
+    <v>https://www.bing.com/th?id=AMMS_4b742b6461de24cfdaeba0c724c4b15e&amp;qlt=95</v>
+    <v>14</v>
+    <v>https://www.bing.com/images/search?form=xlimg&amp;q=apple+inc</v>
+    <v>Image of APPLE INC.</v>
+    <v/>
+  </rv>
+  <rv s="0">
+    <v>https://www.bing.com/financeapi/forcetrigger?t=a1mou2&amp;q=XNAS%3aAAPL&amp;form=skydnc</v>
+    <v>Learn more on Bing</v>
+  </rv>
+  <rv s="3">
+    <v>0</v>
+    <v>APPLE INC. (XNAS:AAPL)</v>
+    <v>3</v>
+    <v>4</v>
+    <v>Finance</v>
+    <v>5</v>
+    <v>en-US</v>
+    <v>a1mou2</v>
+    <v>268435456</v>
+    <v>268435457</v>
+    <v>1</v>
+    <v>Powered by Refinitiv</v>
+    <v>133.77420000000001</v>
+    <v>51.055</v>
+    <v>1.2850999999999999</v>
+    <v>4.7342000000000004</v>
+    <v>3.6687999999999998E-2</v>
+    <v>USD</v>
+    <v>Apple Inc. designs, manufactures and markets mobile communication and media devices, personal computers and portable digital music players. The Company sells a range of related software, services, accessories, networking solutions, and third-party digital content and applications. The Company's segments include the Americas, Europe, Greater China, Japan and Rest of Asia Pacific. The Americas segment includes both North and South America. The Europe segment includes European countries, India, the Middle East and Africa. The Greater China segment includes China, Hong Kong and Taiwan. The Rest of Asia Pacific segment includes Australia and the Asian countries not included in the Company's other operating segments. Its products and services include iPhone, iPad, Mac, iPod, Apple Watch, Apple TV, a portfolio of consumer and professional software applications, iPhone OS (iOS), OS X and watchOS operating systems, iCloud, Apple Pay and a range of accessory, service and support offerings.</v>
+    <v>137000</v>
+    <v>Nasdaq Stock Market</v>
+    <v>XNAS</v>
+    <v>XNAS</v>
+    <v>1 Apple Park Way, CUPERTINO, CA, 95014-0642 US</v>
+    <v>134.80000000000001</v>
+    <v>15</v>
+    <v>Computers, Phones &amp; Household Electronics</v>
+    <v>Stock</v>
+    <v>44075.827821006249</v>
+    <v>16</v>
+    <v>130.54</v>
+    <v>2134525000000</v>
+    <v>APPLE INC.</v>
+    <v>APPLE INC.</v>
+    <v>132.91</v>
+    <v>39.2301</v>
+    <v>129.04</v>
+    <v>133.77420000000001</v>
+    <v>17102540000</v>
+    <v>AAPL</v>
+    <v>APPLE INC. (XNAS:AAPL)</v>
+    <v>136143542</v>
+    <v>191868960</v>
+    <v>1977</v>
+  </rv>
+  <rv s="4">
+    <v>17</v>
+  </rv>
+  <rv s="0">
+    <v>https://www.bing.com/financeapi/forcetrigger?t=a1mrjc&amp;q=XNYS%3aGOLD&amp;form=skydnc</v>
+    <v>Learn more on Bing</v>
+  </rv>
+  <rv s="6">
+    <v>9</v>
+    <v>BARRICK GOLD CORPORATION (XNYS:GOLD)</v>
+    <v>10</v>
+    <v>11</v>
+    <v>Finance</v>
+    <v>5</v>
+    <v>en-US</v>
+    <v>a1mrjc</v>
+    <v>268435456</v>
+    <v>268435457</v>
+    <v>1</v>
+    <v>Powered by Refinitiv</v>
+    <v>31.22</v>
+    <v>12.65</v>
+    <v>0.29039999999999999</v>
+    <v>-0.39179999999999998</v>
+    <v>-1.3205E-2</v>
+    <v>USD</v>
+    <v>Barrick Gold Corporation is a mining company principally engaged in the production and sale of gold and copper, as well as related activities, such as exploration and mine development. The Company holds a geographically diversified asset portfolio and operates 15 producing gold mines, including Carlin, Cortez, Turquoise Ridge, Long Canyon, Phoenix, Pueblo Viejo, Loulo-Gounkoto, Kibali, Hemlo, Veladero, North Mara, Bulyanhulu, Buzwagi, Tongon and Porgera. The copper business includes the Lumwana, Jabal Sayid and Zaldivar mines. The Company’s operations and projects are located in Argentina, Canada, Chile, Cote d’Ivoire, the Democratic Republic of Congo, the Dominican Republic, Mali, Papua New Guinea, Peru, Saudi Arabia, Tanzania, the United States and Zambia.</v>
+    <v>22100</v>
+    <v>New York Stock Exchange</v>
+    <v>XNYS</v>
+    <v>XNYS</v>
+    <v>Canada Trust Tower, 161 Bay St Suite 3700, TORONTO, ON, M5J 2S1 CA</v>
+    <v>30.28</v>
+    <v>Metals &amp; Mining</v>
+    <v>Stock</v>
+    <v>44075.83271280078</v>
+    <v>19</v>
+    <v>28.98</v>
+    <v>67894100000</v>
+    <v>BARRICK GOLD CORPORATION</v>
+    <v>BARRICK GOLD CORPORATION</v>
+    <v>30.28</v>
+    <v>11.85</v>
+    <v>29.67</v>
+    <v>29.278199999999998</v>
+    <v>1778068000</v>
+    <v>GOLD</v>
+    <v>BARRICK GOLD CORPORATION (XNYS:GOLD)</v>
+    <v>16520763</v>
+    <v>21745951</v>
+    <v>2018</v>
+  </rv>
+  <rv s="4">
+    <v>20</v>
+  </rv>
+  <rv s="0">
+    <v>https://www.bing.com/financeapi/forcetrigger?t=a25lrw&amp;q=ARCX%3aVTI&amp;form=skydnc</v>
+    <v>Learn more on Bing</v>
+  </rv>
+  <rv s="7">
+    <v>12</v>
+    <v>Vanguard TSM Idx;ETF (ARCX:VTI)</v>
+    <v>13</v>
+    <v>14</v>
+    <v>Finance</v>
+    <v>15</v>
+    <v>en-US</v>
+    <v>a25lrw</v>
+    <v>268435456</v>
+    <v>268435459</v>
+    <v>1</v>
+    <v>Powered by Refinitiv</v>
+    <v>178.77</v>
+    <v>109.49</v>
+    <v>1.0002</v>
+    <v>1.49</v>
+    <v>8.405000000000001E-3</v>
+    <v>USD</v>
+    <v>NYSE Arca</v>
+    <v>ARCX</v>
+    <v>4.0000000000000002E-4</v>
+    <v>178.77</v>
+    <v>ETF</v>
+    <v>44075.832384374997</v>
+    <v>22</v>
+    <v>177.17</v>
+    <v>153193735128</v>
+    <v>Vanguard TSM Idx;ETF</v>
+    <v>177.35</v>
+    <v>177.28</v>
+    <v>178.77</v>
+    <v>VTI</v>
+    <v>Vanguard TSM Idx;ETF (ARCX:VTI)</v>
+    <v>2587813</v>
+    <v>2876603</v>
+  </rv>
+  <rv s="4">
+    <v>23</v>
+  </rv>
+  <rv s="0">
+    <v>http://en.wikipedia.org/wiki/General_Electric</v>
+    <v>Wikipedia</v>
+  </rv>
+  <rv s="1">
+    <v>0</v>
+    <v>25</v>
+  </rv>
+  <rv s="2">
+    <v>6</v>
+    <v>https://www.bing.com/th?id=AMMS_301c5fbc1963a22028790c2c83b0dc3c&amp;qlt=95</v>
+    <v>26</v>
+    <v>https://www.bing.com/images/search?form=xlimg&amp;q=general+electric</v>
+    <v>Image of GENERAL ELECTRIC COMPANY</v>
+    <v/>
+  </rv>
+  <rv s="0">
+    <v>https://www.bing.com/financeapi/forcetrigger?t=a1tr1h&amp;q=XNYS%3aGE&amp;form=skydnc</v>
+    <v>Learn more on Bing</v>
+  </rv>
+  <rv s="3">
+    <v>0</v>
+    <v>GENERAL ELECTRIC COMPANY (XNYS:GE)</v>
+    <v>3</v>
+    <v>4</v>
+    <v>Finance</v>
+    <v>5</v>
+    <v>en-US</v>
+    <v>a1tr1h</v>
+    <v>268435456</v>
+    <v>268435457</v>
+    <v>1</v>
+    <v>Powered by Refinitiv</v>
+    <v>13.26</v>
+    <v>5.48</v>
+    <v>0.93169999999999997</v>
+    <v>-0.15</v>
+    <v>-2.3658999999999999E-2</v>
+    <v>USD</v>
+    <v>General Electric Company is a global digital industrial company. The Company's products and services range from aircraft engines, power generation, and oil and gas production equipment to medical imaging, financing and industrial products. Its segments include Power, which includes products and services related to energy production; Renewable Energy, which offers renewable power sources; Oil &amp; Gas, including liquefied natural gas and pipelines; Aviation, which includes commercial and military aircraft engines, and integrated digital components, among others; Healthcare, which provides healthcare technologies in medical imaging, digital solutions, patient monitoring and diagnostics, and drug discovery, among others; Transportation, which is a supplier to the railroad, mining, marine, stationary power and drilling industries; Energy Connections &amp; Lighting, which includes Energy Connections and Lighting businesses, and Capital, which is a financial services division.</v>
+    <v>205000</v>
+    <v>New York Stock Exchange</v>
+    <v>XNYS</v>
+    <v>XNYS</v>
+    <v>5 NECCO STREET, BOSTON, MA, 02210 US</v>
+    <v>6.4</v>
+    <v>27</v>
+    <v>Industrial Conglomerates</v>
+    <v>Stock</v>
+    <v>44075.999967175783</v>
+    <v>28</v>
+    <v>6.15</v>
+    <v>55495850000</v>
+    <v>GENERAL ELECTRIC COMPANY</v>
+    <v>GENERAL ELECTRIC COMPANY</v>
+    <v>6.27</v>
+    <v>16.243300000000001</v>
+    <v>6.34</v>
+    <v>6.19</v>
+    <v>8753289000</v>
+    <v>GE</v>
+    <v>GENERAL ELECTRIC COMPANY (XNYS:GE)</v>
+    <v>93296864</v>
+    <v>82411668</v>
+    <v>1892</v>
+  </rv>
+  <rv s="4">
+    <v>29</v>
+  </rv>
+  <rv s="0">
+    <v>http://en.wikipedia.org/wiki/Microsoft</v>
+    <v>Wikipedia</v>
+  </rv>
+  <rv s="1">
+    <v>0</v>
+    <v>31</v>
+  </rv>
+  <rv s="2">
+    <v>6</v>
+    <v>https://www.bing.com/th?id=AMMS_c6939a08cba290c186ef1b935254e91d&amp;qlt=95</v>
+    <v>32</v>
+    <v>https://www.bing.com/images/search?form=xlimg&amp;q=microsoft</v>
+    <v>Image of MICROSOFT CORPORATION</v>
+    <v/>
+  </rv>
+  <rv s="0">
+    <v>https://www.bing.com/financeapi/forcetrigger?t=a1xzim&amp;q=XNAS%3aMSFT&amp;form=skydnc</v>
+    <v>Learn more on Bing</v>
+  </rv>
+  <rv s="3">
+    <v>0</v>
+    <v>MICROSOFT CORPORATION (XNAS:MSFT)</v>
+    <v>3</v>
+    <v>4</v>
+    <v>Finance</v>
+    <v>5</v>
+    <v>en-US</v>
+    <v>a1xzim</v>
+    <v>268435456</v>
+    <v>268435457</v>
+    <v>1</v>
+    <v>Powered by Refinitiv</v>
+    <v>231.15</v>
+    <v>132.52000000000001</v>
+    <v>0.89190000000000003</v>
+    <v>1.74</v>
+    <v>7.7149999999999996E-3</v>
+    <v>USD</v>
+    <v>Microsoft Corporation is a technology company. The Company develops, licenses, and supports a range of software products, services and devices. The Company's segments include Productivity and Business Processes, Intelligent Cloud and More Personal Computing. The Company's products include operating systems; cross-device productivity applications; server applications; business solution applications; desktop and server management tools; software development tools; video games, and training and certification of computer system integrators and developers. It also designs, manufactures, and sells devices, including personal computers (PCs), tablets, gaming and entertainment consoles, phones, other intelligent devices, and related accessories, that integrate with its cloud-based offerings. It offers an array of services, including cloud-based solutions that provide customers with software, services, platforms, and content, and it provides solution support and consulting services.</v>
+    <v>163000</v>
+    <v>Nasdaq Stock Market</v>
+    <v>XNAS</v>
+    <v>XNAS</v>
+    <v>1 Microsoft Way, REDMOND, WA, 98052-6399 US</v>
+    <v>227.45</v>
+    <v>33</v>
+    <v>Software &amp; IT Services</v>
+    <v>Stock</v>
+    <v>44075.999998078129</v>
+    <v>34</v>
+    <v>224.43</v>
+    <v>1706733000000</v>
+    <v>MICROSOFT CORPORATION</v>
+    <v>MICROSOFT CORPORATION</v>
+    <v>225.51</v>
+    <v>39.427599999999998</v>
+    <v>225.53</v>
+    <v>227.27</v>
+    <v>7567653000</v>
+    <v>MSFT</v>
+    <v>MICROSOFT CORPORATION (XNAS:MSFT)</v>
+    <v>25791235</v>
+    <v>32468632</v>
+    <v>1993</v>
+  </rv>
+  <rv s="4">
+    <v>35</v>
+  </rv>
+  <rv s="0">
+    <v>https://www.bing.com/financeapi/forcetrigger?t=a1moa2&amp;q=XNAS%3aAAL&amp;form=skydnc</v>
+    <v>Learn more on Bing</v>
+  </rv>
+  <rv s="6">
+    <v>9</v>
+    <v>AMERICAN AIRLINES GROUP INC. (XNAS:AAL)</v>
+    <v>10</v>
+    <v>11</v>
+    <v>Finance</v>
+    <v>5</v>
+    <v>en-US</v>
+    <v>a1moa2</v>
+    <v>268435456</v>
+    <v>268435457</v>
+    <v>1</v>
+    <v>Powered by Refinitiv</v>
+    <v>31.67</v>
+    <v>8.25</v>
+    <v>1.7522</v>
+    <v>0.05</v>
+    <v>3.8309999999999998E-3</v>
+    <v>USD</v>
+    <v>American Airlines Group Inc. is a holding company. The Company's primary business activity is the operation of a network air carrier, providing scheduled air transportation for passengers and cargo. The Company operates through American segment, which provides air transportation for passengers and cargo. The Company's cargo division provides a range of freight and mail services with facilities and interline connections available across the globe. Together with its regional airline subsidiaries and third-party regional carriers operating as American Eagle, its airline operated an average of nearly 6,700 flights per day to nearly 350 destinations in more than 50 countries, principally from its hubs in Charlotte, Chicago, Dallas/Fort Worth, Los Angeles, Miami, New York, Philadelphia, Phoenix and Washington, District of Columbia, as of December 31, 2016. In the fiscal year ended December 31, 2016, approximately 199 million passengers boarded its mainline and regional flights.</v>
+    <v>133000</v>
+    <v>Nasdaq Stock Market</v>
+    <v>XNAS</v>
+    <v>XNAS</v>
+    <v>1 Skyview Dr, FORT WORTH, TX, 76155-1801 US</v>
+    <v>13.84</v>
+    <v>Passenger Transportation Services</v>
+    <v>Stock</v>
+    <v>44075.999883564065</v>
+    <v>37</v>
+    <v>12.66</v>
+    <v>6636730000</v>
+    <v>AMERICAN AIRLINES GROUP INC.</v>
+    <v>AMERICAN AIRLINES GROUP INC.</v>
+    <v>12.86</v>
+    <v>3.3195999999999999</v>
+    <v>13.05</v>
+    <v>13.1</v>
+    <v>508561700</v>
+    <v>AAL</v>
+    <v>AMERICAN AIRLINES GROUP INC. (XNAS:AAL)</v>
+    <v>72987504</v>
+    <v>68135228</v>
+    <v>1982</v>
+  </rv>
+  <rv s="4">
+    <v>38</v>
+  </rv>
+</rvData>
+</file>
+
+<file path=xl/richData/rdrichvaluestructure.xml><?xml version="1.0" encoding="utf-8"?>
+<rvStructures xmlns="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata" count="8">
+  <s t="_hyperlink">
+    <k n="Address" t="s"/>
+    <k n="Text" t="s"/>
+  </s>
+  <s t="_sourceattribution">
+    <k n="License" t="r"/>
+    <k n="Source" t="r"/>
+  </s>
+  <s t="_imageurl">
+    <k n="_Provider" t="spb"/>
+    <k n="Address" t="s"/>
+    <k n="Attribution" t="r"/>
+    <k n="More Images Address" t="s"/>
+    <k n="Text" t="s"/>
+    <k n="Blip Identifier" t="s"/>
+  </s>
+  <s t="_linkedentitycore">
+    <k n="_Display" t="spb"/>
+    <k n="_DisplayString" t="s"/>
+    <k n="_Flags" t="spb"/>
+    <k n="_Format" t="spb"/>
+    <k n="_Icon" t="s"/>
+    <k n="_SubLabel" t="spb"/>
+    <k n="%EntityCulture" t="s"/>
+    <k n="%EntityId" t="s"/>
+    <k n="%EntityServiceId"/>
+    <k n="%EntitySubDomainId"/>
+    <k n="%IsRefreshable" t="b"/>
+    <k n="%ProviderInfo" t="s"/>
+    <k n="52 week high"/>
+    <k n="52 week low"/>
+    <k n="Beta"/>
+    <k n="Change"/>
+    <k n="Change (%)"/>
+    <k n="Currency" t="s"/>
+    <k n="Description" t="s"/>
+    <k n="Employees"/>
+    <k n="Exchange" t="s"/>
+    <k n="Exchange abbreviation" t="s"/>
+    <k n="ExchangeID" t="s"/>
+    <k n="Headquarters" t="s"/>
+    <k n="High"/>
+    <k n="Image" t="r"/>
+    <k n="Industry" t="s"/>
+    <k n="Instrument type" t="s"/>
+    <k n="Last trade time"/>
+    <k n="LearnMoreOnLink" t="r"/>
+    <k n="Low"/>
+    <k n="Market cap"/>
+    <k n="Name" t="s"/>
+    <k n="Official name" t="s"/>
+    <k n="Open"/>
+    <k n="P/E"/>
+    <k n="Previous close"/>
+    <k n="Price"/>
+    <k n="Shares outstanding"/>
+    <k n="Ticker symbol" t="s"/>
+    <k n="UniqueName" t="s"/>
+    <k n="Volume"/>
+    <k n="Volume average"/>
+    <k n="Year incorporated"/>
+  </s>
+  <s t="_linkedentity">
+    <k n="%cvi" t="r"/>
+  </s>
+  <s t="_linkedentitycore">
+    <k n="_Display" t="spb"/>
+    <k n="_DisplayString" t="s"/>
+    <k n="_Flags" t="spb"/>
+    <k n="_Format" t="spb"/>
+    <k n="_Icon" t="s"/>
+    <k n="_SubLabel" t="spb"/>
+    <k n="%EntityCulture" t="s"/>
+    <k n="%EntityId" t="s"/>
+    <k n="%EntityServiceId"/>
+    <k n="%EntitySubDomainId"/>
+    <k n="%IsRefreshable" t="b"/>
+    <k n="%ProviderInfo" t="s"/>
+    <k n="52 week high"/>
+    <k n="52 week low"/>
+    <k n="Change"/>
+    <k n="Change (%)"/>
+    <k n="Currency" t="s"/>
+    <k n="Description" t="s"/>
+    <k n="Employees"/>
+    <k n="Exchange" t="s"/>
+    <k n="Exchange abbreviation" t="s"/>
+    <k n="ExchangeID" t="s"/>
+    <k n="Headquarters" t="s"/>
+    <k n="High"/>
+    <k n="Image" t="r"/>
+    <k n="Industry" t="s"/>
+    <k n="Instrument type" t="s"/>
+    <k n="Last trade time"/>
+    <k n="LearnMoreOnLink" t="r"/>
+    <k n="Low"/>
+    <k n="Market cap"/>
+    <k n="Name" t="s"/>
+    <k n="Official name" t="s"/>
+    <k n="Open"/>
+    <k n="P/E"/>
+    <k n="Previous close"/>
+    <k n="Price"/>
+    <k n="Shares outstanding"/>
+    <k n="Ticker symbol" t="s"/>
+    <k n="UniqueName" t="s"/>
+    <k n="Volume"/>
+    <k n="Volume average"/>
+    <k n="Year incorporated"/>
+  </s>
+  <s t="_linkedentitycore">
+    <k n="_Display" t="spb"/>
+    <k n="_DisplayString" t="s"/>
+    <k n="_Flags" t="spb"/>
+    <k n="_Format" t="spb"/>
+    <k n="_Icon" t="s"/>
+    <k n="_SubLabel" t="spb"/>
+    <k n="%EntityCulture" t="s"/>
+    <k n="%EntityId" t="s"/>
+    <k n="%EntityServiceId"/>
+    <k n="%EntitySubDomainId"/>
+    <k n="%IsRefreshable" t="b"/>
+    <k n="%ProviderInfo" t="s"/>
+    <k n="52 week high"/>
+    <k n="52 week low"/>
+    <k n="Beta"/>
+    <k n="Change"/>
+    <k n="Change (%)"/>
+    <k n="Currency" t="s"/>
+    <k n="Description" t="s"/>
+    <k n="Employees"/>
+    <k n="Exchange" t="s"/>
+    <k n="Exchange abbreviation" t="s"/>
+    <k n="ExchangeID" t="s"/>
+    <k n="Headquarters" t="s"/>
+    <k n="High"/>
+    <k n="Industry" t="s"/>
+    <k n="Instrument type" t="s"/>
+    <k n="Last trade time"/>
+    <k n="LearnMoreOnLink" t="r"/>
+    <k n="Low"/>
+    <k n="Market cap"/>
+    <k n="Name" t="s"/>
+    <k n="Official name" t="s"/>
+    <k n="Open"/>
+    <k n="P/E"/>
+    <k n="Previous close"/>
+    <k n="Price"/>
+    <k n="Shares outstanding"/>
+    <k n="Ticker symbol" t="s"/>
+    <k n="UniqueName" t="s"/>
+    <k n="Volume"/>
+    <k n="Volume average"/>
+    <k n="Year incorporated"/>
+  </s>
+  <s t="_linkedentitycore">
+    <k n="_Display" t="spb"/>
+    <k n="_DisplayString" t="s"/>
+    <k n="_Flags" t="spb"/>
+    <k n="_Format" t="spb"/>
+    <k n="_Icon" t="s"/>
+    <k n="_SubLabel" t="spb"/>
+    <k n="%EntityCulture" t="s"/>
+    <k n="%EntityId" t="s"/>
+    <k n="%EntityServiceId"/>
+    <k n="%EntitySubDomainId"/>
+    <k n="%IsRefreshable" t="b"/>
+    <k n="%ProviderInfo" t="s"/>
+    <k n="52 week high"/>
+    <k n="52 week low"/>
+    <k n="Beta"/>
+    <k n="Change"/>
+    <k n="Change (%)"/>
+    <k n="Currency" t="s"/>
+    <k n="Exchange" t="s"/>
+    <k n="Exchange abbreviation" t="s"/>
+    <k n="Expense ratio"/>
+    <k n="High"/>
+    <k n="Instrument type" t="s"/>
+    <k n="Last trade time"/>
+    <k n="LearnMoreOnLink" t="r"/>
+    <k n="Low"/>
+    <k n="Market cap"/>
+    <k n="Name" t="s"/>
+    <k n="Open"/>
+    <k n="Previous close"/>
+    <k n="Price"/>
+    <k n="Ticker symbol" t="s"/>
+    <k n="UniqueName" t="s"/>
+    <k n="Volume"/>
+    <k n="Volume average"/>
+  </s>
+</rvStructures>
+</file>
+
+<file path=xl/richData/rdsupportingpropertybag.xml><?xml version="1.0" encoding="utf-8"?>
+<supportingPropertyBags xmlns="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2">
+  <spbArrays count="4">
+    <a count="44">
+      <v t="s">%EntityServiceId</v>
+      <v t="s">_Format</v>
+      <v t="s">%EntitySubDomainId</v>
+      <v t="s">%IsRefreshable</v>
+      <v t="s">%EntityCulture</v>
+      <v t="s">%EntityId</v>
+      <v t="s">_Icon</v>
+      <v t="s">Name</v>
+      <v t="s">_SubLabel</v>
+      <v t="s">Price</v>
+      <v t="s">Exchange</v>
+      <v t="s">Official name</v>
+      <v t="s">Last trade time</v>
+      <v t="s">Ticker symbol</v>
+      <v t="s">Exchange abbreviation</v>
+      <v t="s">Change</v>
+      <v t="s">Change (%)</v>
+      <v t="s">Currency</v>
+      <v t="s">Previous close</v>
+      <v t="s">Open</v>
+      <v t="s">High</v>
+      <v t="s">Low</v>
+      <v t="s">52 week high</v>
+      <v t="s">52 week low</v>
+      <v t="s">Volume</v>
+      <v t="s">Volume average</v>
+      <v t="s">Market cap</v>
+      <v t="s">Beta</v>
+      <v t="s">P/E</v>
+      <v t="s">Shares outstanding</v>
+      <v t="s">Description</v>
+      <v t="s">Employees</v>
+      <v t="s">Headquarters</v>
+      <v t="s">Industry</v>
+      <v t="s">Instrument type</v>
+      <v t="s">Year incorporated</v>
+      <v t="s">_Flags</v>
+      <v t="s">UniqueName</v>
+      <v t="s">_DisplayString</v>
+      <v t="s">LearnMoreOnLink</v>
+      <v t="s">Image</v>
+      <v t="s">ExchangeID</v>
+      <v t="s">%ProviderInfo</v>
+      <v t="s">_Display</v>
+    </a>
+    <a count="43">
+      <v t="s">%EntityServiceId</v>
+      <v t="s">_Format</v>
+      <v t="s">%EntitySubDomainId</v>
+      <v t="s">%IsRefreshable</v>
+      <v t="s">%EntityCulture</v>
+      <v t="s">%EntityId</v>
+      <v t="s">_Icon</v>
+      <v t="s">Name</v>
+      <v t="s">_SubLabel</v>
+      <v t="s">Price</v>
+      <v t="s">Exchange</v>
+      <v t="s">Official name</v>
+      <v t="s">Last trade time</v>
+      <v t="s">Ticker symbol</v>
+      <v t="s">Exchange abbreviation</v>
+      <v t="s">Change</v>
+      <v t="s">Change (%)</v>
+      <v t="s">Currency</v>
+      <v t="s">Previous close</v>
+      <v t="s">Open</v>
+      <v t="s">High</v>
+      <v t="s">Low</v>
+      <v t="s">52 week high</v>
+      <v t="s">52 week low</v>
+      <v t="s">Volume</v>
+      <v t="s">Volume average</v>
+      <v t="s">Market cap</v>
+      <v t="s">P/E</v>
+      <v t="s">Shares outstanding</v>
+      <v t="s">Description</v>
+      <v t="s">Employees</v>
+      <v t="s">Headquarters</v>
+      <v t="s">Industry</v>
+      <v t="s">Instrument type</v>
+      <v t="s">Year incorporated</v>
+      <v t="s">_Flags</v>
+      <v t="s">UniqueName</v>
+      <v t="s">_DisplayString</v>
+      <v t="s">LearnMoreOnLink</v>
+      <v t="s">Image</v>
+      <v t="s">ExchangeID</v>
+      <v t="s">%ProviderInfo</v>
+      <v t="s">_Display</v>
+    </a>
+    <a count="43">
+      <v t="s">%EntityServiceId</v>
+      <v t="s">_Format</v>
+      <v t="s">%EntitySubDomainId</v>
+      <v t="s">%IsRefreshable</v>
+      <v t="s">%EntityCulture</v>
+      <v t="s">%EntityId</v>
+      <v t="s">_Icon</v>
+      <v t="s">Name</v>
+      <v t="s">_SubLabel</v>
+      <v t="s">Price</v>
+      <v t="s">Exchange</v>
+      <v t="s">Official name</v>
+      <v t="s">Last trade time</v>
+      <v t="s">Ticker symbol</v>
+      <v t="s">Exchange abbreviation</v>
+      <v t="s">Change</v>
+      <v t="s">Change (%)</v>
+      <v t="s">Currency</v>
+      <v t="s">Previous close</v>
+      <v t="s">Open</v>
+      <v t="s">High</v>
+      <v t="s">Low</v>
+      <v t="s">52 week high</v>
+      <v t="s">52 week low</v>
+      <v t="s">Volume</v>
+      <v t="s">Volume average</v>
+      <v t="s">Market cap</v>
+      <v t="s">Beta</v>
+      <v t="s">P/E</v>
+      <v t="s">Shares outstanding</v>
+      <v t="s">Description</v>
+      <v t="s">Employees</v>
+      <v t="s">Headquarters</v>
+      <v t="s">Industry</v>
+      <v t="s">Instrument type</v>
+      <v t="s">Year incorporated</v>
+      <v t="s">_Flags</v>
+      <v t="s">UniqueName</v>
+      <v t="s">_DisplayString</v>
+      <v t="s">LearnMoreOnLink</v>
+      <v t="s">ExchangeID</v>
+      <v t="s">%ProviderInfo</v>
+      <v t="s">_Display</v>
+    </a>
+    <a count="35">
+      <v t="s">%EntityServiceId</v>
+      <v t="s">_Format</v>
+      <v t="s">%EntitySubDomainId</v>
+      <v t="s">%IsRefreshable</v>
+      <v t="s">%EntityCulture</v>
+      <v t="s">%EntityId</v>
+      <v t="s">_Icon</v>
+      <v t="s">Name</v>
+      <v t="s">_SubLabel</v>
+      <v t="s">Price</v>
+      <v t="s">Exchange</v>
+      <v t="s">Last trade time</v>
+      <v t="s">Ticker symbol</v>
+      <v t="s">Exchange abbreviation</v>
+      <v t="s">Change</v>
+      <v t="s">Expense ratio</v>
+      <v t="s">Change (%)</v>
+      <v t="s">Currency</v>
+      <v t="s">Previous close</v>
+      <v t="s">Open</v>
+      <v t="s">High</v>
+      <v t="s">Low</v>
+      <v t="s">52 week high</v>
+      <v t="s">52 week low</v>
+      <v t="s">Volume</v>
+      <v t="s">Volume average</v>
+      <v t="s">Market cap</v>
+      <v t="s">Beta</v>
+      <v t="s">Instrument type</v>
+      <v t="s">_Flags</v>
+      <v t="s">UniqueName</v>
+      <v t="s">_DisplayString</v>
+      <v t="s">LearnMoreOnLink</v>
+      <v t="s">%ProviderInfo</v>
+      <v t="s">_Display</v>
+    </a>
+  </spbArrays>
+  <spbData count="16">
+    <spb s="0">
+      <v>0</v>
+    </spb>
+    <spb s="1">
+      <v>0</v>
+      <v>0</v>
+    </spb>
+    <spb s="2">
+      <v>0</v>
+      <v>0</v>
+      <v>0</v>
+    </spb>
+    <spb s="3">
+      <v>1</v>
+      <v>2</v>
+      <v>2</v>
+      <v>2</v>
+    </spb>
+    <spb s="4">
+      <v>1</v>
+      <v>2</v>
+      <v>2</v>
+      <v>1</v>
+      <v>3</v>
+      <v>1</v>
+      <v>4</v>
+      <v>1</v>
+      <v>1</v>
+      <v>5</v>
+      <v>5</v>
+      <v>6</v>
+      <v>7</v>
+      <v>1</v>
+      <v>1</v>
+      <v>1</v>
+      <v>5</v>
+      <v>8</v>
+      <v>9</v>
+      <v>10</v>
+      <v>11</v>
+      <v>10</v>
+      <v>5</v>
+    </spb>
+    <spb s="5">
+      <v>Real-Time Nasdaq Last Sale</v>
+      <v>from previous close</v>
+      <v>from previous close</v>
+      <v>Source: Nasdaq Last Sale</v>
+      <v>GMT</v>
+    </spb>
+    <spb s="6">
+      <v>Powered by Refinitiv</v>
+    </spb>
+    <spb s="0">
+      <v>1</v>
+    </spb>
+    <spb s="7">
+      <v>1</v>
+      <v>2</v>
+      <v>1</v>
+      <v>3</v>
+      <v>1</v>
+      <v>4</v>
+      <v>1</v>
+      <v>1</v>
+      <v>5</v>
+      <v>5</v>
+      <v>6</v>
+      <v>7</v>
+      <v>1</v>
+      <v>1</v>
+      <v>1</v>
+      <v>5</v>
+      <v>8</v>
+      <v>9</v>
+      <v>10</v>
+      <v>11</v>
+      <v>10</v>
+      <v>5</v>
+    </spb>
+    <spb s="0">
+      <v>2</v>
+    </spb>
+    <spb s="8">
+      <v>2</v>
+      <v>2</v>
+      <v>2</v>
+    </spb>
+    <spb s="9">
+      <v>1</v>
+      <v>2</v>
+      <v>2</v>
+      <v>1</v>
+      <v>3</v>
+      <v>1</v>
+      <v>1</v>
+      <v>1</v>
+      <v>5</v>
+      <v>5</v>
+      <v>6</v>
+      <v>7</v>
+      <v>1</v>
+      <v>1</v>
+      <v>1</v>
+      <v>5</v>
+      <v>8</v>
+      <v>9</v>
+      <v>10</v>
+      <v>11</v>
+      <v>10</v>
+      <v>5</v>
+    </spb>
+    <spb s="0">
+      <v>3</v>
+    </spb>
+    <spb s="10">
+      <v>2</v>
+      <v>2</v>
+    </spb>
+    <spb s="11">
+      <v>1</v>
+      <v>2</v>
+      <v>1</v>
+      <v>3</v>
+      <v>1</v>
+      <v>1</v>
+      <v>1</v>
+      <v>5</v>
+      <v>6</v>
+      <v>7</v>
+      <v>1</v>
+      <v>1</v>
+      <v>6</v>
+      <v>1</v>
+      <v>5</v>
+      <v>8</v>
+      <v>9</v>
+      <v>10</v>
+      <v>10</v>
+    </spb>
+    <spb s="12">
+      <v>Real-Time Nasdaq Last Sale</v>
+      <v>from previous close</v>
+      <v>Source: Nasdaq Last Sale</v>
+      <v>from previous close</v>
+      <v>GMT</v>
+    </spb>
+  </spbData>
+</supportingPropertyBags>
+</file>
+
+<file path=xl/richData/rdsupportingpropertybagstructure.xml><?xml version="1.0" encoding="utf-8"?>
+<spbStructures xmlns="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" count="13">
+  <s>
+    <k n="^Order" t="spba"/>
+  </s>
+  <s>
+    <k n="ShowInDotNotation" t="b"/>
+    <k n="ShowInAutoComplete" t="b"/>
+  </s>
+  <s>
+    <k n="ShowInCardView" t="b"/>
+    <k n="ShowInDotNotation" t="b"/>
+    <k n="ShowInAutoComplete" t="b"/>
+  </s>
+  <s>
+    <k n="Image" t="spb"/>
+    <k n="ExchangeID" t="spb"/>
+    <k n="UniqueName" t="spb"/>
+    <k n="%ProviderInfo" t="spb"/>
+  </s>
+  <s>
+    <k n="Low" t="i"/>
+    <k n="P/E" t="i"/>
+    <k n="Beta" t="i"/>
+    <k n="High" t="i"/>
+    <k n="Name" t="i"/>
+    <k n="Open" t="i"/>
+    <k n="Image" t="i"/>
+    <k n="Price" t="i"/>
+    <k n="Change" t="i"/>
+    <k n="Volume" t="i"/>
+    <k n="Employees" t="i"/>
+    <k n="Change (%)" t="i"/>
+    <k n="Market cap" t="i"/>
+    <k n="52 week low" t="i"/>
+    <k n="52 week high" t="i"/>
+    <k n="Previous close" t="i"/>
+    <k n="Volume average" t="i"/>
+    <k n="_DisplayString" t="i"/>
+    <k n="Last trade time" t="i"/>
+    <k n="%EntityServiceId" t="i"/>
+    <k n="Year incorporated" t="i"/>
+    <k n="%EntitySubDomainId" t="i"/>
+    <k n="Shares outstanding" t="i"/>
+  </s>
+  <s>
+    <k n="Price" t="s"/>
+    <k n="Change" t="s"/>
+    <k n="Change (%)" t="s"/>
+    <k n="ExchangeID" t="s"/>
+    <k n="Last trade time" t="s"/>
+  </s>
+  <s>
+    <k n="name" t="s"/>
+  </s>
+  <s>
+    <k n="Low" t="i"/>
+    <k n="P/E" t="i"/>
+    <k n="High" t="i"/>
+    <k n="Name" t="i"/>
+    <k n="Open" t="i"/>
+    <k n="Image" t="i"/>
+    <k n="Price" t="i"/>
+    <k n="Change" t="i"/>
+    <k n="Volume" t="i"/>
+    <k n="Employees" t="i"/>
+    <k n="Change (%)" t="i"/>
+    <k n="Market cap" t="i"/>
+    <k n="52 week low" t="i"/>
+    <k n="52 week high" t="i"/>
+    <k n="Previous close" t="i"/>
+    <k n="Volume average" t="i"/>
+    <k n="_DisplayString" t="i"/>
+    <k n="Last trade time" t="i"/>
+    <k n="%EntityServiceId" t="i"/>
+    <k n="Year incorporated" t="i"/>
+    <k n="%EntitySubDomainId" t="i"/>
+    <k n="Shares outstanding" t="i"/>
+  </s>
+  <s>
+    <k n="ExchangeID" t="spb"/>
+    <k n="UniqueName" t="spb"/>
+    <k n="%ProviderInfo" t="spb"/>
+  </s>
+  <s>
+    <k n="Low" t="i"/>
+    <k n="P/E" t="i"/>
+    <k n="Beta" t="i"/>
+    <k n="High" t="i"/>
+    <k n="Name" t="i"/>
+    <k n="Open" t="i"/>
+    <k n="Price" t="i"/>
+    <k n="Change" t="i"/>
+    <k n="Volume" t="i"/>
+    <k n="Employees" t="i"/>
+    <k n="Change (%)" t="i"/>
+    <k n="Market cap" t="i"/>
+    <k n="52 week low" t="i"/>
+    <k n="52 week high" t="i"/>
+    <k n="Previous close" t="i"/>
+    <k n="Volume average" t="i"/>
+    <k n="_DisplayString" t="i"/>
+    <k n="Last trade time" t="i"/>
+    <k n="%EntityServiceId" t="i"/>
+    <k n="Year incorporated" t="i"/>
+    <k n="%EntitySubDomainId" t="i"/>
+    <k n="Shares outstanding" t="i"/>
+  </s>
+  <s>
+    <k n="UniqueName" t="spb"/>
+    <k n="%ProviderInfo" t="spb"/>
+  </s>
+  <s>
+    <k n="Low" t="i"/>
+    <k n="Beta" t="i"/>
+    <k n="High" t="i"/>
+    <k n="Name" t="i"/>
+    <k n="Open" t="i"/>
+    <k n="Price" t="i"/>
+    <k n="Change" t="i"/>
+    <k n="Volume" t="i"/>
+    <k n="Change (%)" t="i"/>
+    <k n="Market cap" t="i"/>
+    <k n="52 week low" t="i"/>
+    <k n="52 week high" t="i"/>
+    <k n="Expense ratio" t="i"/>
+    <k n="Previous close" t="i"/>
+    <k n="Volume average" t="i"/>
+    <k n="_DisplayString" t="i"/>
+    <k n="Last trade time" t="i"/>
+    <k n="%EntityServiceId" t="i"/>
+    <k n="%EntitySubDomainId" t="i"/>
+  </s>
+  <s>
+    <k n="Price" t="s"/>
+    <k n="Change" t="s"/>
+    <k n="Exchange" t="s"/>
+    <k n="Change (%)" t="s"/>
+    <k n="Last trade time" t="s"/>
+  </s>
+</spbStructures>
+</file>
+
+<file path=xl/richData/richStyles.xml><?xml version="1.0" encoding="utf-8"?>
+<richStyleSheet xmlns="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x="http://purl.oclc.org/ooxml/spreadsheetml/main" mc:Ignorable="x">
+  <dxfs count="8">
+    <x:dxf>
+      <x:numFmt numFmtId="165" formatCode="_([$$-409]* #,##0.00_);_([$$-409]* \(#,##0.00\);_([$$-409]* &quot;-&quot;??_);_(@_)"/>
+    </x:dxf>
+    <x:dxf>
+      <x:numFmt numFmtId="4" formatCode="#,##0.00"/>
+    </x:dxf>
+    <x:dxf>
+      <x:numFmt numFmtId="3" formatCode="#,##0"/>
+    </x:dxf>
+    <x:dxf>
+      <x:numFmt numFmtId="14" formatCode="0.00%"/>
+    </x:dxf>
+    <x:dxf>
+      <x:numFmt numFmtId="164" formatCode="_([$$-409]* #,##0_);_([$$-409]* \(#,##0\);_([$$-409]* &quot;-&quot;_);_(@_)"/>
+    </x:dxf>
+    <x:dxf>
+      <x:numFmt numFmtId="27" formatCode="dd/mm/yyyy\ h:mm"/>
+    </x:dxf>
+    <x:dxf>
+      <x:numFmt numFmtId="2" formatCode="0.00"/>
+    </x:dxf>
+    <x:dxf>
+      <x:numFmt numFmtId="1" formatCode="0"/>
+    </x:dxf>
+  </dxfs>
+  <richProperties>
+    <rPr n="IsTitleField" t="b"/>
+    <rPr n="IsHeroField" t="b"/>
+    <rPr n="ShouldShowInCell" t="b"/>
+  </richProperties>
+  <richStyles>
+    <rSty dxfid="0"/>
+    <rSty dxfid="1"/>
+    <rSty>
+      <rpv i="0">1</rpv>
+    </rSty>
+    <rSty>
+      <rpv i="1">1</rpv>
+    </rSty>
+    <rSty dxfid="2"/>
+    <rSty dxfid="3"/>
+    <rSty dxfid="4"/>
+    <rSty>
+      <rpv i="2">1</rpv>
+    </rSty>
+    <rSty dxfid="5"/>
+    <rSty dxfid="6"/>
+    <rSty dxfid="7"/>
+  </richStyles>
+</richStyleSheet>
+</file>
+
 <file path=xl/slicerCaches/slicerCache1.xml><?xml version="1.0" encoding="utf-8"?>
 <slicerCacheDefinition xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x="http://purl.oclc.org/ooxml/spreadsheetml/main" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" mc:Ignorable="x xr10" name="Slicer_Bank___Date" xr10:uid="{1D2059A4-C656-1449-821F-AF864ADE808D}" sourceName="Bank / Date">
   <pivotTables>
@@ -23066,130 +24739,130 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://purl.oclc.org/ooxml/spreadsheetml/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{8E86A131-6509-2344-882C-43EA8EBBB659}" name="BankStockMarkets" displayName="BankStockMarkets" ref="A5:DQ11" totalsRowShown="0" headerRowDxfId="2" dataDxfId="3" headerRowBorderDxfId="124" tableBorderDxfId="125">
+<table xmlns="http://purl.oclc.org/ooxml/spreadsheetml/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{8E86A131-6509-2344-882C-43EA8EBBB659}" name="BankStockMarkets" displayName="BankStockMarkets" ref="A5:DQ11" totalsRowShown="0" headerRowDxfId="129" dataDxfId="127" headerRowBorderDxfId="128" tableBorderDxfId="126">
   <autoFilter ref="A5:DQ11" xr:uid="{A1F0F9D6-00E0-E641-8B3C-732525989794}"/>
   <tableColumns count="121">
-    <tableColumn id="1" xr3:uid="{7799BA2E-6AF1-C645-BA28-E177CDCCE9B0}" name="Bank" dataDxfId="1"/>
-    <tableColumn id="2" xr3:uid="{FA700A89-8C8D-5441-8AE4-B50C18A6B16C}" name="Sep-2010" dataDxfId="123"/>
-    <tableColumn id="3" xr3:uid="{89393DCF-604C-164A-A4D1-B594B9463D9C}" name="Oct-2010" dataDxfId="122"/>
-    <tableColumn id="4" xr3:uid="{51E83467-634A-7D4A-910E-89320EBA51CA}" name="Nov-2010" dataDxfId="121"/>
-    <tableColumn id="5" xr3:uid="{7BEDF1CD-399C-D64F-9397-C3D3B3DD57DB}" name="Dec-2010" dataDxfId="120"/>
-    <tableColumn id="6" xr3:uid="{62E77BC8-765C-1A4A-AA40-49BBCADD0061}" name="Jan-2011" dataDxfId="119"/>
-    <tableColumn id="7" xr3:uid="{1B6C6F86-B801-F64D-89F9-75641701CB79}" name="Feb-2011" dataDxfId="118"/>
-    <tableColumn id="8" xr3:uid="{A80E9DCE-3120-BC45-9FA6-639ED6CC0F10}" name="Mar-2011" dataDxfId="117"/>
-    <tableColumn id="9" xr3:uid="{ED64C96F-1701-924E-BF0B-E4D2FBF77150}" name="Apr-2011" dataDxfId="116"/>
-    <tableColumn id="10" xr3:uid="{5EACC245-BCA0-BE41-B2B1-B0B3D4B4257A}" name="May-2011" dataDxfId="115"/>
-    <tableColumn id="11" xr3:uid="{D694779F-DF89-3146-81CC-2E65CF4E613F}" name="Jun-2011" dataDxfId="114"/>
-    <tableColumn id="12" xr3:uid="{BE6946EB-A253-094C-9B20-E86E3029F40A}" name="Jul-2011" dataDxfId="113"/>
-    <tableColumn id="13" xr3:uid="{36605ED5-FA19-8347-B06D-E91D40F04AFC}" name="Aug-2011" dataDxfId="112"/>
-    <tableColumn id="14" xr3:uid="{A0B4D006-A072-0244-B27F-45DE89282F7D}" name="Sep-2011" dataDxfId="111"/>
-    <tableColumn id="15" xr3:uid="{86D2BE00-0833-F143-9E81-CEE60105B9BB}" name="Oct-2011" dataDxfId="110"/>
-    <tableColumn id="16" xr3:uid="{1D7B2ABD-C382-3148-A4EF-62788DE7DB32}" name="Nov-2011" dataDxfId="109"/>
-    <tableColumn id="17" xr3:uid="{5F058DE8-0796-AB4D-B3A4-96065F1E8F52}" name="Dec-2011" dataDxfId="108"/>
-    <tableColumn id="18" xr3:uid="{6E145D45-605B-284A-9EB3-2E520F489FEB}" name="Jan-2012" dataDxfId="107"/>
-    <tableColumn id="19" xr3:uid="{55A773DA-399E-0548-8CE0-0950F21DAAF9}" name="Feb-2012" dataDxfId="106"/>
-    <tableColumn id="20" xr3:uid="{8424D824-98FC-024B-9977-1A38A75FE7A6}" name="Mar-2012" dataDxfId="105"/>
-    <tableColumn id="21" xr3:uid="{705F4C02-6533-2F4C-833D-014848F428CA}" name="Apr-2012" dataDxfId="104"/>
-    <tableColumn id="22" xr3:uid="{770BF2F9-C3C9-6C4A-990A-5050BE2DE2D3}" name="May-2012" dataDxfId="103"/>
-    <tableColumn id="23" xr3:uid="{B509F258-B56D-2C41-A88B-C8FAFB3163F7}" name="Jun-2012" dataDxfId="102"/>
-    <tableColumn id="24" xr3:uid="{73784548-B48F-904B-82C8-B994739BBFC1}" name="Jul-2012" dataDxfId="101"/>
-    <tableColumn id="25" xr3:uid="{0F4016F3-3D28-2B4A-BE57-20751E307DC4}" name="Aug-2012" dataDxfId="100"/>
-    <tableColumn id="26" xr3:uid="{0DDBD771-45C0-7540-B420-B3F8FA842834}" name="Sep-2012" dataDxfId="99"/>
-    <tableColumn id="27" xr3:uid="{7C1A765A-BDFF-D64B-9541-41C906CEDE60}" name="Oct-2012" dataDxfId="98"/>
-    <tableColumn id="28" xr3:uid="{41A4FA2F-8E96-564A-AD45-B6AC0B52B7A1}" name="Nov-2012" dataDxfId="97"/>
-    <tableColumn id="29" xr3:uid="{06CF3CC7-8275-334C-9E8C-AFD45834CA2F}" name="Dec-2012" dataDxfId="96"/>
-    <tableColumn id="30" xr3:uid="{DE356CD2-7E68-6646-AD7B-A8DD2136C75C}" name="Jan-2013" dataDxfId="95"/>
-    <tableColumn id="31" xr3:uid="{6CEBF08C-FCEF-1C41-A06D-04A77EA30C42}" name="Feb-2013" dataDxfId="94"/>
-    <tableColumn id="32" xr3:uid="{7BC154BD-BC74-F04D-8F92-B9CBE8F6D27F}" name="Mar-2013" dataDxfId="93"/>
-    <tableColumn id="33" xr3:uid="{07D0C760-A426-4E48-98E0-3569F976AAC9}" name="Apr-2013" dataDxfId="92"/>
-    <tableColumn id="34" xr3:uid="{26D9376B-2726-FB4C-9642-6D11CDC611B1}" name="May-2013" dataDxfId="91"/>
-    <tableColumn id="35" xr3:uid="{6B632FEF-461F-3249-B37A-3F4346D19515}" name="Jun-2013" dataDxfId="90"/>
-    <tableColumn id="36" xr3:uid="{8158BE3F-5C36-AA4F-8181-3A3C07C63F30}" name="Jul-2013" dataDxfId="89"/>
-    <tableColumn id="37" xr3:uid="{CDDBDAFD-C60D-DF40-A39D-521377BA7410}" name="Aug-2013" dataDxfId="88"/>
-    <tableColumn id="38" xr3:uid="{5ACEE334-C54E-B34B-AB03-05F5FE44BD76}" name="Sep-2013" dataDxfId="87"/>
-    <tableColumn id="39" xr3:uid="{A2BA908A-36DE-7949-93F5-89F114854DF1}" name="Oct-2013" dataDxfId="86"/>
-    <tableColumn id="40" xr3:uid="{4377B4CD-7206-3E49-BC13-21D03F34773C}" name="Nov-2013" dataDxfId="85"/>
-    <tableColumn id="41" xr3:uid="{A44012A2-B09F-2249-8B47-C24B54574477}" name="Dec-2013" dataDxfId="84"/>
-    <tableColumn id="42" xr3:uid="{D9C4CD7C-594F-9C48-B661-75AF5D152E0C}" name="Jan-2014" dataDxfId="83"/>
-    <tableColumn id="43" xr3:uid="{39A5DD48-575B-1949-AA49-6ABDAEBA0A61}" name="Feb-2014" dataDxfId="82"/>
-    <tableColumn id="44" xr3:uid="{554213F6-4E7D-2D46-8156-C62DF743400A}" name="Mar-2014" dataDxfId="81"/>
-    <tableColumn id="45" xr3:uid="{8EB63E23-2578-1843-86D4-6935607F41BE}" name="Apr-2014" dataDxfId="80"/>
-    <tableColumn id="46" xr3:uid="{9D6D6E57-0D99-164F-9960-F000ADA60CB3}" name="May-2014" dataDxfId="79"/>
-    <tableColumn id="47" xr3:uid="{7D22A6C5-4E9E-BF40-8250-EECB93116548}" name="Jun-2014" dataDxfId="78"/>
-    <tableColumn id="48" xr3:uid="{76AE3439-1F45-B745-9BE1-2A6BA1E10946}" name="Jul-2014" dataDxfId="77"/>
-    <tableColumn id="49" xr3:uid="{2A51FE66-65F0-CB4A-B35F-3C7AE41D1153}" name="Aug-2014" dataDxfId="76"/>
-    <tableColumn id="50" xr3:uid="{EDBDCE1B-48A2-684C-8265-09EC5BCCF90A}" name="Sep-2014" dataDxfId="75"/>
-    <tableColumn id="51" xr3:uid="{F4C20EDA-7945-E748-8837-FF4F80825300}" name="Oct-2014" dataDxfId="74"/>
-    <tableColumn id="52" xr3:uid="{3661C0F9-8167-F146-81BA-71C568B90B87}" name="Nov-2014" dataDxfId="73"/>
-    <tableColumn id="53" xr3:uid="{6C02D863-D18D-844C-A2C0-87FCE3B29948}" name="Dec-2014" dataDxfId="72"/>
-    <tableColumn id="54" xr3:uid="{07876491-C594-5847-B76A-21C00BE69668}" name="Jan-2015" dataDxfId="71"/>
-    <tableColumn id="55" xr3:uid="{4AC95F68-3709-EB49-AEA0-FE57B4C1DBBC}" name="Feb-2015" dataDxfId="70"/>
-    <tableColumn id="56" xr3:uid="{E3762BD6-EA60-D349-9719-8502F88C0DF9}" name="Mar-2015" dataDxfId="69"/>
-    <tableColumn id="57" xr3:uid="{9BF60794-8F81-204A-8550-53E63283D933}" name="Apr-2015" dataDxfId="68"/>
-    <tableColumn id="58" xr3:uid="{1531A917-3055-A64A-A3CF-B5F2B7548B8F}" name="May-2015" dataDxfId="67"/>
-    <tableColumn id="59" xr3:uid="{86C3500C-BC8F-2D49-BC08-1BB4AEDA4DB4}" name="Jun-2015" dataDxfId="66"/>
-    <tableColumn id="60" xr3:uid="{E4679918-B63A-1143-A771-0C5D83592936}" name="Jul-2015" dataDxfId="65"/>
-    <tableColumn id="61" xr3:uid="{437ACC49-83EC-414E-8F03-835C37122929}" name="Aug-2015" dataDxfId="64"/>
-    <tableColumn id="62" xr3:uid="{9F33EE25-A104-C64B-B4C0-93639B904426}" name="Sep-2015" dataDxfId="63"/>
-    <tableColumn id="63" xr3:uid="{EFB56711-7B28-D642-B717-675DBE2EEE7A}" name="Oct-2015" dataDxfId="62"/>
-    <tableColumn id="64" xr3:uid="{B881D272-E635-3843-BC7E-B7CA6B1D8691}" name="Nov-2015" dataDxfId="61"/>
-    <tableColumn id="65" xr3:uid="{EBF97B24-1FD9-2543-AFBB-D321530CAB37}" name="Dec-2015" dataDxfId="60"/>
-    <tableColumn id="66" xr3:uid="{488962C0-199E-EF4A-8D31-1AD0BB5A258F}" name="Jan-2016" dataDxfId="59"/>
-    <tableColumn id="67" xr3:uid="{8B59B6A9-8C5B-0E4B-8E2E-8692E300DF8C}" name="Feb-2016" dataDxfId="58"/>
-    <tableColumn id="68" xr3:uid="{ADFF600D-0E89-BF4E-A52D-0FABD6E22373}" name="Mar-2016" dataDxfId="57"/>
-    <tableColumn id="69" xr3:uid="{5B098315-67A1-594B-8EEE-D583637098A6}" name="Apr-2016" dataDxfId="56"/>
-    <tableColumn id="70" xr3:uid="{DE7162C2-69D9-5E42-B5BD-4A98B70B59FF}" name="May-2016" dataDxfId="55"/>
-    <tableColumn id="71" xr3:uid="{15252D7D-0E37-0448-9593-E0F3191ECBC3}" name="Jun-2016" dataDxfId="54"/>
-    <tableColumn id="72" xr3:uid="{DCD88136-B868-204B-B52F-60979B82FC16}" name="Jul-2016" dataDxfId="53"/>
-    <tableColumn id="73" xr3:uid="{F45BF128-0C87-AC48-88DD-59437876FDAF}" name="Aug-2016" dataDxfId="52"/>
-    <tableColumn id="74" xr3:uid="{F39C01FB-9842-F14F-8E0E-0AB9DCA0F665}" name="Sep-2016" dataDxfId="51"/>
-    <tableColumn id="75" xr3:uid="{0A93641C-A3FB-2F42-918F-D92F17AAF4BF}" name="Oct-2016" dataDxfId="50"/>
-    <tableColumn id="76" xr3:uid="{DF43D5E8-4CDD-3846-8697-229195695EDA}" name="Nov-2016" dataDxfId="49"/>
-    <tableColumn id="77" xr3:uid="{9291A29D-D3F3-F541-BBCD-BCD2993D3477}" name="Dec-2016" dataDxfId="48"/>
-    <tableColumn id="78" xr3:uid="{39E9D82A-330B-BD4B-B39D-07C4C6332B77}" name="Jan-2017" dataDxfId="47"/>
-    <tableColumn id="79" xr3:uid="{1749FC30-8D46-F447-A6D9-0B19E0EFFFEB}" name="Feb-2017" dataDxfId="46"/>
-    <tableColumn id="80" xr3:uid="{A284C74F-59E9-8F4E-9924-BC36EE0655C3}" name="Mar-2017" dataDxfId="45"/>
-    <tableColumn id="81" xr3:uid="{B2707E35-47EB-6144-8DC1-B2CB10EF2362}" name="Apr-2017" dataDxfId="44"/>
-    <tableColumn id="82" xr3:uid="{3A93DBFC-B617-154E-BAC3-0AC166A4BEE5}" name="May-2017" dataDxfId="43"/>
-    <tableColumn id="83" xr3:uid="{DEBCCAC1-947D-7744-A9D0-145429F3D1AE}" name="Jun-2017" dataDxfId="42"/>
-    <tableColumn id="84" xr3:uid="{C66EA9C7-C8C3-5F4A-855C-F461FF4008F3}" name="Jul-2017" dataDxfId="41"/>
-    <tableColumn id="85" xr3:uid="{705AEB65-68A4-F949-8FDB-9A677C89AE45}" name="Aug-2017" dataDxfId="40"/>
-    <tableColumn id="86" xr3:uid="{0709BFFC-79BB-AA4F-A929-D1E027F0A158}" name="Sep-2017" dataDxfId="39"/>
-    <tableColumn id="87" xr3:uid="{6A6AA6CB-487A-C14E-A489-183F03A429B2}" name="Oct-2017" dataDxfId="38"/>
-    <tableColumn id="88" xr3:uid="{9053A7A6-FC4F-B143-9434-1117ED6E07B7}" name="Nov-2017" dataDxfId="37"/>
-    <tableColumn id="89" xr3:uid="{2E448E84-7402-8B46-9EBE-AB9799356346}" name="Dec-2017" dataDxfId="36"/>
-    <tableColumn id="90" xr3:uid="{9F5E1E9E-B0F9-964E-9090-32DFD4DDA28A}" name="Jan-2018" dataDxfId="35"/>
-    <tableColumn id="91" xr3:uid="{D7255DD6-E867-CB40-AF41-EF06154DA540}" name="Feb-2018" dataDxfId="34"/>
-    <tableColumn id="92" xr3:uid="{1D76B3DE-2064-0B46-9AE4-CCAC56522FE3}" name="Mar-2018" dataDxfId="33"/>
-    <tableColumn id="93" xr3:uid="{D973E57D-DF8C-DB42-B54A-925D0AB8C58B}" name="Apr-2018" dataDxfId="32"/>
-    <tableColumn id="94" xr3:uid="{125AC922-E49C-CC49-B97C-EE0656092094}" name="May-2018" dataDxfId="31"/>
-    <tableColumn id="95" xr3:uid="{D3E92080-985D-1946-B443-98D088DBD8E6}" name="Jun-2018" dataDxfId="30"/>
-    <tableColumn id="96" xr3:uid="{71DE163D-2B35-8347-B0E2-AB482EFFDB71}" name="Jul-2018" dataDxfId="29"/>
-    <tableColumn id="97" xr3:uid="{DE8FA4CE-772D-E348-84E9-ED1C4F89AEC6}" name="Aug-2018" dataDxfId="28"/>
-    <tableColumn id="98" xr3:uid="{6071B77D-E780-604A-836B-289AB06BD0AF}" name="Sep-2018" dataDxfId="27"/>
-    <tableColumn id="99" xr3:uid="{0BB9B698-F27F-2E4A-A652-2531D8EE2A4D}" name="Oct-2018" dataDxfId="26"/>
-    <tableColumn id="100" xr3:uid="{E2C8943C-FA4B-CD44-B0E7-4987CFD1E167}" name="Nov-2018" dataDxfId="25"/>
-    <tableColumn id="101" xr3:uid="{8AE68347-E7DF-6D46-8EFD-A8BE2D79165A}" name="Dec-2018" dataDxfId="24"/>
-    <tableColumn id="102" xr3:uid="{D0FDB964-FCB9-FE47-9929-9074D084A075}" name="Jan-2019" dataDxfId="23"/>
-    <tableColumn id="103" xr3:uid="{39F71209-9FA3-7F40-9D97-18E520860917}" name="Feb-2019" dataDxfId="22"/>
-    <tableColumn id="104" xr3:uid="{58BB6445-A978-5340-A23D-B03DA562DB6F}" name="Mar-2019" dataDxfId="21"/>
-    <tableColumn id="105" xr3:uid="{C4061523-80A5-5D41-A43E-8647070DA082}" name="Apr-2019" dataDxfId="20"/>
-    <tableColumn id="106" xr3:uid="{98E89E80-1B2F-B047-9F73-7E480A85DF5F}" name="May-2019" dataDxfId="19"/>
-    <tableColumn id="107" xr3:uid="{9B6EA82F-5D9D-2143-8C6F-E8DBF4D3A438}" name="Jun-2019" dataDxfId="18"/>
-    <tableColumn id="108" xr3:uid="{A58E6A86-0EE7-CC42-9B8F-B00929B3B35E}" name="Jul-2019" dataDxfId="17"/>
-    <tableColumn id="109" xr3:uid="{131F9F09-C5C7-994B-A46C-A63BA0C02DA1}" name="Aug-2019" dataDxfId="16"/>
-    <tableColumn id="110" xr3:uid="{EADBF235-FDB7-234F-AC87-619D344B53CA}" name="Sep-2019" dataDxfId="15"/>
-    <tableColumn id="111" xr3:uid="{0DEDB843-D480-8647-BB97-C09D98B0282B}" name="Oct-2019" dataDxfId="14"/>
-    <tableColumn id="112" xr3:uid="{45052954-A37F-2C47-8823-C566889B5C22}" name="Nov-2019" dataDxfId="13"/>
-    <tableColumn id="113" xr3:uid="{8B464FAC-104E-3F40-9C7C-804ADA66DCFC}" name="Dec-2019" dataDxfId="12"/>
-    <tableColumn id="114" xr3:uid="{7AC95BC7-BB47-8C42-A406-F84831203419}" name="Jan-2020" dataDxfId="11"/>
-    <tableColumn id="115" xr3:uid="{B0F6F3F3-46F2-4E41-8463-A670FFBE0228}" name="Feb-2020" dataDxfId="10"/>
-    <tableColumn id="116" xr3:uid="{2E93305D-7B23-0240-8181-8798AB2F85E8}" name="Mar-2020" dataDxfId="9"/>
-    <tableColumn id="117" xr3:uid="{2B32681B-26B8-6F45-907F-D64D356F94C9}" name="Apr-2020" dataDxfId="8"/>
-    <tableColumn id="118" xr3:uid="{0CBB5327-A612-DD4D-A6A9-7AC5E809B47E}" name="May-2020" dataDxfId="7"/>
-    <tableColumn id="119" xr3:uid="{6BED9E1B-B9C9-DA4F-A6F4-E9AE58A66778}" name="Jun-2020" dataDxfId="6"/>
-    <tableColumn id="120" xr3:uid="{1AE85998-7AF6-3D40-B294-D8D5AF924776}" name="Jul-2020" dataDxfId="5"/>
-    <tableColumn id="121" xr3:uid="{9108B771-8CA9-BE4B-B117-B7CDDBA1D6BB}" name="Aug-2020" dataDxfId="4"/>
+    <tableColumn id="1" xr3:uid="{7799BA2E-6AF1-C645-BA28-E177CDCCE9B0}" name="Bank" dataDxfId="125"/>
+    <tableColumn id="2" xr3:uid="{FA700A89-8C8D-5441-8AE4-B50C18A6B16C}" name="Sep-2010" dataDxfId="124"/>
+    <tableColumn id="3" xr3:uid="{89393DCF-604C-164A-A4D1-B594B9463D9C}" name="Oct-2010" dataDxfId="123"/>
+    <tableColumn id="4" xr3:uid="{51E83467-634A-7D4A-910E-89320EBA51CA}" name="Nov-2010" dataDxfId="122"/>
+    <tableColumn id="5" xr3:uid="{7BEDF1CD-399C-D64F-9397-C3D3B3DD57DB}" name="Dec-2010" dataDxfId="121"/>
+    <tableColumn id="6" xr3:uid="{62E77BC8-765C-1A4A-AA40-49BBCADD0061}" name="Jan-2011" dataDxfId="120"/>
+    <tableColumn id="7" xr3:uid="{1B6C6F86-B801-F64D-89F9-75641701CB79}" name="Feb-2011" dataDxfId="119"/>
+    <tableColumn id="8" xr3:uid="{A80E9DCE-3120-BC45-9FA6-639ED6CC0F10}" name="Mar-2011" dataDxfId="118"/>
+    <tableColumn id="9" xr3:uid="{ED64C96F-1701-924E-BF0B-E4D2FBF77150}" name="Apr-2011" dataDxfId="117"/>
+    <tableColumn id="10" xr3:uid="{5EACC245-BCA0-BE41-B2B1-B0B3D4B4257A}" name="May-2011" dataDxfId="116"/>
+    <tableColumn id="11" xr3:uid="{D694779F-DF89-3146-81CC-2E65CF4E613F}" name="Jun-2011" dataDxfId="115"/>
+    <tableColumn id="12" xr3:uid="{BE6946EB-A253-094C-9B20-E86E3029F40A}" name="Jul-2011" dataDxfId="114"/>
+    <tableColumn id="13" xr3:uid="{36605ED5-FA19-8347-B06D-E91D40F04AFC}" name="Aug-2011" dataDxfId="113"/>
+    <tableColumn id="14" xr3:uid="{A0B4D006-A072-0244-B27F-45DE89282F7D}" name="Sep-2011" dataDxfId="112"/>
+    <tableColumn id="15" xr3:uid="{86D2BE00-0833-F143-9E81-CEE60105B9BB}" name="Oct-2011" dataDxfId="111"/>
+    <tableColumn id="16" xr3:uid="{1D7B2ABD-C382-3148-A4EF-62788DE7DB32}" name="Nov-2011" dataDxfId="110"/>
+    <tableColumn id="17" xr3:uid="{5F058DE8-0796-AB4D-B3A4-96065F1E8F52}" name="Dec-2011" dataDxfId="109"/>
+    <tableColumn id="18" xr3:uid="{6E145D45-605B-284A-9EB3-2E520F489FEB}" name="Jan-2012" dataDxfId="108"/>
+    <tableColumn id="19" xr3:uid="{55A773DA-399E-0548-8CE0-0950F21DAAF9}" name="Feb-2012" dataDxfId="107"/>
+    <tableColumn id="20" xr3:uid="{8424D824-98FC-024B-9977-1A38A75FE7A6}" name="Mar-2012" dataDxfId="106"/>
+    <tableColumn id="21" xr3:uid="{705F4C02-6533-2F4C-833D-014848F428CA}" name="Apr-2012" dataDxfId="105"/>
+    <tableColumn id="22" xr3:uid="{770BF2F9-C3C9-6C4A-990A-5050BE2DE2D3}" name="May-2012" dataDxfId="104"/>
+    <tableColumn id="23" xr3:uid="{B509F258-B56D-2C41-A88B-C8FAFB3163F7}" name="Jun-2012" dataDxfId="103"/>
+    <tableColumn id="24" xr3:uid="{73784548-B48F-904B-82C8-B994739BBFC1}" name="Jul-2012" dataDxfId="102"/>
+    <tableColumn id="25" xr3:uid="{0F4016F3-3D28-2B4A-BE57-20751E307DC4}" name="Aug-2012" dataDxfId="101"/>
+    <tableColumn id="26" xr3:uid="{0DDBD771-45C0-7540-B420-B3F8FA842834}" name="Sep-2012" dataDxfId="100"/>
+    <tableColumn id="27" xr3:uid="{7C1A765A-BDFF-D64B-9541-41C906CEDE60}" name="Oct-2012" dataDxfId="99"/>
+    <tableColumn id="28" xr3:uid="{41A4FA2F-8E96-564A-AD45-B6AC0B52B7A1}" name="Nov-2012" dataDxfId="98"/>
+    <tableColumn id="29" xr3:uid="{06CF3CC7-8275-334C-9E8C-AFD45834CA2F}" name="Dec-2012" dataDxfId="97"/>
+    <tableColumn id="30" xr3:uid="{DE356CD2-7E68-6646-AD7B-A8DD2136C75C}" name="Jan-2013" dataDxfId="96"/>
+    <tableColumn id="31" xr3:uid="{6CEBF08C-FCEF-1C41-A06D-04A77EA30C42}" name="Feb-2013" dataDxfId="95"/>
+    <tableColumn id="32" xr3:uid="{7BC154BD-BC74-F04D-8F92-B9CBE8F6D27F}" name="Mar-2013" dataDxfId="94"/>
+    <tableColumn id="33" xr3:uid="{07D0C760-A426-4E48-98E0-3569F976AAC9}" name="Apr-2013" dataDxfId="93"/>
+    <tableColumn id="34" xr3:uid="{26D9376B-2726-FB4C-9642-6D11CDC611B1}" name="May-2013" dataDxfId="92"/>
+    <tableColumn id="35" xr3:uid="{6B632FEF-461F-3249-B37A-3F4346D19515}" name="Jun-2013" dataDxfId="91"/>
+    <tableColumn id="36" xr3:uid="{8158BE3F-5C36-AA4F-8181-3A3C07C63F30}" name="Jul-2013" dataDxfId="90"/>
+    <tableColumn id="37" xr3:uid="{CDDBDAFD-C60D-DF40-A39D-521377BA7410}" name="Aug-2013" dataDxfId="89"/>
+    <tableColumn id="38" xr3:uid="{5ACEE334-C54E-B34B-AB03-05F5FE44BD76}" name="Sep-2013" dataDxfId="88"/>
+    <tableColumn id="39" xr3:uid="{A2BA908A-36DE-7949-93F5-89F114854DF1}" name="Oct-2013" dataDxfId="87"/>
+    <tableColumn id="40" xr3:uid="{4377B4CD-7206-3E49-BC13-21D03F34773C}" name="Nov-2013" dataDxfId="86"/>
+    <tableColumn id="41" xr3:uid="{A44012A2-B09F-2249-8B47-C24B54574477}" name="Dec-2013" dataDxfId="85"/>
+    <tableColumn id="42" xr3:uid="{D9C4CD7C-594F-9C48-B661-75AF5D152E0C}" name="Jan-2014" dataDxfId="84"/>
+    <tableColumn id="43" xr3:uid="{39A5DD48-575B-1949-AA49-6ABDAEBA0A61}" name="Feb-2014" dataDxfId="83"/>
+    <tableColumn id="44" xr3:uid="{554213F6-4E7D-2D46-8156-C62DF743400A}" name="Mar-2014" dataDxfId="82"/>
+    <tableColumn id="45" xr3:uid="{8EB63E23-2578-1843-86D4-6935607F41BE}" name="Apr-2014" dataDxfId="81"/>
+    <tableColumn id="46" xr3:uid="{9D6D6E57-0D99-164F-9960-F000ADA60CB3}" name="May-2014" dataDxfId="80"/>
+    <tableColumn id="47" xr3:uid="{7D22A6C5-4E9E-BF40-8250-EECB93116548}" name="Jun-2014" dataDxfId="79"/>
+    <tableColumn id="48" xr3:uid="{76AE3439-1F45-B745-9BE1-2A6BA1E10946}" name="Jul-2014" dataDxfId="78"/>
+    <tableColumn id="49" xr3:uid="{2A51FE66-65F0-CB4A-B35F-3C7AE41D1153}" name="Aug-2014" dataDxfId="77"/>
+    <tableColumn id="50" xr3:uid="{EDBDCE1B-48A2-684C-8265-09EC5BCCF90A}" name="Sep-2014" dataDxfId="76"/>
+    <tableColumn id="51" xr3:uid="{F4C20EDA-7945-E748-8837-FF4F80825300}" name="Oct-2014" dataDxfId="75"/>
+    <tableColumn id="52" xr3:uid="{3661C0F9-8167-F146-81BA-71C568B90B87}" name="Nov-2014" dataDxfId="74"/>
+    <tableColumn id="53" xr3:uid="{6C02D863-D18D-844C-A2C0-87FCE3B29948}" name="Dec-2014" dataDxfId="73"/>
+    <tableColumn id="54" xr3:uid="{07876491-C594-5847-B76A-21C00BE69668}" name="Jan-2015" dataDxfId="72"/>
+    <tableColumn id="55" xr3:uid="{4AC95F68-3709-EB49-AEA0-FE57B4C1DBBC}" name="Feb-2015" dataDxfId="71"/>
+    <tableColumn id="56" xr3:uid="{E3762BD6-EA60-D349-9719-8502F88C0DF9}" name="Mar-2015" dataDxfId="70"/>
+    <tableColumn id="57" xr3:uid="{9BF60794-8F81-204A-8550-53E63283D933}" name="Apr-2015" dataDxfId="69"/>
+    <tableColumn id="58" xr3:uid="{1531A917-3055-A64A-A3CF-B5F2B7548B8F}" name="May-2015" dataDxfId="68"/>
+    <tableColumn id="59" xr3:uid="{86C3500C-BC8F-2D49-BC08-1BB4AEDA4DB4}" name="Jun-2015" dataDxfId="67"/>
+    <tableColumn id="60" xr3:uid="{E4679918-B63A-1143-A771-0C5D83592936}" name="Jul-2015" dataDxfId="66"/>
+    <tableColumn id="61" xr3:uid="{437ACC49-83EC-414E-8F03-835C37122929}" name="Aug-2015" dataDxfId="65"/>
+    <tableColumn id="62" xr3:uid="{9F33EE25-A104-C64B-B4C0-93639B904426}" name="Sep-2015" dataDxfId="64"/>
+    <tableColumn id="63" xr3:uid="{EFB56711-7B28-D642-B717-675DBE2EEE7A}" name="Oct-2015" dataDxfId="63"/>
+    <tableColumn id="64" xr3:uid="{B881D272-E635-3843-BC7E-B7CA6B1D8691}" name="Nov-2015" dataDxfId="62"/>
+    <tableColumn id="65" xr3:uid="{EBF97B24-1FD9-2543-AFBB-D321530CAB37}" name="Dec-2015" dataDxfId="61"/>
+    <tableColumn id="66" xr3:uid="{488962C0-199E-EF4A-8D31-1AD0BB5A258F}" name="Jan-2016" dataDxfId="60"/>
+    <tableColumn id="67" xr3:uid="{8B59B6A9-8C5B-0E4B-8E2E-8692E300DF8C}" name="Feb-2016" dataDxfId="59"/>
+    <tableColumn id="68" xr3:uid="{ADFF600D-0E89-BF4E-A52D-0FABD6E22373}" name="Mar-2016" dataDxfId="58"/>
+    <tableColumn id="69" xr3:uid="{5B098315-67A1-594B-8EEE-D583637098A6}" name="Apr-2016" dataDxfId="57"/>
+    <tableColumn id="70" xr3:uid="{DE7162C2-69D9-5E42-B5BD-4A98B70B59FF}" name="May-2016" dataDxfId="56"/>
+    <tableColumn id="71" xr3:uid="{15252D7D-0E37-0448-9593-E0F3191ECBC3}" name="Jun-2016" dataDxfId="55"/>
+    <tableColumn id="72" xr3:uid="{DCD88136-B868-204B-B52F-60979B82FC16}" name="Jul-2016" dataDxfId="54"/>
+    <tableColumn id="73" xr3:uid="{F45BF128-0C87-AC48-88DD-59437876FDAF}" name="Aug-2016" dataDxfId="53"/>
+    <tableColumn id="74" xr3:uid="{F39C01FB-9842-F14F-8E0E-0AB9DCA0F665}" name="Sep-2016" dataDxfId="52"/>
+    <tableColumn id="75" xr3:uid="{0A93641C-A3FB-2F42-918F-D92F17AAF4BF}" name="Oct-2016" dataDxfId="51"/>
+    <tableColumn id="76" xr3:uid="{DF43D5E8-4CDD-3846-8697-229195695EDA}" name="Nov-2016" dataDxfId="50"/>
+    <tableColumn id="77" xr3:uid="{9291A29D-D3F3-F541-BBCD-BCD2993D3477}" name="Dec-2016" dataDxfId="49"/>
+    <tableColumn id="78" xr3:uid="{39E9D82A-330B-BD4B-B39D-07C4C6332B77}" name="Jan-2017" dataDxfId="48"/>
+    <tableColumn id="79" xr3:uid="{1749FC30-8D46-F447-A6D9-0B19E0EFFFEB}" name="Feb-2017" dataDxfId="47"/>
+    <tableColumn id="80" xr3:uid="{A284C74F-59E9-8F4E-9924-BC36EE0655C3}" name="Mar-2017" dataDxfId="46"/>
+    <tableColumn id="81" xr3:uid="{B2707E35-47EB-6144-8DC1-B2CB10EF2362}" name="Apr-2017" dataDxfId="45"/>
+    <tableColumn id="82" xr3:uid="{3A93DBFC-B617-154E-BAC3-0AC166A4BEE5}" name="May-2017" dataDxfId="44"/>
+    <tableColumn id="83" xr3:uid="{DEBCCAC1-947D-7744-A9D0-145429F3D1AE}" name="Jun-2017" dataDxfId="43"/>
+    <tableColumn id="84" xr3:uid="{C66EA9C7-C8C3-5F4A-855C-F461FF4008F3}" name="Jul-2017" dataDxfId="42"/>
+    <tableColumn id="85" xr3:uid="{705AEB65-68A4-F949-8FDB-9A677C89AE45}" name="Aug-2017" dataDxfId="41"/>
+    <tableColumn id="86" xr3:uid="{0709BFFC-79BB-AA4F-A929-D1E027F0A158}" name="Sep-2017" dataDxfId="40"/>
+    <tableColumn id="87" xr3:uid="{6A6AA6CB-487A-C14E-A489-183F03A429B2}" name="Oct-2017" dataDxfId="39"/>
+    <tableColumn id="88" xr3:uid="{9053A7A6-FC4F-B143-9434-1117ED6E07B7}" name="Nov-2017" dataDxfId="38"/>
+    <tableColumn id="89" xr3:uid="{2E448E84-7402-8B46-9EBE-AB9799356346}" name="Dec-2017" dataDxfId="37"/>
+    <tableColumn id="90" xr3:uid="{9F5E1E9E-B0F9-964E-9090-32DFD4DDA28A}" name="Jan-2018" dataDxfId="36"/>
+    <tableColumn id="91" xr3:uid="{D7255DD6-E867-CB40-AF41-EF06154DA540}" name="Feb-2018" dataDxfId="35"/>
+    <tableColumn id="92" xr3:uid="{1D76B3DE-2064-0B46-9AE4-CCAC56522FE3}" name="Mar-2018" dataDxfId="34"/>
+    <tableColumn id="93" xr3:uid="{D973E57D-DF8C-DB42-B54A-925D0AB8C58B}" name="Apr-2018" dataDxfId="33"/>
+    <tableColumn id="94" xr3:uid="{125AC922-E49C-CC49-B97C-EE0656092094}" name="May-2018" dataDxfId="32"/>
+    <tableColumn id="95" xr3:uid="{D3E92080-985D-1946-B443-98D088DBD8E6}" name="Jun-2018" dataDxfId="31"/>
+    <tableColumn id="96" xr3:uid="{71DE163D-2B35-8347-B0E2-AB482EFFDB71}" name="Jul-2018" dataDxfId="30"/>
+    <tableColumn id="97" xr3:uid="{DE8FA4CE-772D-E348-84E9-ED1C4F89AEC6}" name="Aug-2018" dataDxfId="29"/>
+    <tableColumn id="98" xr3:uid="{6071B77D-E780-604A-836B-289AB06BD0AF}" name="Sep-2018" dataDxfId="28"/>
+    <tableColumn id="99" xr3:uid="{0BB9B698-F27F-2E4A-A652-2531D8EE2A4D}" name="Oct-2018" dataDxfId="27"/>
+    <tableColumn id="100" xr3:uid="{E2C8943C-FA4B-CD44-B0E7-4987CFD1E167}" name="Nov-2018" dataDxfId="26"/>
+    <tableColumn id="101" xr3:uid="{8AE68347-E7DF-6D46-8EFD-A8BE2D79165A}" name="Dec-2018" dataDxfId="25"/>
+    <tableColumn id="102" xr3:uid="{D0FDB964-FCB9-FE47-9929-9074D084A075}" name="Jan-2019" dataDxfId="24"/>
+    <tableColumn id="103" xr3:uid="{39F71209-9FA3-7F40-9D97-18E520860917}" name="Feb-2019" dataDxfId="23"/>
+    <tableColumn id="104" xr3:uid="{58BB6445-A978-5340-A23D-B03DA562DB6F}" name="Mar-2019" dataDxfId="22"/>
+    <tableColumn id="105" xr3:uid="{C4061523-80A5-5D41-A43E-8647070DA082}" name="Apr-2019" dataDxfId="21"/>
+    <tableColumn id="106" xr3:uid="{98E89E80-1B2F-B047-9F73-7E480A85DF5F}" name="May-2019" dataDxfId="20"/>
+    <tableColumn id="107" xr3:uid="{9B6EA82F-5D9D-2143-8C6F-E8DBF4D3A438}" name="Jun-2019" dataDxfId="19"/>
+    <tableColumn id="108" xr3:uid="{A58E6A86-0EE7-CC42-9B8F-B00929B3B35E}" name="Jul-2019" dataDxfId="18"/>
+    <tableColumn id="109" xr3:uid="{131F9F09-C5C7-994B-A46C-A63BA0C02DA1}" name="Aug-2019" dataDxfId="17"/>
+    <tableColumn id="110" xr3:uid="{EADBF235-FDB7-234F-AC87-619D344B53CA}" name="Sep-2019" dataDxfId="16"/>
+    <tableColumn id="111" xr3:uid="{0DEDB843-D480-8647-BB97-C09D98B0282B}" name="Oct-2019" dataDxfId="15"/>
+    <tableColumn id="112" xr3:uid="{45052954-A37F-2C47-8823-C566889B5C22}" name="Nov-2019" dataDxfId="14"/>
+    <tableColumn id="113" xr3:uid="{8B464FAC-104E-3F40-9C7C-804ADA66DCFC}" name="Dec-2019" dataDxfId="13"/>
+    <tableColumn id="114" xr3:uid="{7AC95BC7-BB47-8C42-A406-F84831203419}" name="Jan-2020" dataDxfId="12"/>
+    <tableColumn id="115" xr3:uid="{B0F6F3F3-46F2-4E41-8463-A670FFBE0228}" name="Feb-2020" dataDxfId="11"/>
+    <tableColumn id="116" xr3:uid="{2E93305D-7B23-0240-8181-8798AB2F85E8}" name="Mar-2020" dataDxfId="10"/>
+    <tableColumn id="117" xr3:uid="{2B32681B-26B8-6F45-907F-D64D356F94C9}" name="Apr-2020" dataDxfId="9"/>
+    <tableColumn id="118" xr3:uid="{0CBB5327-A612-DD4D-A6A9-7AC5E809B47E}" name="May-2020" dataDxfId="8"/>
+    <tableColumn id="119" xr3:uid="{6BED9E1B-B9C9-DA4F-A6F4-E9AE58A66778}" name="Jun-2020" dataDxfId="7"/>
+    <tableColumn id="120" xr3:uid="{1AE85998-7AF6-3D40-B294-D8D5AF924776}" name="Jul-2020" dataDxfId="6"/>
+    <tableColumn id="121" xr3:uid="{9108B771-8CA9-BE4B-B117-B7CDDBA1D6BB}" name="Aug-2020" dataDxfId="5"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight1" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -29787,7 +31460,7 @@
       <c r="J12" s="26"/>
     </row>
     <row r="13" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A13" s="27"/>
+      <c r="A13" s="23"/>
       <c r="B13" s="19">
         <v>2011</v>
       </c>
@@ -29820,31 +31493,31 @@
       <c r="A14" s="19" t="s">
         <v>134</v>
       </c>
-      <c r="B14" s="28">
+      <c r="B14" s="24">
         <v>6.536905</v>
       </c>
-      <c r="C14" s="28">
+      <c r="C14" s="24">
         <v>9.4699891666666662</v>
       </c>
-      <c r="D14" s="28">
+      <c r="D14" s="24">
         <v>11.250784166666667</v>
       </c>
-      <c r="E14" s="28">
+      <c r="E14" s="24">
         <v>15.681424916666669</v>
       </c>
-      <c r="F14" s="28">
+      <c r="F14" s="24">
         <v>12.364504166666668</v>
       </c>
-      <c r="G14" s="28">
+      <c r="G14" s="24">
         <v>6.3108758333333332</v>
       </c>
-      <c r="H14" s="28">
+      <c r="H14" s="24">
         <v>8.3714033333333351</v>
       </c>
-      <c r="I14" s="28">
+      <c r="I14" s="24">
         <v>14.183333333333332</v>
       </c>
-      <c r="J14" s="28">
+      <c r="J14" s="24">
         <v>14.948333499999999</v>
       </c>
     </row>
@@ -29852,31 +31525,31 @@
       <c r="A15" s="19" t="s">
         <v>135</v>
       </c>
-      <c r="B15" s="28">
+      <c r="B15" s="24">
         <v>55.961333166666662</v>
       </c>
-      <c r="C15" s="28">
+      <c r="C15" s="24">
         <v>55.756517166666669</v>
       </c>
-      <c r="D15" s="28">
+      <c r="D15" s="24">
         <v>54.890141833333324</v>
       </c>
-      <c r="E15" s="28">
+      <c r="E15" s="24">
         <v>54.698375083333339</v>
       </c>
-      <c r="F15" s="28">
+      <c r="F15" s="24">
         <v>46.297458416666665</v>
       </c>
-      <c r="G15" s="28">
+      <c r="G15" s="24">
         <v>47.314041000000003</v>
       </c>
-      <c r="H15" s="28">
+      <c r="H15" s="24">
         <v>45.815416249999998</v>
       </c>
-      <c r="I15" s="28">
+      <c r="I15" s="24">
         <v>60.019583749999988</v>
       </c>
-      <c r="J15" s="28">
+      <c r="J15" s="24">
         <v>66.202500749999999</v>
       </c>
     </row>
@@ -29884,31 +31557,31 @@
       <c r="A16" s="19" t="s">
         <v>136</v>
       </c>
-      <c r="B16" s="28">
+      <c r="B16" s="24">
         <v>8.7837499999999995</v>
       </c>
-      <c r="C16" s="28">
+      <c r="C16" s="24">
         <v>12.328749999999999</v>
       </c>
-      <c r="D16" s="28">
+      <c r="D16" s="24">
         <v>17.781108416666665</v>
       </c>
-      <c r="E16" s="28">
+      <c r="E16" s="24">
         <v>29.318883750000001</v>
       </c>
-      <c r="F16" s="28">
+      <c r="F16" s="24">
         <v>27.043741749999995</v>
       </c>
-      <c r="G16" s="28">
+      <c r="G16" s="24">
         <v>16.881975083333334</v>
       </c>
-      <c r="H16" s="28">
+      <c r="H16" s="24">
         <v>16.124500000000001</v>
       </c>
-      <c r="I16" s="28">
+      <c r="I16" s="24">
         <v>20.461666583333333</v>
       </c>
-      <c r="J16" s="28">
+      <c r="J16" s="24">
         <v>25.564999916666668</v>
       </c>
     </row>
@@ -29916,31 +31589,31 @@
       <c r="A17" s="6" t="s">
         <v>137</v>
       </c>
-      <c r="B17" s="28">
+      <c r="B17" s="24">
         <v>20.604166666666668</v>
       </c>
-      <c r="C17" s="28">
+      <c r="C17" s="24">
         <v>21.822216666666662</v>
       </c>
-      <c r="D17" s="28">
+      <c r="D17" s="24">
         <v>25.055541583333337</v>
       </c>
-      <c r="E17" s="28">
+      <c r="E17" s="24">
         <v>35.158333083333332</v>
       </c>
-      <c r="F17" s="28">
+      <c r="F17" s="24">
         <v>29.716857916666665</v>
       </c>
-      <c r="G17" s="28">
+      <c r="G17" s="24">
         <v>21.023333583333336</v>
       </c>
-      <c r="H17" s="28">
+      <c r="H17" s="24">
         <v>24.475000166666664</v>
       </c>
-      <c r="I17" s="28">
+      <c r="I17" s="24">
         <v>31.750000583333332</v>
       </c>
-      <c r="J17" s="28">
+      <c r="J17" s="24">
         <v>36.220833083333332</v>
       </c>
     </row>
@@ -29948,31 +31621,31 @@
       <c r="A18" s="20" t="s">
         <v>138</v>
       </c>
-      <c r="B18" s="28">
+      <c r="B18" s="24">
         <v>19.821391500000001</v>
       </c>
-      <c r="C18" s="28">
+      <c r="C18" s="24">
         <v>22.089941416666665</v>
       </c>
-      <c r="D18" s="28">
+      <c r="D18" s="24">
         <v>20.890016916666667</v>
       </c>
-      <c r="E18" s="28">
+      <c r="E18" s="24">
         <v>25.205408416666668</v>
       </c>
-      <c r="F18" s="28">
+      <c r="F18" s="24">
         <v>25.455283083333331</v>
       </c>
-      <c r="G18" s="28">
+      <c r="G18" s="24">
         <v>14.628891916666666</v>
       </c>
-      <c r="H18" s="28">
+      <c r="H18" s="24">
         <v>16.519450000000003</v>
       </c>
-      <c r="I18" s="28">
+      <c r="I18" s="24">
         <v>23.07778325</v>
       </c>
-      <c r="J18" s="28">
+      <c r="J18" s="24">
         <v>25.139166416666669</v>
       </c>
     </row>
@@ -29980,31 +31653,31 @@
       <c r="A19" s="21" t="s">
         <v>8</v>
       </c>
-      <c r="B19" s="28">
+      <c r="B19" s="24">
         <v>5.5096666666666669</v>
       </c>
-      <c r="C19" s="28">
+      <c r="C19" s="24">
         <v>6.2446666666666673</v>
       </c>
-      <c r="D19" s="28">
+      <c r="D19" s="24">
         <v>21.727333333333334</v>
       </c>
-      <c r="E19" s="28">
+      <c r="E19" s="24">
         <v>45.57833316666666</v>
       </c>
-      <c r="F19" s="28">
+      <c r="F19" s="24">
         <v>46.360500000000002</v>
       </c>
-      <c r="G19" s="28">
+      <c r="G19" s="24">
         <v>42.347000416666667</v>
       </c>
-      <c r="H19" s="28">
+      <c r="H19" s="24">
         <v>62.818500416666666</v>
       </c>
-      <c r="I19" s="28">
+      <c r="I19" s="24">
         <v>62.837499166666653</v>
       </c>
-      <c r="J19" s="28">
+      <c r="J19" s="24">
         <v>55.422500250000006</v>
       </c>
     </row>
@@ -30028,9 +31701,9 @@
 <worksheet xmlns="http://purl.oclc.org/ooxml/spreadsheetml/main" xmlns:r="http://purl.oclc.org/ooxml/officeDocument/relationships" xmlns:v="urn:schemas-microsoft-com:vml" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6575D27F-4CFD-2446-AF94-3D93491F9F73}">
   <dimension ref="A2:DQ11"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane xSplit="1" topLeftCell="B1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="O27" sqref="O27"/>
+      <selection pane="topRight" activeCell="A6" sqref="A6:A10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -30154,12 +31827,12 @@
       </c>
     </row>
     <row r="4" spans="1:121" x14ac:dyDescent="0.2">
-      <c r="A4" s="23" t="s">
+      <c r="A4" s="27" t="s">
         <v>139</v>
       </c>
-      <c r="B4" s="24"/>
-      <c r="C4" s="24"/>
-      <c r="D4" s="24"/>
+      <c r="B4" s="28"/>
+      <c r="C4" s="28"/>
+      <c r="D4" s="28"/>
     </row>
     <row r="5" spans="1:121" s="5" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A5" s="10" t="s">
@@ -32721,7 +34394,7 @@
     <mergeCell ref="A4:D4"/>
   </mergeCells>
   <conditionalFormatting sqref="B6:B10">
-    <cfRule type="cellIs" dxfId="0" priority="3" operator="lessThan">
+    <cfRule type="cellIs" dxfId="4" priority="3" operator="lessThan">
       <formula>$B$11</formula>
     </cfRule>
   </conditionalFormatting>
@@ -32731,4 +34404,557 @@
     <tablePart r:id="rId2"/>
   </tableParts>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://purl.oclc.org/ooxml/spreadsheetml/main" xmlns:r="http://purl.oclc.org/ooxml/officeDocument/relationships" xmlns:v="urn:schemas-microsoft-com:vml" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AA20E7D9-C6AB-8F4D-8DF6-8976B14BADB8}">
+  <sheetPr>
+    <tabColor theme="9" tint="0.39997558519241921"/>
+  </sheetPr>
+  <dimension ref="A2:M23"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="G21" sqref="G21"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="2" max="2" width="74.33203125" customWidth="1"/>
+    <col min="3" max="3" width="22" customWidth="1"/>
+    <col min="4" max="4" width="15" customWidth="1"/>
+    <col min="5" max="5" width="11.6640625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="15.6640625" customWidth="1"/>
+    <col min="7" max="7" width="13.83203125" customWidth="1"/>
+    <col min="9" max="9" width="14" customWidth="1"/>
+    <col min="10" max="10" width="15.83203125" customWidth="1"/>
+    <col min="11" max="11" width="15.1640625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="1:13" s="29" customFormat="1" ht="60" x14ac:dyDescent="0.2">
+      <c r="A2" s="30" t="s">
+        <v>154</v>
+      </c>
+      <c r="B2" s="30" t="s">
+        <v>153</v>
+      </c>
+      <c r="C2" s="30" t="s">
+        <v>155</v>
+      </c>
+      <c r="D2" s="30" t="s">
+        <v>156</v>
+      </c>
+      <c r="E2" s="30" t="s">
+        <v>157</v>
+      </c>
+      <c r="F2" s="30" t="s">
+        <v>158</v>
+      </c>
+      <c r="G2" s="30" t="s">
+        <v>159</v>
+      </c>
+      <c r="H2" s="30" t="s">
+        <v>160</v>
+      </c>
+      <c r="I2" s="30" t="s">
+        <v>161</v>
+      </c>
+      <c r="J2" s="30" t="s">
+        <v>162</v>
+      </c>
+      <c r="K2" s="30" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="3" spans="1:13" ht="24" x14ac:dyDescent="0.3">
+      <c r="A3" s="35">
+        <v>1</v>
+      </c>
+      <c r="B3" s="32" t="s">
+        <v>165</v>
+      </c>
+      <c r="C3" s="35" t="s">
+        <v>164</v>
+      </c>
+      <c r="D3" s="36" t="d">
+        <v>2009-01-02</v>
+      </c>
+      <c r="E3" s="35">
+        <v>1500</v>
+      </c>
+      <c r="F3" s="37">
+        <v>3.24</v>
+      </c>
+      <c r="G3" s="38">
+        <f>E3*F3</f>
+        <v>4860</v>
+      </c>
+      <c r="H3" s="38">
+        <f>D18</f>
+        <v>133.77420000000001</v>
+      </c>
+      <c r="I3" s="38">
+        <f>E3*H3</f>
+        <v>200661.30000000002</v>
+      </c>
+      <c r="J3" s="38">
+        <f>I3-G3</f>
+        <v>195801.30000000002</v>
+      </c>
+      <c r="K3" s="39">
+        <f>J3/G3</f>
+        <v>40.288333333333334</v>
+      </c>
+    </row>
+    <row r="4" spans="1:13" ht="24" x14ac:dyDescent="0.3">
+      <c r="A4" s="35">
+        <v>2</v>
+      </c>
+      <c r="B4" s="32" t="s">
+        <v>152</v>
+      </c>
+      <c r="C4" s="35" t="s">
+        <v>166</v>
+      </c>
+      <c r="D4" s="36" t="d">
+        <v>2009-01-02</v>
+      </c>
+      <c r="E4" s="35">
+        <v>16000</v>
+      </c>
+      <c r="F4" s="37">
+        <v>35.979999999999997</v>
+      </c>
+      <c r="G4" s="38">
+        <f t="shared" ref="G4:G6" si="0">E4*F4</f>
+        <v>575680</v>
+      </c>
+      <c r="H4" s="38">
+        <f>D19</f>
+        <v>29.278199999999998</v>
+      </c>
+      <c r="I4" s="38">
+        <f t="shared" ref="I4:I7" si="1">E4*H4</f>
+        <v>468451.19999999995</v>
+      </c>
+      <c r="J4" s="38">
+        <f t="shared" ref="J4:J7" si="2">I4-G4</f>
+        <v>-107228.80000000005</v>
+      </c>
+      <c r="K4" s="35"/>
+    </row>
+    <row r="5" spans="1:13" ht="24" x14ac:dyDescent="0.3">
+      <c r="A5" s="35">
+        <v>3</v>
+      </c>
+      <c r="B5" s="32" t="s">
+        <v>168</v>
+      </c>
+      <c r="C5" s="35" t="s">
+        <v>169</v>
+      </c>
+      <c r="D5" s="36" t="d">
+        <v>2009-01-02</v>
+      </c>
+      <c r="E5" s="35">
+        <v>2000</v>
+      </c>
+      <c r="F5" s="40">
+        <v>16.41</v>
+      </c>
+      <c r="G5" s="38">
+        <f t="shared" si="0"/>
+        <v>32820</v>
+      </c>
+      <c r="H5" s="38">
+        <f>D21</f>
+        <v>6.19</v>
+      </c>
+      <c r="I5" s="38">
+        <f t="shared" si="1"/>
+        <v>12380</v>
+      </c>
+      <c r="J5" s="38">
+        <f t="shared" si="2"/>
+        <v>-20440</v>
+      </c>
+      <c r="K5" s="35"/>
+    </row>
+    <row r="6" spans="1:13" ht="24" x14ac:dyDescent="0.3">
+      <c r="A6" s="35">
+        <v>4</v>
+      </c>
+      <c r="B6" s="32" t="s">
+        <v>170</v>
+      </c>
+      <c r="C6" s="35" t="s">
+        <v>171</v>
+      </c>
+      <c r="D6" s="36" t="d">
+        <v>2009-01-02</v>
+      </c>
+      <c r="E6" s="35">
+        <v>15000</v>
+      </c>
+      <c r="F6" s="40">
+        <v>20.329999999999998</v>
+      </c>
+      <c r="G6" s="38">
+        <f t="shared" si="0"/>
+        <v>304950</v>
+      </c>
+      <c r="H6" s="38">
+        <f>D22</f>
+        <v>227.27</v>
+      </c>
+      <c r="I6" s="38">
+        <f t="shared" si="1"/>
+        <v>3409050</v>
+      </c>
+      <c r="J6" s="38">
+        <f t="shared" si="2"/>
+        <v>3104100</v>
+      </c>
+      <c r="K6" s="35"/>
+    </row>
+    <row r="7" spans="1:13" ht="24" x14ac:dyDescent="0.3">
+      <c r="A7" s="35"/>
+      <c r="B7" s="32" t="s">
+        <v>173</v>
+      </c>
+      <c r="C7" s="35" t="s">
+        <v>174</v>
+      </c>
+      <c r="D7" s="36" t="d">
+        <v>2009-01-02</v>
+      </c>
+      <c r="E7" s="35">
+        <v>10000</v>
+      </c>
+      <c r="F7" s="40">
+        <v>8.39</v>
+      </c>
+      <c r="G7" s="38">
+        <f>E7*F7</f>
+        <v>83900</v>
+      </c>
+      <c r="H7" s="38">
+        <f>D23</f>
+        <v>13.1</v>
+      </c>
+      <c r="I7" s="38">
+        <f t="shared" si="1"/>
+        <v>131000</v>
+      </c>
+      <c r="J7" s="38">
+        <f t="shared" si="2"/>
+        <v>47100</v>
+      </c>
+      <c r="K7" s="35"/>
+    </row>
+    <row r="8" spans="1:13" ht="24" x14ac:dyDescent="0.3">
+      <c r="A8" s="35"/>
+      <c r="B8" s="41" t="s">
+        <v>172</v>
+      </c>
+      <c r="C8" s="35"/>
+      <c r="D8" s="36"/>
+      <c r="E8" s="35"/>
+      <c r="F8" s="40"/>
+      <c r="G8" s="38">
+        <f>SUM(G3:G7)</f>
+        <v>1002210</v>
+      </c>
+      <c r="H8" s="38"/>
+      <c r="I8" s="38">
+        <f>SUM(I3:I7)</f>
+        <v>4221542.5</v>
+      </c>
+      <c r="J8" s="38">
+        <f>SUM(J3:J7)</f>
+        <v>3219332.5</v>
+      </c>
+      <c r="K8" s="35"/>
+    </row>
+    <row r="9" spans="1:13" s="47" customFormat="1" ht="24" x14ac:dyDescent="0.3">
+      <c r="A9" s="42"/>
+      <c r="B9" s="43"/>
+      <c r="C9" s="42"/>
+      <c r="D9" s="44"/>
+      <c r="E9" s="42"/>
+      <c r="F9" s="45"/>
+      <c r="G9" s="46"/>
+      <c r="H9" s="46"/>
+      <c r="I9" s="46"/>
+      <c r="J9" s="42"/>
+      <c r="K9" s="42"/>
+    </row>
+    <row r="10" spans="1:13" ht="24" x14ac:dyDescent="0.3">
+      <c r="A10" s="35">
+        <v>5</v>
+      </c>
+      <c r="B10" s="32" t="s">
+        <v>167</v>
+      </c>
+      <c r="C10" s="35" t="s">
+        <v>8</v>
+      </c>
+      <c r="D10" s="36" t="d">
+        <v>2009-01-02</v>
+      </c>
+      <c r="E10" s="35">
+        <v>22000</v>
+      </c>
+      <c r="F10" s="40">
+        <v>46.03</v>
+      </c>
+      <c r="G10" s="38">
+        <f>E10*F10</f>
+        <v>1012660</v>
+      </c>
+      <c r="H10" s="38">
+        <f>D20</f>
+        <v>178.77</v>
+      </c>
+      <c r="I10" s="38">
+        <f>E10*H10</f>
+        <v>3932940</v>
+      </c>
+      <c r="J10" s="38">
+        <f>I10-G10</f>
+        <v>2920280</v>
+      </c>
+      <c r="K10" s="35"/>
+    </row>
+    <row r="11" spans="1:13" ht="24" x14ac:dyDescent="0.3">
+      <c r="A11" s="35"/>
+      <c r="B11" s="41"/>
+      <c r="C11" s="35"/>
+      <c r="D11" s="35"/>
+      <c r="E11" s="35"/>
+      <c r="F11" s="35"/>
+      <c r="G11" s="38"/>
+      <c r="H11" s="35"/>
+      <c r="I11" s="35"/>
+      <c r="J11" s="35"/>
+      <c r="K11" s="35"/>
+    </row>
+    <row r="14" spans="1:13" ht="60" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A14" s="48" t="s">
+        <v>175</v>
+      </c>
+      <c r="B14" s="49"/>
+      <c r="C14" s="49"/>
+      <c r="D14" s="50"/>
+      <c r="F14" s="54" t="s">
+        <v>177</v>
+      </c>
+      <c r="G14" s="54"/>
+      <c r="H14" s="54"/>
+      <c r="I14" s="54"/>
+      <c r="J14" s="54"/>
+      <c r="K14" s="54"/>
+      <c r="L14" s="54"/>
+      <c r="M14" s="54"/>
+    </row>
+    <row r="15" spans="1:13" ht="37" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A15" s="30" t="s">
+        <v>154</v>
+      </c>
+      <c r="B15" s="30" t="s">
+        <v>153</v>
+      </c>
+      <c r="C15" s="30" t="s">
+        <v>155</v>
+      </c>
+      <c r="D15" s="30" t="s">
+        <v>176</v>
+      </c>
+      <c r="F15" s="57" t="s">
+        <v>180</v>
+      </c>
+      <c r="G15" s="57"/>
+      <c r="H15" s="57"/>
+      <c r="I15" s="57"/>
+      <c r="J15" s="57"/>
+      <c r="K15" s="57"/>
+      <c r="L15" s="57"/>
+      <c r="M15" s="57"/>
+    </row>
+    <row r="16" spans="1:13" ht="36" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A16" s="31">
+        <v>1</v>
+      </c>
+      <c r="B16" s="32" t="e" vm="1">
+        <v>#VALUE!</v>
+      </c>
+      <c r="C16" s="51" t="str" cm="1">
+        <f t="array" ref="C16">_FV(B16,"Industry")</f>
+        <v>Automobiles &amp; Auto Parts</v>
+      </c>
+      <c r="D16" s="33" cm="1">
+        <f t="array" ref="D16">_FV(B16,"Price")</f>
+        <v>477.43</v>
+      </c>
+      <c r="F16" s="52" t="s">
+        <v>178</v>
+      </c>
+      <c r="G16" s="52"/>
+      <c r="H16" s="52"/>
+      <c r="I16" s="55" t="s">
+        <v>179</v>
+      </c>
+      <c r="J16" s="56">
+        <f>J8</f>
+        <v>3219332.5</v>
+      </c>
+    </row>
+    <row r="17" spans="1:10" ht="24" x14ac:dyDescent="0.3">
+      <c r="A17" s="31">
+        <v>2</v>
+      </c>
+      <c r="B17" s="32" t="e" vm="2">
+        <v>#VALUE!</v>
+      </c>
+      <c r="C17" s="51" t="str" cm="1">
+        <f t="array" ref="C17">_FV(B17,"Industry")</f>
+        <v>Software &amp; IT Services</v>
+      </c>
+      <c r="D17" s="33" cm="1">
+        <f t="array" ref="D17">_FV(B17,"Price")</f>
+        <v>457.32990000000001</v>
+      </c>
+      <c r="F17" s="52"/>
+      <c r="G17" s="52"/>
+      <c r="H17" s="52"/>
+      <c r="I17" s="55" t="s">
+        <v>8</v>
+      </c>
+      <c r="J17" s="56">
+        <f>J10</f>
+        <v>2920280</v>
+      </c>
+    </row>
+    <row r="18" spans="1:10" ht="36" x14ac:dyDescent="0.3">
+      <c r="A18" s="31">
+        <v>3</v>
+      </c>
+      <c r="B18" s="32" t="e" vm="3">
+        <v>#VALUE!</v>
+      </c>
+      <c r="C18" s="51" t="str" cm="1">
+        <f t="array" ref="C18">_FV(B18,"Industry")</f>
+        <v>Computers, Phones &amp; Household Electronics</v>
+      </c>
+      <c r="D18" s="33" cm="1">
+        <f t="array" ref="D18">_FV(B18,"Price")</f>
+        <v>133.77420000000001</v>
+      </c>
+      <c r="F18" s="53"/>
+      <c r="G18" s="53"/>
+      <c r="H18" s="53"/>
+    </row>
+    <row r="19" spans="1:10" ht="24" x14ac:dyDescent="0.3">
+      <c r="A19" s="31">
+        <v>4</v>
+      </c>
+      <c r="B19" s="32" t="e" vm="4">
+        <v>#VALUE!</v>
+      </c>
+      <c r="C19" s="51" t="str" cm="1">
+        <f t="array" ref="C19">_FV(B19,"Industry")</f>
+        <v>Metals &amp; Mining</v>
+      </c>
+      <c r="D19" s="33" cm="1">
+        <f t="array" ref="D19">_FV(B19,"Price")</f>
+        <v>29.278199999999998</v>
+      </c>
+    </row>
+    <row r="20" spans="1:10" ht="24" x14ac:dyDescent="0.3">
+      <c r="A20" s="31">
+        <v>5</v>
+      </c>
+      <c r="B20" s="32" t="e" vm="5">
+        <v>#VALUE!</v>
+      </c>
+      <c r="C20" s="51" t="s">
+        <v>8</v>
+      </c>
+      <c r="D20" s="33" cm="1">
+        <f t="array" ref="D20">_FV(B20,"Price")</f>
+        <v>178.77</v>
+      </c>
+    </row>
+    <row r="21" spans="1:10" ht="24" x14ac:dyDescent="0.3">
+      <c r="A21" s="31">
+        <v>6</v>
+      </c>
+      <c r="B21" s="32" t="e" vm="6">
+        <v>#VALUE!</v>
+      </c>
+      <c r="C21" s="51" t="str" cm="1">
+        <f t="array" ref="C21">_FV(B21,"Industry")</f>
+        <v>Industrial Conglomerates</v>
+      </c>
+      <c r="D21" s="33" cm="1">
+        <f t="array" ref="D21">_FV(B21,"Price")</f>
+        <v>6.19</v>
+      </c>
+    </row>
+    <row r="22" spans="1:10" ht="24" x14ac:dyDescent="0.3">
+      <c r="A22" s="31">
+        <v>7</v>
+      </c>
+      <c r="B22" s="32" t="e" vm="7">
+        <v>#VALUE!</v>
+      </c>
+      <c r="C22" s="51" t="str" cm="1">
+        <f t="array" ref="C22">_FV(B22,"Industry")</f>
+        <v>Software &amp; IT Services</v>
+      </c>
+      <c r="D22" s="33" cm="1">
+        <f t="array" ref="D22">_FV(B22,"Price")</f>
+        <v>227.27</v>
+      </c>
+    </row>
+    <row r="23" spans="1:10" ht="36" x14ac:dyDescent="0.3">
+      <c r="A23" s="31">
+        <v>8</v>
+      </c>
+      <c r="B23" s="32" t="e" vm="8">
+        <v>#VALUE!</v>
+      </c>
+      <c r="C23" s="51" t="str" cm="1">
+        <f t="array" ref="C23">_FV(B23,"Industry")</f>
+        <v>Passenger Transportation Services</v>
+      </c>
+      <c r="D23" s="34" cm="1">
+        <f t="array" ref="D23">_FV(B23,"Price")</f>
+        <v>13.1</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="4">
+    <mergeCell ref="A14:D14"/>
+    <mergeCell ref="F14:M14"/>
+    <mergeCell ref="F16:H17"/>
+    <mergeCell ref="F15:M15"/>
+  </mergeCells>
+  <conditionalFormatting sqref="J3:J7">
+    <cfRule type="cellIs" dxfId="3" priority="3" operator="greaterThan">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="2" priority="4" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="J10">
+    <cfRule type="cellIs" dxfId="1" priority="1" operator="greaterThan">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="0" priority="2" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>